--- a/prisma/seed/data/cheapblinds_data.xlsx
+++ b/prisma/seed/data/cheapblinds_data.xlsx
@@ -1201,10 +1201,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C2" t="str">
-        <v>f15d0076-a5c6-4865-9078-ad4c4be7cf13</v>
+        <v>ef348472-613b-444c-999c-094fb8793d0b</v>
       </c>
       <c r="D2" t="str">
-        <v>18fc9557-603b-49ad-ba94-ce9dde578fb3</v>
+        <v>e6b109b1-def8-4676-b34b-0605cc072c45</v>
       </c>
       <c r="E2" t="str">
         <v>Classic Roller Blind</v>
@@ -1290,10 +1290,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C3" t="str">
-        <v>f15d0076-a5c6-4865-9078-ad4c4be7cf13</v>
+        <v>ef348472-613b-444c-999c-094fb8793d0b</v>
       </c>
       <c r="D3" t="str">
-        <v>18fc9557-603b-49ad-ba94-ce9dde578fb3</v>
+        <v>e6b109b1-def8-4676-b34b-0605cc072c45</v>
       </c>
       <c r="E3" t="str">
         <v>Wooden Venetian Blind</v>
@@ -1379,10 +1379,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C4" t="str">
-        <v>f15d0076-a5c6-4865-9078-ad4c4be7cf13</v>
+        <v>ef348472-613b-444c-999c-094fb8793d0b</v>
       </c>
       <c r="D4" t="str">
-        <v>18fc9557-603b-49ad-ba94-ce9dde578fb3</v>
+        <v>e6b109b1-def8-4676-b34b-0605cc072c45</v>
       </c>
       <c r="E4" t="str">
         <v>Blackout Shade</v>
@@ -1468,10 +1468,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C5" t="str">
-        <v>f15d0076-a5c6-4865-9078-ad4c4be7cf13</v>
+        <v>ef348472-613b-444c-999c-094fb8793d0b</v>
       </c>
       <c r="D5" t="str">
-        <v>18fc9557-603b-49ad-ba94-ce9dde578fb3</v>
+        <v>e6b109b1-def8-4676-b34b-0605cc072c45</v>
       </c>
       <c r="E5" t="str">
         <v>Sheer Curtain</v>
@@ -1557,10 +1557,10 @@
         <v>See-through Roller Blind</v>
       </c>
       <c r="C6" t="str">
-        <v>f15d0076-a5c6-4865-9078-ad4c4be7cf13</v>
+        <v>ef348472-613b-444c-999c-094fb8793d0b</v>
       </c>
       <c r="D6" t="str">
-        <v>8eb79a1e-09c8-4d53-ba05-79e40e8f306d</v>
+        <v>bf131059-09a8-4ecd-b005-5ff45bad3e96</v>
       </c>
       <c r="E6" t="str">
         <v>Blackout Curtain</v>
@@ -1646,10 +1646,10 @@
         <v>See-through Roller Blind</v>
       </c>
       <c r="C7" t="str">
-        <v>f15d0076-a5c6-4865-9078-ad4c4be7cf13</v>
+        <v>ef348472-613b-444c-999c-094fb8793d0b</v>
       </c>
       <c r="D7" t="str">
-        <v>8eb79a1e-09c8-4d53-ba05-79e40e8f306d</v>
+        <v>bf131059-09a8-4ecd-b005-5ff45bad3e96</v>
       </c>
       <c r="E7" t="str">
         <v>Decorative Valance</v>
@@ -1735,10 +1735,10 @@
         <v>See-through Roller Blind</v>
       </c>
       <c r="C8" t="str">
-        <v>f15d0076-a5c6-4865-9078-ad4c4be7cf13</v>
+        <v>ef348472-613b-444c-999c-094fb8793d0b</v>
       </c>
       <c r="D8" t="str">
-        <v>8eb79a1e-09c8-4d53-ba05-79e40e8f306d</v>
+        <v>bf131059-09a8-4ecd-b005-5ff45bad3e96</v>
       </c>
       <c r="E8" t="str">
         <v>Mounting Brackets</v>
@@ -1824,10 +1824,10 @@
         <v>See-through Roller Blind</v>
       </c>
       <c r="C9" t="str">
-        <v>f15d0076-a5c6-4865-9078-ad4c4be7cf13</v>
+        <v>ef348472-613b-444c-999c-094fb8793d0b</v>
       </c>
       <c r="D9" t="str">
-        <v>8eb79a1e-09c8-4d53-ba05-79e40e8f306d</v>
+        <v>bf131059-09a8-4ecd-b005-5ff45bad3e96</v>
       </c>
       <c r="E9" t="str">
         <v>Panel Blind</v>
@@ -1913,10 +1913,10 @@
         <v>See-through Roller Blind</v>
       </c>
       <c r="C10" t="str">
-        <v>f15d0076-a5c6-4865-9078-ad4c4be7cf13</v>
+        <v>ef348472-613b-444c-999c-094fb8793d0b</v>
       </c>
       <c r="D10" t="str">
-        <v>8eb79a1e-09c8-4d53-ba05-79e40e8f306d</v>
+        <v>bf131059-09a8-4ecd-b005-5ff45bad3e96</v>
       </c>
       <c r="E10" t="str">
         <v>Cellular Shade</v>
@@ -2002,10 +2002,10 @@
         <v>Dimout Roller Blinds</v>
       </c>
       <c r="C11" t="str">
-        <v>f15d0076-a5c6-4865-9078-ad4c4be7cf13</v>
+        <v>ef348472-613b-444c-999c-094fb8793d0b</v>
       </c>
       <c r="D11" t="str">
-        <v>7215e283-df07-4349-8020-9c80a367764b</v>
+        <v>1201ed01-fc66-4b41-a720-825a63b7d326</v>
       </c>
       <c r="E11" t="str">
         <v>Motorized Roller Blind</v>
@@ -2091,10 +2091,10 @@
         <v>Dimout Roller Blinds</v>
       </c>
       <c r="C12" t="str">
-        <v>f15d0076-a5c6-4865-9078-ad4c4be7cf13</v>
+        <v>ef348472-613b-444c-999c-094fb8793d0b</v>
       </c>
       <c r="D12" t="str">
-        <v>7215e283-df07-4349-8020-9c80a367764b</v>
+        <v>1201ed01-fc66-4b41-a720-825a63b7d326</v>
       </c>
       <c r="E12" t="str">
         <v>Premium Roller Blind</v>
@@ -2180,10 +2180,10 @@
         <v>Dimout Roller Blinds</v>
       </c>
       <c r="C13" t="str">
-        <v>f15d0076-a5c6-4865-9078-ad4c4be7cf13</v>
+        <v>ef348472-613b-444c-999c-094fb8793d0b</v>
       </c>
       <c r="D13" t="str">
-        <v>7215e283-df07-4349-8020-9c80a367764b</v>
+        <v>1201ed01-fc66-4b41-a720-825a63b7d326</v>
       </c>
       <c r="E13" t="str">
         <v>Dual Layer Roller Blind</v>
@@ -2269,10 +2269,10 @@
         <v>Waterproof Roller Blinds</v>
       </c>
       <c r="C14" t="str">
-        <v>f15d0076-a5c6-4865-9078-ad4c4be7cf13</v>
+        <v>ef348472-613b-444c-999c-094fb8793d0b</v>
       </c>
       <c r="D14" t="str">
-        <v>310ddb59-496c-4dd0-9820-2c213f751324</v>
+        <v>62fd2b87-f836-4949-b5a4-53739e6ca069</v>
       </c>
       <c r="E14" t="str">
         <v>Day Night Roller Blind</v>
@@ -2358,10 +2358,10 @@
         <v>Waterproof Roller Blinds</v>
       </c>
       <c r="C15" t="str">
-        <v>f15d0076-a5c6-4865-9078-ad4c4be7cf13</v>
+        <v>ef348472-613b-444c-999c-094fb8793d0b</v>
       </c>
       <c r="D15" t="str">
-        <v>310ddb59-496c-4dd0-9820-2c213f751324</v>
+        <v>62fd2b87-f836-4949-b5a4-53739e6ca069</v>
       </c>
       <c r="E15" t="str">
         <v>PVC Venetian Blind</v>
@@ -2447,10 +2447,10 @@
         <v>Waterproof Roller Blinds</v>
       </c>
       <c r="C16" t="str">
-        <v>f15d0076-a5c6-4865-9078-ad4c4be7cf13</v>
+        <v>ef348472-613b-444c-999c-094fb8793d0b</v>
       </c>
       <c r="D16" t="str">
-        <v>310ddb59-496c-4dd0-9820-2c213f751324</v>
+        <v>62fd2b87-f836-4949-b5a4-53739e6ca069</v>
       </c>
       <c r="E16" t="str">
         <v>Aluminum Venetian Blind</v>
@@ -2536,10 +2536,10 @@
         <v>Waterproof Roller Blinds</v>
       </c>
       <c r="C17" t="str">
-        <v>f15d0076-a5c6-4865-9078-ad4c4be7cf13</v>
+        <v>ef348472-613b-444c-999c-094fb8793d0b</v>
       </c>
       <c r="D17" t="str">
-        <v>310ddb59-496c-4dd0-9820-2c213f751324</v>
+        <v>62fd2b87-f836-4949-b5a4-53739e6ca069</v>
       </c>
       <c r="E17" t="str">
         <v>Fabric Roman Blind</v>
@@ -2625,10 +2625,10 @@
         <v>Blackout Roman Blinds</v>
       </c>
       <c r="C18" t="str">
-        <v>41e2705b-e4d4-4513-b4f6-e99ad194178e</v>
+        <v>004af3f7-f2e7-4040-8cf8-1d210f16dbd1</v>
       </c>
       <c r="D18" t="str">
-        <v>3ccda025-46d6-4b46-ad62-14576f57810f</v>
+        <v>75487737-c412-4663-a606-b6f190271911</v>
       </c>
       <c r="E18" t="str">
         <v>Luxury Roman Blind</v>
@@ -2714,10 +2714,10 @@
         <v>Blackout Roman Blinds</v>
       </c>
       <c r="C19" t="str">
-        <v>41e2705b-e4d4-4513-b4f6-e99ad194178e</v>
+        <v>004af3f7-f2e7-4040-8cf8-1d210f16dbd1</v>
       </c>
       <c r="D19" t="str">
-        <v>3ccda025-46d6-4b46-ad62-14576f57810f</v>
+        <v>75487737-c412-4663-a606-b6f190271911</v>
       </c>
       <c r="E19" t="str">
         <v>Thermal Blackout Blind</v>
@@ -2803,10 +2803,10 @@
         <v>Blackout Roman Blinds</v>
       </c>
       <c r="C20" t="str">
-        <v>41e2705b-e4d4-4513-b4f6-e99ad194178e</v>
+        <v>004af3f7-f2e7-4040-8cf8-1d210f16dbd1</v>
       </c>
       <c r="D20" t="str">
-        <v>3ccda025-46d6-4b46-ad62-14576f57810f</v>
+        <v>75487737-c412-4663-a606-b6f190271911</v>
       </c>
       <c r="E20" t="str">
         <v>Printed Roller Blind</v>
@@ -2892,10 +2892,10 @@
         <v>Blackout Roman Blinds</v>
       </c>
       <c r="C21" t="str">
-        <v>41e2705b-e4d4-4513-b4f6-e99ad194178e</v>
+        <v>004af3f7-f2e7-4040-8cf8-1d210f16dbd1</v>
       </c>
       <c r="D21" t="str">
-        <v>3ccda025-46d6-4b46-ad62-14576f57810f</v>
+        <v>75487737-c412-4663-a606-b6f190271911</v>
       </c>
       <c r="E21" t="str">
         <v>Plain White Roller Blind</v>
@@ -2981,10 +2981,10 @@
         <v>See-through Roman Blinds</v>
       </c>
       <c r="C22" t="str">
-        <v>41e2705b-e4d4-4513-b4f6-e99ad194178e</v>
+        <v>004af3f7-f2e7-4040-8cf8-1d210f16dbd1</v>
       </c>
       <c r="D22" t="str">
-        <v>fe4bc925-6937-490d-808d-c1b6be10be9e</v>
+        <v>b20d318c-2420-499a-9cf2-0cf5c25a0000</v>
       </c>
       <c r="E22" t="str">
         <v>Smart Motorized Blind</v>
@@ -3070,10 +3070,10 @@
         <v>See-through Roman Blinds</v>
       </c>
       <c r="C23" t="str">
-        <v>41e2705b-e4d4-4513-b4f6-e99ad194178e</v>
+        <v>004af3f7-f2e7-4040-8cf8-1d210f16dbd1</v>
       </c>
       <c r="D23" t="str">
-        <v>fe4bc925-6937-490d-808d-c1b6be10be9e</v>
+        <v>b20d318c-2420-499a-9cf2-0cf5c25a0000</v>
       </c>
       <c r="E23" t="str">
         <v>Remote Control Blind</v>
@@ -3159,10 +3159,10 @@
         <v>See-through Roman Blinds</v>
       </c>
       <c r="C24" t="str">
-        <v>41e2705b-e4d4-4513-b4f6-e99ad194178e</v>
+        <v>004af3f7-f2e7-4040-8cf8-1d210f16dbd1</v>
       </c>
       <c r="D24" t="str">
-        <v>fe4bc925-6937-490d-808d-c1b6be10be9e</v>
+        <v>b20d318c-2420-499a-9cf2-0cf5c25a0000</v>
       </c>
       <c r="E24" t="str">
         <v>Cordless Roller Blind</v>
@@ -3248,10 +3248,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C25" t="str">
-        <v>41e2705b-e4d4-4513-b4f6-e99ad194178e</v>
+        <v>004af3f7-f2e7-4040-8cf8-1d210f16dbd1</v>
       </c>
       <c r="D25" t="str">
-        <v>032ce9fb-47a0-4be8-ba05-b9d61695b6eb</v>
+        <v>9c33155e-3de9-47e1-8bcc-4f17175b2d9c</v>
       </c>
       <c r="E25" t="str">
         <v>Waterproof Roller Blind</v>
@@ -3337,10 +3337,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C26" t="str">
-        <v>41e2705b-e4d4-4513-b4f6-e99ad194178e</v>
+        <v>004af3f7-f2e7-4040-8cf8-1d210f16dbd1</v>
       </c>
       <c r="D26" t="str">
-        <v>032ce9fb-47a0-4be8-ba05-b9d61695b6eb</v>
+        <v>9c33155e-3de9-47e1-8bcc-4f17175b2d9c</v>
       </c>
       <c r="E26" t="str">
         <v>Kitchen Roller Blind</v>
@@ -3426,10 +3426,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C27" t="str">
-        <v>41e2705b-e4d4-4513-b4f6-e99ad194178e</v>
+        <v>004af3f7-f2e7-4040-8cf8-1d210f16dbd1</v>
       </c>
       <c r="D27" t="str">
-        <v>032ce9fb-47a0-4be8-ba05-b9d61695b6eb</v>
+        <v>9c33155e-3de9-47e1-8bcc-4f17175b2d9c</v>
       </c>
       <c r="E27" t="str">
         <v>Bathroom Roller Blind</v>
@@ -3515,10 +3515,10 @@
         <v>Dimout Zebra Blind</v>
       </c>
       <c r="C28" t="str">
-        <v>fca1a2dc-497c-4cc2-aca5-5bec2d782043</v>
+        <v>ac5f6482-6793-45d0-a65f-3b53c430d985</v>
       </c>
       <c r="D28" t="str">
-        <v>44bd6799-2fda-4bea-826f-2e09f839a697</v>
+        <v>16d59265-ba58-48d9-a948-36f1f3ea61dd</v>
       </c>
       <c r="E28" t="str">
         <v>Office Roller Blind</v>
@@ -3604,10 +3604,10 @@
         <v>Dimout Zebra Blind</v>
       </c>
       <c r="C29" t="str">
-        <v>fca1a2dc-497c-4cc2-aca5-5bec2d782043</v>
+        <v>ac5f6482-6793-45d0-a65f-3b53c430d985</v>
       </c>
       <c r="D29" t="str">
-        <v>44bd6799-2fda-4bea-826f-2e09f839a697</v>
+        <v>16d59265-ba58-48d9-a948-36f1f3ea61dd</v>
       </c>
       <c r="E29" t="str">
         <v>Vertical Blind</v>
@@ -3693,10 +3693,10 @@
         <v>Dimout Zebra Blind</v>
       </c>
       <c r="C30" t="str">
-        <v>fca1a2dc-497c-4cc2-aca5-5bec2d782043</v>
+        <v>ac5f6482-6793-45d0-a65f-3b53c430d985</v>
       </c>
       <c r="D30" t="str">
-        <v>44bd6799-2fda-4bea-826f-2e09f839a697</v>
+        <v>16d59265-ba58-48d9-a948-36f1f3ea61dd</v>
       </c>
       <c r="E30" t="str">
         <v>Fabric Vertical Blind</v>
@@ -3782,10 +3782,10 @@
         <v>Dimout Zebra Blind</v>
       </c>
       <c r="C31" t="str">
-        <v>fca1a2dc-497c-4cc2-aca5-5bec2d782043</v>
+        <v>ac5f6482-6793-45d0-a65f-3b53c430d985</v>
       </c>
       <c r="D31" t="str">
-        <v>44bd6799-2fda-4bea-826f-2e09f839a697</v>
+        <v>16d59265-ba58-48d9-a948-36f1f3ea61dd</v>
       </c>
       <c r="E31" t="str">
         <v>PVC Vertical Blind</v>
@@ -3871,10 +3871,10 @@
         <v>Dimout Zebra Blind</v>
       </c>
       <c r="C32" t="str">
-        <v>fca1a2dc-497c-4cc2-aca5-5bec2d782043</v>
+        <v>ac5f6482-6793-45d0-a65f-3b53c430d985</v>
       </c>
       <c r="D32" t="str">
-        <v>44bd6799-2fda-4bea-826f-2e09f839a697</v>
+        <v>16d59265-ba58-48d9-a948-36f1f3ea61dd</v>
       </c>
       <c r="E32" t="str">
         <v>Classic Curtain Panel</v>
@@ -3960,10 +3960,10 @@
         <v>Dimout Zebra Blind</v>
       </c>
       <c r="C33" t="str">
-        <v>fca1a2dc-497c-4cc2-aca5-5bec2d782043</v>
+        <v>ac5f6482-6793-45d0-a65f-3b53c430d985</v>
       </c>
       <c r="D33" t="str">
-        <v>44bd6799-2fda-4bea-826f-2e09f839a697</v>
+        <v>16d59265-ba58-48d9-a948-36f1f3ea61dd</v>
       </c>
       <c r="E33" t="str">
         <v>Eyelet Curtain</v>
@@ -4049,10 +4049,10 @@
         <v>Dimout Zebra Blind</v>
       </c>
       <c r="C34" t="str">
-        <v>fca1a2dc-497c-4cc2-aca5-5bec2d782043</v>
+        <v>ac5f6482-6793-45d0-a65f-3b53c430d985</v>
       </c>
       <c r="D34" t="str">
-        <v>44bd6799-2fda-4bea-826f-2e09f839a697</v>
+        <v>16d59265-ba58-48d9-a948-36f1f3ea61dd</v>
       </c>
       <c r="E34" t="str">
         <v>Pinch Pleat Curtain</v>
@@ -4138,10 +4138,10 @@
         <v>Dimout Zebra Blind</v>
       </c>
       <c r="C35" t="str">
-        <v>fca1a2dc-497c-4cc2-aca5-5bec2d782043</v>
+        <v>ac5f6482-6793-45d0-a65f-3b53c430d985</v>
       </c>
       <c r="D35" t="str">
-        <v>44bd6799-2fda-4bea-826f-2e09f839a697</v>
+        <v>16d59265-ba58-48d9-a948-36f1f3ea61dd</v>
       </c>
       <c r="E35" t="str">
         <v>Linen Curtain</v>
@@ -4227,10 +4227,10 @@
         <v>Dimout Zebra Blind</v>
       </c>
       <c r="C36" t="str">
-        <v>fca1a2dc-497c-4cc2-aca5-5bec2d782043</v>
+        <v>ac5f6482-6793-45d0-a65f-3b53c430d985</v>
       </c>
       <c r="D36" t="str">
-        <v>44bd6799-2fda-4bea-826f-2e09f839a697</v>
+        <v>16d59265-ba58-48d9-a948-36f1f3ea61dd</v>
       </c>
       <c r="E36" t="str">
         <v>Velvet Curtain</v>
@@ -4316,10 +4316,10 @@
         <v>Dimout Zebra Blind</v>
       </c>
       <c r="C37" t="str">
-        <v>fca1a2dc-497c-4cc2-aca5-5bec2d782043</v>
+        <v>ac5f6482-6793-45d0-a65f-3b53c430d985</v>
       </c>
       <c r="D37" t="str">
-        <v>44bd6799-2fda-4bea-826f-2e09f839a697</v>
+        <v>16d59265-ba58-48d9-a948-36f1f3ea61dd</v>
       </c>
       <c r="E37" t="str">
         <v>Thermal Curtain</v>
@@ -4405,10 +4405,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C38" t="str">
-        <v>fca1a2dc-497c-4cc2-aca5-5bec2d782043</v>
+        <v>ac5f6482-6793-45d0-a65f-3b53c430d985</v>
       </c>
       <c r="D38" t="str">
-        <v>8dad67d1-a602-4aef-872c-858c5a797705</v>
+        <v>2f5bfaf3-39b1-4cba-9796-0a127d606c70</v>
       </c>
       <c r="E38" t="str">
         <v>Noise Reducing Curtain</v>
@@ -4494,10 +4494,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C39" t="str">
-        <v>fca1a2dc-497c-4cc2-aca5-5bec2d782043</v>
+        <v>ac5f6482-6793-45d0-a65f-3b53c430d985</v>
       </c>
       <c r="D39" t="str">
-        <v>8dad67d1-a602-4aef-872c-858c5a797705</v>
+        <v>2f5bfaf3-39b1-4cba-9796-0a127d606c70</v>
       </c>
       <c r="E39" t="str">
         <v>Sheer White Curtain</v>
@@ -4583,10 +4583,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C40" t="str">
-        <v>fca1a2dc-497c-4cc2-aca5-5bec2d782043</v>
+        <v>ac5f6482-6793-45d0-a65f-3b53c430d985</v>
       </c>
       <c r="D40" t="str">
-        <v>8dad67d1-a602-4aef-872c-858c5a797705</v>
+        <v>2f5bfaf3-39b1-4cba-9796-0a127d606c70</v>
       </c>
       <c r="E40" t="str">
         <v>Patterned Curtain</v>
@@ -4672,10 +4672,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C41" t="str">
-        <v>fca1a2dc-497c-4cc2-aca5-5bec2d782043</v>
+        <v>ac5f6482-6793-45d0-a65f-3b53c430d985</v>
       </c>
       <c r="D41" t="str">
-        <v>8dad67d1-a602-4aef-872c-858c5a797705</v>
+        <v>2f5bfaf3-39b1-4cba-9796-0a127d606c70</v>
       </c>
       <c r="E41" t="str">
         <v>Kids Room Curtain</v>
@@ -4761,10 +4761,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C42" t="str">
-        <v>fca1a2dc-497c-4cc2-aca5-5bec2d782043</v>
+        <v>ac5f6482-6793-45d0-a65f-3b53c430d985</v>
       </c>
       <c r="D42" t="str">
-        <v>8dad67d1-a602-4aef-872c-858c5a797705</v>
+        <v>2f5bfaf3-39b1-4cba-9796-0a127d606c70</v>
       </c>
       <c r="E42" t="str">
         <v>Bedroom Blackout Curtain</v>
@@ -4850,10 +4850,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C43" t="str">
-        <v>fca1a2dc-497c-4cc2-aca5-5bec2d782043</v>
+        <v>ac5f6482-6793-45d0-a65f-3b53c430d985</v>
       </c>
       <c r="D43" t="str">
-        <v>8dad67d1-a602-4aef-872c-858c5a797705</v>
+        <v>2f5bfaf3-39b1-4cba-9796-0a127d606c70</v>
       </c>
       <c r="E43" t="str">
         <v>Living Room Curtain</v>
@@ -4939,10 +4939,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C44" t="str">
-        <v>e8abd552-1085-48f3-8728-b488b801ee1c</v>
+        <v>37693b8e-e314-4075-ae14-e5b367c1d0b0</v>
       </c>
       <c r="D44" t="str">
-        <v>c7805dbb-d8fc-44fc-ad31-f1413c18dce9</v>
+        <v>373279f4-80e5-48c4-b051-a1c45ef22472</v>
       </c>
       <c r="E44" t="str">
         <v>Window Valance</v>
@@ -5028,10 +5028,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C45" t="str">
-        <v>e8abd552-1085-48f3-8728-b488b801ee1c</v>
+        <v>37693b8e-e314-4075-ae14-e5b367c1d0b0</v>
       </c>
       <c r="D45" t="str">
-        <v>c7805dbb-d8fc-44fc-ad31-f1413c18dce9</v>
+        <v>373279f4-80e5-48c4-b051-a1c45ef22472</v>
       </c>
       <c r="E45" t="str">
         <v>Straight Valance</v>
@@ -5117,10 +5117,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C46" t="str">
-        <v>e8abd552-1085-48f3-8728-b488b801ee1c</v>
+        <v>37693b8e-e314-4075-ae14-e5b367c1d0b0</v>
       </c>
       <c r="D46" t="str">
-        <v>c7805dbb-d8fc-44fc-ad31-f1413c18dce9</v>
+        <v>373279f4-80e5-48c4-b051-a1c45ef22472</v>
       </c>
       <c r="E46" t="str">
         <v>Box Pleat Valance</v>
@@ -5206,10 +5206,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C47" t="str">
-        <v>e8abd552-1085-48f3-8728-b488b801ee1c</v>
+        <v>37693b8e-e314-4075-ae14-e5b367c1d0b0</v>
       </c>
       <c r="D47" t="str">
-        <v>c7805dbb-d8fc-44fc-ad31-f1413c18dce9</v>
+        <v>373279f4-80e5-48c4-b051-a1c45ef22472</v>
       </c>
       <c r="E47" t="str">
         <v>Decor Trim Valance</v>
@@ -5295,10 +5295,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C48" t="str">
-        <v>e8abd552-1085-48f3-8728-b488b801ee1c</v>
+        <v>37693b8e-e314-4075-ae14-e5b367c1d0b0</v>
       </c>
       <c r="D48" t="str">
-        <v>c7805dbb-d8fc-44fc-ad31-f1413c18dce9</v>
+        <v>373279f4-80e5-48c4-b051-a1c45ef22472</v>
       </c>
       <c r="E48" t="str">
         <v>Blind Mounting Kit</v>
@@ -5384,10 +5384,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C49" t="str">
-        <v>e8abd552-1085-48f3-8728-b488b801ee1c</v>
+        <v>37693b8e-e314-4075-ae14-e5b367c1d0b0</v>
       </c>
       <c r="D49" t="str">
-        <v>c7805dbb-d8fc-44fc-ad31-f1413c18dce9</v>
+        <v>373279f4-80e5-48c4-b051-a1c45ef22472</v>
       </c>
       <c r="E49" t="str">
         <v>Ceiling Mount Bracket</v>
@@ -5473,10 +5473,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C50" t="str">
-        <v>e8abd552-1085-48f3-8728-b488b801ee1c</v>
+        <v>37693b8e-e314-4075-ae14-e5b367c1d0b0</v>
       </c>
       <c r="D50" t="str">
-        <v>c7805dbb-d8fc-44fc-ad31-f1413c18dce9</v>
+        <v>373279f4-80e5-48c4-b051-a1c45ef22472</v>
       </c>
       <c r="E50" t="str">
         <v>Wall Mount Bracket</v>
@@ -5562,10 +5562,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C51" t="str">
-        <v>e8abd552-1085-48f3-8728-b488b801ee1c</v>
+        <v>37693b8e-e314-4075-ae14-e5b367c1d0b0</v>
       </c>
       <c r="D51" t="str">
-        <v>c7805dbb-d8fc-44fc-ad31-f1413c18dce9</v>
+        <v>373279f4-80e5-48c4-b051-a1c45ef22472</v>
       </c>
       <c r="E51" t="str">
         <v>Heavy Duty Bracket</v>
@@ -5651,10 +5651,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C52" t="str">
-        <v>e8abd552-1085-48f3-8728-b488b801ee1c</v>
+        <v>37693b8e-e314-4075-ae14-e5b367c1d0b0</v>
       </c>
       <c r="D52" t="str">
-        <v>c7805dbb-d8fc-44fc-ad31-f1413c18dce9</v>
+        <v>373279f4-80e5-48c4-b051-a1c45ef22472</v>
       </c>
       <c r="E52" t="str">
         <v>Slim Panel Blind</v>
@@ -5740,10 +5740,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C53" t="str">
-        <v>e8abd552-1085-48f3-8728-b488b801ee1c</v>
+        <v>37693b8e-e314-4075-ae14-e5b367c1d0b0</v>
       </c>
       <c r="D53" t="str">
-        <v>bd6bd5a9-d04f-4841-bf72-9ccfcf06f0a0</v>
+        <v>1d22baed-ba60-4747-b8aa-aece33843d86</v>
       </c>
       <c r="E53" t="str">
         <v>Wide Panel Blind</v>
@@ -5829,10 +5829,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C54" t="str">
-        <v>e8abd552-1085-48f3-8728-b488b801ee1c</v>
+        <v>37693b8e-e314-4075-ae14-e5b367c1d0b0</v>
       </c>
       <c r="D54" t="str">
-        <v>bd6bd5a9-d04f-4841-bf72-9ccfcf06f0a0</v>
+        <v>1d22baed-ba60-4747-b8aa-aece33843d86</v>
       </c>
       <c r="E54" t="str">
         <v>Honeycomb Cellular Shade</v>
@@ -5918,10 +5918,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C55" t="str">
-        <v>e8abd552-1085-48f3-8728-b488b801ee1c</v>
+        <v>37693b8e-e314-4075-ae14-e5b367c1d0b0</v>
       </c>
       <c r="D55" t="str">
-        <v>bd6bd5a9-d04f-4841-bf72-9ccfcf06f0a0</v>
+        <v>1d22baed-ba60-4747-b8aa-aece33843d86</v>
       </c>
       <c r="E55" t="str">
         <v>Top Down Bottom Up Shade</v>
@@ -6007,10 +6007,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C56" t="str">
-        <v>e8abd552-1085-48f3-8728-b488b801ee1c</v>
+        <v>37693b8e-e314-4075-ae14-e5b367c1d0b0</v>
       </c>
       <c r="D56" t="str">
-        <v>bd6bd5a9-d04f-4841-bf72-9ccfcf06f0a0</v>
+        <v>1d22baed-ba60-4747-b8aa-aece33843d86</v>
       </c>
       <c r="E56" t="str">
         <v>Energy Saving Shade</v>
@@ -6096,10 +6096,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C57" t="str">
-        <v>e8abd552-1085-48f3-8728-b488b801ee1c</v>
+        <v>37693b8e-e314-4075-ae14-e5b367c1d0b0</v>
       </c>
       <c r="D57" t="str">
-        <v>bd6bd5a9-d04f-4841-bf72-9ccfcf06f0a0</v>
+        <v>1d22baed-ba60-4747-b8aa-aece33843d86</v>
       </c>
       <c r="E57" t="str">
         <v>Custom Size Window Blind</v>

--- a/prisma/seed/data/cheapblinds_data.xlsx
+++ b/prisma/seed/data/cheapblinds_data.xlsx
@@ -1201,10 +1201,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C2" t="str">
-        <v>ef348472-613b-444c-999c-094fb8793d0b</v>
+        <v>f20adf46-e21b-4475-bc9c-1c157ef7610d</v>
       </c>
       <c r="D2" t="str">
-        <v>e6b109b1-def8-4676-b34b-0605cc072c45</v>
+        <v>fd858631-07a9-44f8-ab72-46928d93d15f</v>
       </c>
       <c r="E2" t="str">
         <v>Classic Roller Blind</v>
@@ -1290,10 +1290,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C3" t="str">
-        <v>ef348472-613b-444c-999c-094fb8793d0b</v>
+        <v>f20adf46-e21b-4475-bc9c-1c157ef7610d</v>
       </c>
       <c r="D3" t="str">
-        <v>e6b109b1-def8-4676-b34b-0605cc072c45</v>
+        <v>fd858631-07a9-44f8-ab72-46928d93d15f</v>
       </c>
       <c r="E3" t="str">
         <v>Wooden Venetian Blind</v>
@@ -1379,10 +1379,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C4" t="str">
-        <v>ef348472-613b-444c-999c-094fb8793d0b</v>
+        <v>f20adf46-e21b-4475-bc9c-1c157ef7610d</v>
       </c>
       <c r="D4" t="str">
-        <v>e6b109b1-def8-4676-b34b-0605cc072c45</v>
+        <v>fd858631-07a9-44f8-ab72-46928d93d15f</v>
       </c>
       <c r="E4" t="str">
         <v>Blackout Shade</v>
@@ -1468,10 +1468,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C5" t="str">
-        <v>ef348472-613b-444c-999c-094fb8793d0b</v>
+        <v>f20adf46-e21b-4475-bc9c-1c157ef7610d</v>
       </c>
       <c r="D5" t="str">
-        <v>e6b109b1-def8-4676-b34b-0605cc072c45</v>
+        <v>fd858631-07a9-44f8-ab72-46928d93d15f</v>
       </c>
       <c r="E5" t="str">
         <v>Sheer Curtain</v>
@@ -1557,10 +1557,10 @@
         <v>See-through Roller Blind</v>
       </c>
       <c r="C6" t="str">
-        <v>ef348472-613b-444c-999c-094fb8793d0b</v>
+        <v>f20adf46-e21b-4475-bc9c-1c157ef7610d</v>
       </c>
       <c r="D6" t="str">
-        <v>bf131059-09a8-4ecd-b005-5ff45bad3e96</v>
+        <v>dad2b61c-dcdc-460a-86a2-4b78aad14146</v>
       </c>
       <c r="E6" t="str">
         <v>Blackout Curtain</v>
@@ -1646,10 +1646,10 @@
         <v>See-through Roller Blind</v>
       </c>
       <c r="C7" t="str">
-        <v>ef348472-613b-444c-999c-094fb8793d0b</v>
+        <v>f20adf46-e21b-4475-bc9c-1c157ef7610d</v>
       </c>
       <c r="D7" t="str">
-        <v>bf131059-09a8-4ecd-b005-5ff45bad3e96</v>
+        <v>dad2b61c-dcdc-460a-86a2-4b78aad14146</v>
       </c>
       <c r="E7" t="str">
         <v>Decorative Valance</v>
@@ -1735,10 +1735,10 @@
         <v>See-through Roller Blind</v>
       </c>
       <c r="C8" t="str">
-        <v>ef348472-613b-444c-999c-094fb8793d0b</v>
+        <v>f20adf46-e21b-4475-bc9c-1c157ef7610d</v>
       </c>
       <c r="D8" t="str">
-        <v>bf131059-09a8-4ecd-b005-5ff45bad3e96</v>
+        <v>dad2b61c-dcdc-460a-86a2-4b78aad14146</v>
       </c>
       <c r="E8" t="str">
         <v>Mounting Brackets</v>
@@ -1824,10 +1824,10 @@
         <v>See-through Roller Blind</v>
       </c>
       <c r="C9" t="str">
-        <v>ef348472-613b-444c-999c-094fb8793d0b</v>
+        <v>f20adf46-e21b-4475-bc9c-1c157ef7610d</v>
       </c>
       <c r="D9" t="str">
-        <v>bf131059-09a8-4ecd-b005-5ff45bad3e96</v>
+        <v>dad2b61c-dcdc-460a-86a2-4b78aad14146</v>
       </c>
       <c r="E9" t="str">
         <v>Panel Blind</v>
@@ -1913,10 +1913,10 @@
         <v>See-through Roller Blind</v>
       </c>
       <c r="C10" t="str">
-        <v>ef348472-613b-444c-999c-094fb8793d0b</v>
+        <v>f20adf46-e21b-4475-bc9c-1c157ef7610d</v>
       </c>
       <c r="D10" t="str">
-        <v>bf131059-09a8-4ecd-b005-5ff45bad3e96</v>
+        <v>dad2b61c-dcdc-460a-86a2-4b78aad14146</v>
       </c>
       <c r="E10" t="str">
         <v>Cellular Shade</v>
@@ -2002,10 +2002,10 @@
         <v>Dimout Roller Blinds</v>
       </c>
       <c r="C11" t="str">
-        <v>ef348472-613b-444c-999c-094fb8793d0b</v>
+        <v>f20adf46-e21b-4475-bc9c-1c157ef7610d</v>
       </c>
       <c r="D11" t="str">
-        <v>1201ed01-fc66-4b41-a720-825a63b7d326</v>
+        <v>e96b16a1-1db4-4fdb-9227-f63d14771655</v>
       </c>
       <c r="E11" t="str">
         <v>Motorized Roller Blind</v>
@@ -2091,10 +2091,10 @@
         <v>Dimout Roller Blinds</v>
       </c>
       <c r="C12" t="str">
-        <v>ef348472-613b-444c-999c-094fb8793d0b</v>
+        <v>f20adf46-e21b-4475-bc9c-1c157ef7610d</v>
       </c>
       <c r="D12" t="str">
-        <v>1201ed01-fc66-4b41-a720-825a63b7d326</v>
+        <v>e96b16a1-1db4-4fdb-9227-f63d14771655</v>
       </c>
       <c r="E12" t="str">
         <v>Premium Roller Blind</v>
@@ -2180,10 +2180,10 @@
         <v>Dimout Roller Blinds</v>
       </c>
       <c r="C13" t="str">
-        <v>ef348472-613b-444c-999c-094fb8793d0b</v>
+        <v>f20adf46-e21b-4475-bc9c-1c157ef7610d</v>
       </c>
       <c r="D13" t="str">
-        <v>1201ed01-fc66-4b41-a720-825a63b7d326</v>
+        <v>e96b16a1-1db4-4fdb-9227-f63d14771655</v>
       </c>
       <c r="E13" t="str">
         <v>Dual Layer Roller Blind</v>
@@ -2269,10 +2269,10 @@
         <v>Waterproof Roller Blinds</v>
       </c>
       <c r="C14" t="str">
-        <v>ef348472-613b-444c-999c-094fb8793d0b</v>
+        <v>f20adf46-e21b-4475-bc9c-1c157ef7610d</v>
       </c>
       <c r="D14" t="str">
-        <v>62fd2b87-f836-4949-b5a4-53739e6ca069</v>
+        <v>a8c771b0-910e-4b5b-bc0c-1902d4476642</v>
       </c>
       <c r="E14" t="str">
         <v>Day Night Roller Blind</v>
@@ -2358,10 +2358,10 @@
         <v>Waterproof Roller Blinds</v>
       </c>
       <c r="C15" t="str">
-        <v>ef348472-613b-444c-999c-094fb8793d0b</v>
+        <v>f20adf46-e21b-4475-bc9c-1c157ef7610d</v>
       </c>
       <c r="D15" t="str">
-        <v>62fd2b87-f836-4949-b5a4-53739e6ca069</v>
+        <v>a8c771b0-910e-4b5b-bc0c-1902d4476642</v>
       </c>
       <c r="E15" t="str">
         <v>PVC Venetian Blind</v>
@@ -2447,10 +2447,10 @@
         <v>Waterproof Roller Blinds</v>
       </c>
       <c r="C16" t="str">
-        <v>ef348472-613b-444c-999c-094fb8793d0b</v>
+        <v>f20adf46-e21b-4475-bc9c-1c157ef7610d</v>
       </c>
       <c r="D16" t="str">
-        <v>62fd2b87-f836-4949-b5a4-53739e6ca069</v>
+        <v>a8c771b0-910e-4b5b-bc0c-1902d4476642</v>
       </c>
       <c r="E16" t="str">
         <v>Aluminum Venetian Blind</v>
@@ -2536,10 +2536,10 @@
         <v>Waterproof Roller Blinds</v>
       </c>
       <c r="C17" t="str">
-        <v>ef348472-613b-444c-999c-094fb8793d0b</v>
+        <v>f20adf46-e21b-4475-bc9c-1c157ef7610d</v>
       </c>
       <c r="D17" t="str">
-        <v>62fd2b87-f836-4949-b5a4-53739e6ca069</v>
+        <v>a8c771b0-910e-4b5b-bc0c-1902d4476642</v>
       </c>
       <c r="E17" t="str">
         <v>Fabric Roman Blind</v>
@@ -2625,10 +2625,10 @@
         <v>Blackout Roman Blinds</v>
       </c>
       <c r="C18" t="str">
-        <v>004af3f7-f2e7-4040-8cf8-1d210f16dbd1</v>
+        <v>2e31f713-54ce-47d9-9a21-a14352ef6901</v>
       </c>
       <c r="D18" t="str">
-        <v>75487737-c412-4663-a606-b6f190271911</v>
+        <v>2d78856f-75a7-49a8-9467-a8e65d9b2eae</v>
       </c>
       <c r="E18" t="str">
         <v>Luxury Roman Blind</v>
@@ -2714,10 +2714,10 @@
         <v>Blackout Roman Blinds</v>
       </c>
       <c r="C19" t="str">
-        <v>004af3f7-f2e7-4040-8cf8-1d210f16dbd1</v>
+        <v>2e31f713-54ce-47d9-9a21-a14352ef6901</v>
       </c>
       <c r="D19" t="str">
-        <v>75487737-c412-4663-a606-b6f190271911</v>
+        <v>2d78856f-75a7-49a8-9467-a8e65d9b2eae</v>
       </c>
       <c r="E19" t="str">
         <v>Thermal Blackout Blind</v>
@@ -2803,10 +2803,10 @@
         <v>Blackout Roman Blinds</v>
       </c>
       <c r="C20" t="str">
-        <v>004af3f7-f2e7-4040-8cf8-1d210f16dbd1</v>
+        <v>2e31f713-54ce-47d9-9a21-a14352ef6901</v>
       </c>
       <c r="D20" t="str">
-        <v>75487737-c412-4663-a606-b6f190271911</v>
+        <v>2d78856f-75a7-49a8-9467-a8e65d9b2eae</v>
       </c>
       <c r="E20" t="str">
         <v>Printed Roller Blind</v>
@@ -2892,10 +2892,10 @@
         <v>Blackout Roman Blinds</v>
       </c>
       <c r="C21" t="str">
-        <v>004af3f7-f2e7-4040-8cf8-1d210f16dbd1</v>
+        <v>2e31f713-54ce-47d9-9a21-a14352ef6901</v>
       </c>
       <c r="D21" t="str">
-        <v>75487737-c412-4663-a606-b6f190271911</v>
+        <v>2d78856f-75a7-49a8-9467-a8e65d9b2eae</v>
       </c>
       <c r="E21" t="str">
         <v>Plain White Roller Blind</v>
@@ -2981,10 +2981,10 @@
         <v>See-through Roman Blinds</v>
       </c>
       <c r="C22" t="str">
-        <v>004af3f7-f2e7-4040-8cf8-1d210f16dbd1</v>
+        <v>2e31f713-54ce-47d9-9a21-a14352ef6901</v>
       </c>
       <c r="D22" t="str">
-        <v>b20d318c-2420-499a-9cf2-0cf5c25a0000</v>
+        <v>0b138f75-7651-4e52-9618-73bd83bddad6</v>
       </c>
       <c r="E22" t="str">
         <v>Smart Motorized Blind</v>
@@ -3070,10 +3070,10 @@
         <v>See-through Roman Blinds</v>
       </c>
       <c r="C23" t="str">
-        <v>004af3f7-f2e7-4040-8cf8-1d210f16dbd1</v>
+        <v>2e31f713-54ce-47d9-9a21-a14352ef6901</v>
       </c>
       <c r="D23" t="str">
-        <v>b20d318c-2420-499a-9cf2-0cf5c25a0000</v>
+        <v>0b138f75-7651-4e52-9618-73bd83bddad6</v>
       </c>
       <c r="E23" t="str">
         <v>Remote Control Blind</v>
@@ -3159,10 +3159,10 @@
         <v>See-through Roman Blinds</v>
       </c>
       <c r="C24" t="str">
-        <v>004af3f7-f2e7-4040-8cf8-1d210f16dbd1</v>
+        <v>2e31f713-54ce-47d9-9a21-a14352ef6901</v>
       </c>
       <c r="D24" t="str">
-        <v>b20d318c-2420-499a-9cf2-0cf5c25a0000</v>
+        <v>0b138f75-7651-4e52-9618-73bd83bddad6</v>
       </c>
       <c r="E24" t="str">
         <v>Cordless Roller Blind</v>
@@ -3248,10 +3248,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C25" t="str">
-        <v>004af3f7-f2e7-4040-8cf8-1d210f16dbd1</v>
+        <v>2e31f713-54ce-47d9-9a21-a14352ef6901</v>
       </c>
       <c r="D25" t="str">
-        <v>9c33155e-3de9-47e1-8bcc-4f17175b2d9c</v>
+        <v>0a6649da-c760-4c59-a2f2-7ef3f5284103</v>
       </c>
       <c r="E25" t="str">
         <v>Waterproof Roller Blind</v>
@@ -3337,10 +3337,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C26" t="str">
-        <v>004af3f7-f2e7-4040-8cf8-1d210f16dbd1</v>
+        <v>2e31f713-54ce-47d9-9a21-a14352ef6901</v>
       </c>
       <c r="D26" t="str">
-        <v>9c33155e-3de9-47e1-8bcc-4f17175b2d9c</v>
+        <v>0a6649da-c760-4c59-a2f2-7ef3f5284103</v>
       </c>
       <c r="E26" t="str">
         <v>Kitchen Roller Blind</v>
@@ -3426,10 +3426,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C27" t="str">
-        <v>004af3f7-f2e7-4040-8cf8-1d210f16dbd1</v>
+        <v>2e31f713-54ce-47d9-9a21-a14352ef6901</v>
       </c>
       <c r="D27" t="str">
-        <v>9c33155e-3de9-47e1-8bcc-4f17175b2d9c</v>
+        <v>0a6649da-c760-4c59-a2f2-7ef3f5284103</v>
       </c>
       <c r="E27" t="str">
         <v>Bathroom Roller Blind</v>
@@ -3515,10 +3515,10 @@
         <v>Dimout Zebra Blind</v>
       </c>
       <c r="C28" t="str">
-        <v>ac5f6482-6793-45d0-a65f-3b53c430d985</v>
+        <v>f81bc381-36e7-4364-940f-ec5aeac8cfdb</v>
       </c>
       <c r="D28" t="str">
-        <v>16d59265-ba58-48d9-a948-36f1f3ea61dd</v>
+        <v>17744f51-bf2e-4def-a6c5-dd29fd9f4a46</v>
       </c>
       <c r="E28" t="str">
         <v>Office Roller Blind</v>
@@ -3604,10 +3604,10 @@
         <v>Dimout Zebra Blind</v>
       </c>
       <c r="C29" t="str">
-        <v>ac5f6482-6793-45d0-a65f-3b53c430d985</v>
+        <v>f81bc381-36e7-4364-940f-ec5aeac8cfdb</v>
       </c>
       <c r="D29" t="str">
-        <v>16d59265-ba58-48d9-a948-36f1f3ea61dd</v>
+        <v>17744f51-bf2e-4def-a6c5-dd29fd9f4a46</v>
       </c>
       <c r="E29" t="str">
         <v>Vertical Blind</v>
@@ -3693,10 +3693,10 @@
         <v>Dimout Zebra Blind</v>
       </c>
       <c r="C30" t="str">
-        <v>ac5f6482-6793-45d0-a65f-3b53c430d985</v>
+        <v>f81bc381-36e7-4364-940f-ec5aeac8cfdb</v>
       </c>
       <c r="D30" t="str">
-        <v>16d59265-ba58-48d9-a948-36f1f3ea61dd</v>
+        <v>17744f51-bf2e-4def-a6c5-dd29fd9f4a46</v>
       </c>
       <c r="E30" t="str">
         <v>Fabric Vertical Blind</v>
@@ -3782,10 +3782,10 @@
         <v>Dimout Zebra Blind</v>
       </c>
       <c r="C31" t="str">
-        <v>ac5f6482-6793-45d0-a65f-3b53c430d985</v>
+        <v>f81bc381-36e7-4364-940f-ec5aeac8cfdb</v>
       </c>
       <c r="D31" t="str">
-        <v>16d59265-ba58-48d9-a948-36f1f3ea61dd</v>
+        <v>17744f51-bf2e-4def-a6c5-dd29fd9f4a46</v>
       </c>
       <c r="E31" t="str">
         <v>PVC Vertical Blind</v>
@@ -3871,10 +3871,10 @@
         <v>Dimout Zebra Blind</v>
       </c>
       <c r="C32" t="str">
-        <v>ac5f6482-6793-45d0-a65f-3b53c430d985</v>
+        <v>f81bc381-36e7-4364-940f-ec5aeac8cfdb</v>
       </c>
       <c r="D32" t="str">
-        <v>16d59265-ba58-48d9-a948-36f1f3ea61dd</v>
+        <v>17744f51-bf2e-4def-a6c5-dd29fd9f4a46</v>
       </c>
       <c r="E32" t="str">
         <v>Classic Curtain Panel</v>
@@ -3960,10 +3960,10 @@
         <v>Dimout Zebra Blind</v>
       </c>
       <c r="C33" t="str">
-        <v>ac5f6482-6793-45d0-a65f-3b53c430d985</v>
+        <v>f81bc381-36e7-4364-940f-ec5aeac8cfdb</v>
       </c>
       <c r="D33" t="str">
-        <v>16d59265-ba58-48d9-a948-36f1f3ea61dd</v>
+        <v>17744f51-bf2e-4def-a6c5-dd29fd9f4a46</v>
       </c>
       <c r="E33" t="str">
         <v>Eyelet Curtain</v>
@@ -4049,10 +4049,10 @@
         <v>Dimout Zebra Blind</v>
       </c>
       <c r="C34" t="str">
-        <v>ac5f6482-6793-45d0-a65f-3b53c430d985</v>
+        <v>f81bc381-36e7-4364-940f-ec5aeac8cfdb</v>
       </c>
       <c r="D34" t="str">
-        <v>16d59265-ba58-48d9-a948-36f1f3ea61dd</v>
+        <v>17744f51-bf2e-4def-a6c5-dd29fd9f4a46</v>
       </c>
       <c r="E34" t="str">
         <v>Pinch Pleat Curtain</v>
@@ -4138,10 +4138,10 @@
         <v>Dimout Zebra Blind</v>
       </c>
       <c r="C35" t="str">
-        <v>ac5f6482-6793-45d0-a65f-3b53c430d985</v>
+        <v>f81bc381-36e7-4364-940f-ec5aeac8cfdb</v>
       </c>
       <c r="D35" t="str">
-        <v>16d59265-ba58-48d9-a948-36f1f3ea61dd</v>
+        <v>17744f51-bf2e-4def-a6c5-dd29fd9f4a46</v>
       </c>
       <c r="E35" t="str">
         <v>Linen Curtain</v>
@@ -4227,10 +4227,10 @@
         <v>Dimout Zebra Blind</v>
       </c>
       <c r="C36" t="str">
-        <v>ac5f6482-6793-45d0-a65f-3b53c430d985</v>
+        <v>f81bc381-36e7-4364-940f-ec5aeac8cfdb</v>
       </c>
       <c r="D36" t="str">
-        <v>16d59265-ba58-48d9-a948-36f1f3ea61dd</v>
+        <v>17744f51-bf2e-4def-a6c5-dd29fd9f4a46</v>
       </c>
       <c r="E36" t="str">
         <v>Velvet Curtain</v>
@@ -4316,10 +4316,10 @@
         <v>Dimout Zebra Blind</v>
       </c>
       <c r="C37" t="str">
-        <v>ac5f6482-6793-45d0-a65f-3b53c430d985</v>
+        <v>f81bc381-36e7-4364-940f-ec5aeac8cfdb</v>
       </c>
       <c r="D37" t="str">
-        <v>16d59265-ba58-48d9-a948-36f1f3ea61dd</v>
+        <v>17744f51-bf2e-4def-a6c5-dd29fd9f4a46</v>
       </c>
       <c r="E37" t="str">
         <v>Thermal Curtain</v>
@@ -4405,10 +4405,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C38" t="str">
-        <v>ac5f6482-6793-45d0-a65f-3b53c430d985</v>
+        <v>f81bc381-36e7-4364-940f-ec5aeac8cfdb</v>
       </c>
       <c r="D38" t="str">
-        <v>2f5bfaf3-39b1-4cba-9796-0a127d606c70</v>
+        <v>a3d63bbd-beea-4c82-829f-df9289344c60</v>
       </c>
       <c r="E38" t="str">
         <v>Noise Reducing Curtain</v>
@@ -4494,10 +4494,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C39" t="str">
-        <v>ac5f6482-6793-45d0-a65f-3b53c430d985</v>
+        <v>f81bc381-36e7-4364-940f-ec5aeac8cfdb</v>
       </c>
       <c r="D39" t="str">
-        <v>2f5bfaf3-39b1-4cba-9796-0a127d606c70</v>
+        <v>a3d63bbd-beea-4c82-829f-df9289344c60</v>
       </c>
       <c r="E39" t="str">
         <v>Sheer White Curtain</v>
@@ -4583,10 +4583,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C40" t="str">
-        <v>ac5f6482-6793-45d0-a65f-3b53c430d985</v>
+        <v>f81bc381-36e7-4364-940f-ec5aeac8cfdb</v>
       </c>
       <c r="D40" t="str">
-        <v>2f5bfaf3-39b1-4cba-9796-0a127d606c70</v>
+        <v>a3d63bbd-beea-4c82-829f-df9289344c60</v>
       </c>
       <c r="E40" t="str">
         <v>Patterned Curtain</v>
@@ -4672,10 +4672,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C41" t="str">
-        <v>ac5f6482-6793-45d0-a65f-3b53c430d985</v>
+        <v>f81bc381-36e7-4364-940f-ec5aeac8cfdb</v>
       </c>
       <c r="D41" t="str">
-        <v>2f5bfaf3-39b1-4cba-9796-0a127d606c70</v>
+        <v>a3d63bbd-beea-4c82-829f-df9289344c60</v>
       </c>
       <c r="E41" t="str">
         <v>Kids Room Curtain</v>
@@ -4761,10 +4761,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C42" t="str">
-        <v>ac5f6482-6793-45d0-a65f-3b53c430d985</v>
+        <v>f81bc381-36e7-4364-940f-ec5aeac8cfdb</v>
       </c>
       <c r="D42" t="str">
-        <v>2f5bfaf3-39b1-4cba-9796-0a127d606c70</v>
+        <v>a3d63bbd-beea-4c82-829f-df9289344c60</v>
       </c>
       <c r="E42" t="str">
         <v>Bedroom Blackout Curtain</v>
@@ -4850,10 +4850,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C43" t="str">
-        <v>ac5f6482-6793-45d0-a65f-3b53c430d985</v>
+        <v>f81bc381-36e7-4364-940f-ec5aeac8cfdb</v>
       </c>
       <c r="D43" t="str">
-        <v>2f5bfaf3-39b1-4cba-9796-0a127d606c70</v>
+        <v>a3d63bbd-beea-4c82-829f-df9289344c60</v>
       </c>
       <c r="E43" t="str">
         <v>Living Room Curtain</v>
@@ -4939,10 +4939,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C44" t="str">
-        <v>37693b8e-e314-4075-ae14-e5b367c1d0b0</v>
+        <v>d92f6e1b-42b8-4244-8534-a90569cf1a89</v>
       </c>
       <c r="D44" t="str">
-        <v>373279f4-80e5-48c4-b051-a1c45ef22472</v>
+        <v>3807807b-b44a-4d4d-9bda-12646e61f6a3</v>
       </c>
       <c r="E44" t="str">
         <v>Window Valance</v>
@@ -5028,10 +5028,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C45" t="str">
-        <v>37693b8e-e314-4075-ae14-e5b367c1d0b0</v>
+        <v>d92f6e1b-42b8-4244-8534-a90569cf1a89</v>
       </c>
       <c r="D45" t="str">
-        <v>373279f4-80e5-48c4-b051-a1c45ef22472</v>
+        <v>3807807b-b44a-4d4d-9bda-12646e61f6a3</v>
       </c>
       <c r="E45" t="str">
         <v>Straight Valance</v>
@@ -5117,10 +5117,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C46" t="str">
-        <v>37693b8e-e314-4075-ae14-e5b367c1d0b0</v>
+        <v>d92f6e1b-42b8-4244-8534-a90569cf1a89</v>
       </c>
       <c r="D46" t="str">
-        <v>373279f4-80e5-48c4-b051-a1c45ef22472</v>
+        <v>3807807b-b44a-4d4d-9bda-12646e61f6a3</v>
       </c>
       <c r="E46" t="str">
         <v>Box Pleat Valance</v>
@@ -5206,10 +5206,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C47" t="str">
-        <v>37693b8e-e314-4075-ae14-e5b367c1d0b0</v>
+        <v>d92f6e1b-42b8-4244-8534-a90569cf1a89</v>
       </c>
       <c r="D47" t="str">
-        <v>373279f4-80e5-48c4-b051-a1c45ef22472</v>
+        <v>3807807b-b44a-4d4d-9bda-12646e61f6a3</v>
       </c>
       <c r="E47" t="str">
         <v>Decor Trim Valance</v>
@@ -5295,10 +5295,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C48" t="str">
-        <v>37693b8e-e314-4075-ae14-e5b367c1d0b0</v>
+        <v>d92f6e1b-42b8-4244-8534-a90569cf1a89</v>
       </c>
       <c r="D48" t="str">
-        <v>373279f4-80e5-48c4-b051-a1c45ef22472</v>
+        <v>3807807b-b44a-4d4d-9bda-12646e61f6a3</v>
       </c>
       <c r="E48" t="str">
         <v>Blind Mounting Kit</v>
@@ -5384,10 +5384,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C49" t="str">
-        <v>37693b8e-e314-4075-ae14-e5b367c1d0b0</v>
+        <v>d92f6e1b-42b8-4244-8534-a90569cf1a89</v>
       </c>
       <c r="D49" t="str">
-        <v>373279f4-80e5-48c4-b051-a1c45ef22472</v>
+        <v>3807807b-b44a-4d4d-9bda-12646e61f6a3</v>
       </c>
       <c r="E49" t="str">
         <v>Ceiling Mount Bracket</v>
@@ -5473,10 +5473,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C50" t="str">
-        <v>37693b8e-e314-4075-ae14-e5b367c1d0b0</v>
+        <v>d92f6e1b-42b8-4244-8534-a90569cf1a89</v>
       </c>
       <c r="D50" t="str">
-        <v>373279f4-80e5-48c4-b051-a1c45ef22472</v>
+        <v>3807807b-b44a-4d4d-9bda-12646e61f6a3</v>
       </c>
       <c r="E50" t="str">
         <v>Wall Mount Bracket</v>
@@ -5562,10 +5562,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C51" t="str">
-        <v>37693b8e-e314-4075-ae14-e5b367c1d0b0</v>
+        <v>d92f6e1b-42b8-4244-8534-a90569cf1a89</v>
       </c>
       <c r="D51" t="str">
-        <v>373279f4-80e5-48c4-b051-a1c45ef22472</v>
+        <v>3807807b-b44a-4d4d-9bda-12646e61f6a3</v>
       </c>
       <c r="E51" t="str">
         <v>Heavy Duty Bracket</v>
@@ -5651,10 +5651,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C52" t="str">
-        <v>37693b8e-e314-4075-ae14-e5b367c1d0b0</v>
+        <v>d92f6e1b-42b8-4244-8534-a90569cf1a89</v>
       </c>
       <c r="D52" t="str">
-        <v>373279f4-80e5-48c4-b051-a1c45ef22472</v>
+        <v>3807807b-b44a-4d4d-9bda-12646e61f6a3</v>
       </c>
       <c r="E52" t="str">
         <v>Slim Panel Blind</v>
@@ -5740,10 +5740,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C53" t="str">
-        <v>37693b8e-e314-4075-ae14-e5b367c1d0b0</v>
+        <v>d92f6e1b-42b8-4244-8534-a90569cf1a89</v>
       </c>
       <c r="D53" t="str">
-        <v>1d22baed-ba60-4747-b8aa-aece33843d86</v>
+        <v>437d4659-7f77-4f1c-be9b-5589924e665a</v>
       </c>
       <c r="E53" t="str">
         <v>Wide Panel Blind</v>
@@ -5829,10 +5829,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C54" t="str">
-        <v>37693b8e-e314-4075-ae14-e5b367c1d0b0</v>
+        <v>d92f6e1b-42b8-4244-8534-a90569cf1a89</v>
       </c>
       <c r="D54" t="str">
-        <v>1d22baed-ba60-4747-b8aa-aece33843d86</v>
+        <v>437d4659-7f77-4f1c-be9b-5589924e665a</v>
       </c>
       <c r="E54" t="str">
         <v>Honeycomb Cellular Shade</v>
@@ -5918,10 +5918,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C55" t="str">
-        <v>37693b8e-e314-4075-ae14-e5b367c1d0b0</v>
+        <v>d92f6e1b-42b8-4244-8534-a90569cf1a89</v>
       </c>
       <c r="D55" t="str">
-        <v>1d22baed-ba60-4747-b8aa-aece33843d86</v>
+        <v>437d4659-7f77-4f1c-be9b-5589924e665a</v>
       </c>
       <c r="E55" t="str">
         <v>Top Down Bottom Up Shade</v>
@@ -6007,10 +6007,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C56" t="str">
-        <v>37693b8e-e314-4075-ae14-e5b367c1d0b0</v>
+        <v>d92f6e1b-42b8-4244-8534-a90569cf1a89</v>
       </c>
       <c r="D56" t="str">
-        <v>1d22baed-ba60-4747-b8aa-aece33843d86</v>
+        <v>437d4659-7f77-4f1c-be9b-5589924e665a</v>
       </c>
       <c r="E56" t="str">
         <v>Energy Saving Shade</v>
@@ -6096,10 +6096,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C57" t="str">
-        <v>37693b8e-e314-4075-ae14-e5b367c1d0b0</v>
+        <v>d92f6e1b-42b8-4244-8534-a90569cf1a89</v>
       </c>
       <c r="D57" t="str">
-        <v>1d22baed-ba60-4747-b8aa-aece33843d86</v>
+        <v>437d4659-7f77-4f1c-be9b-5589924e665a</v>
       </c>
       <c r="E57" t="str">
         <v>Custom Size Window Blind</v>

--- a/prisma/seed/data/cheapblinds_data.xlsx
+++ b/prisma/seed/data/cheapblinds_data.xlsx
@@ -1201,10 +1201,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C2" t="str">
-        <v>f20adf46-e21b-4475-bc9c-1c157ef7610d</v>
+        <v>3c78c582-d3dc-42a1-97de-ca5a11bc2b53</v>
       </c>
       <c r="D2" t="str">
-        <v>fd858631-07a9-44f8-ab72-46928d93d15f</v>
+        <v>be2fbd1c-0c93-4bc7-b00c-a727f719c164</v>
       </c>
       <c r="E2" t="str">
         <v>Classic Roller Blind</v>
@@ -1290,10 +1290,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C3" t="str">
-        <v>f20adf46-e21b-4475-bc9c-1c157ef7610d</v>
+        <v>3c78c582-d3dc-42a1-97de-ca5a11bc2b53</v>
       </c>
       <c r="D3" t="str">
-        <v>fd858631-07a9-44f8-ab72-46928d93d15f</v>
+        <v>be2fbd1c-0c93-4bc7-b00c-a727f719c164</v>
       </c>
       <c r="E3" t="str">
         <v>Wooden Venetian Blind</v>
@@ -1379,10 +1379,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C4" t="str">
-        <v>f20adf46-e21b-4475-bc9c-1c157ef7610d</v>
+        <v>3c78c582-d3dc-42a1-97de-ca5a11bc2b53</v>
       </c>
       <c r="D4" t="str">
-        <v>fd858631-07a9-44f8-ab72-46928d93d15f</v>
+        <v>be2fbd1c-0c93-4bc7-b00c-a727f719c164</v>
       </c>
       <c r="E4" t="str">
         <v>Blackout Shade</v>
@@ -1468,10 +1468,10 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C5" t="str">
-        <v>f20adf46-e21b-4475-bc9c-1c157ef7610d</v>
+        <v>3c78c582-d3dc-42a1-97de-ca5a11bc2b53</v>
       </c>
       <c r="D5" t="str">
-        <v>fd858631-07a9-44f8-ab72-46928d93d15f</v>
+        <v>be2fbd1c-0c93-4bc7-b00c-a727f719c164</v>
       </c>
       <c r="E5" t="str">
         <v>Sheer Curtain</v>
@@ -1557,10 +1557,10 @@
         <v>See-through Roller Blind</v>
       </c>
       <c r="C6" t="str">
-        <v>f20adf46-e21b-4475-bc9c-1c157ef7610d</v>
+        <v>3c78c582-d3dc-42a1-97de-ca5a11bc2b53</v>
       </c>
       <c r="D6" t="str">
-        <v>dad2b61c-dcdc-460a-86a2-4b78aad14146</v>
+        <v>015da6f2-9ccc-4e28-b276-3446477520b0</v>
       </c>
       <c r="E6" t="str">
         <v>Blackout Curtain</v>
@@ -1646,10 +1646,10 @@
         <v>See-through Roller Blind</v>
       </c>
       <c r="C7" t="str">
-        <v>f20adf46-e21b-4475-bc9c-1c157ef7610d</v>
+        <v>3c78c582-d3dc-42a1-97de-ca5a11bc2b53</v>
       </c>
       <c r="D7" t="str">
-        <v>dad2b61c-dcdc-460a-86a2-4b78aad14146</v>
+        <v>015da6f2-9ccc-4e28-b276-3446477520b0</v>
       </c>
       <c r="E7" t="str">
         <v>Decorative Valance</v>
@@ -1735,10 +1735,10 @@
         <v>See-through Roller Blind</v>
       </c>
       <c r="C8" t="str">
-        <v>f20adf46-e21b-4475-bc9c-1c157ef7610d</v>
+        <v>3c78c582-d3dc-42a1-97de-ca5a11bc2b53</v>
       </c>
       <c r="D8" t="str">
-        <v>dad2b61c-dcdc-460a-86a2-4b78aad14146</v>
+        <v>015da6f2-9ccc-4e28-b276-3446477520b0</v>
       </c>
       <c r="E8" t="str">
         <v>Mounting Brackets</v>
@@ -1824,10 +1824,10 @@
         <v>See-through Roller Blind</v>
       </c>
       <c r="C9" t="str">
-        <v>f20adf46-e21b-4475-bc9c-1c157ef7610d</v>
+        <v>3c78c582-d3dc-42a1-97de-ca5a11bc2b53</v>
       </c>
       <c r="D9" t="str">
-        <v>dad2b61c-dcdc-460a-86a2-4b78aad14146</v>
+        <v>015da6f2-9ccc-4e28-b276-3446477520b0</v>
       </c>
       <c r="E9" t="str">
         <v>Panel Blind</v>
@@ -1913,10 +1913,10 @@
         <v>See-through Roller Blind</v>
       </c>
       <c r="C10" t="str">
-        <v>f20adf46-e21b-4475-bc9c-1c157ef7610d</v>
+        <v>3c78c582-d3dc-42a1-97de-ca5a11bc2b53</v>
       </c>
       <c r="D10" t="str">
-        <v>dad2b61c-dcdc-460a-86a2-4b78aad14146</v>
+        <v>015da6f2-9ccc-4e28-b276-3446477520b0</v>
       </c>
       <c r="E10" t="str">
         <v>Cellular Shade</v>
@@ -2002,10 +2002,10 @@
         <v>Dimout Roller Blinds</v>
       </c>
       <c r="C11" t="str">
-        <v>f20adf46-e21b-4475-bc9c-1c157ef7610d</v>
+        <v>3c78c582-d3dc-42a1-97de-ca5a11bc2b53</v>
       </c>
       <c r="D11" t="str">
-        <v>e96b16a1-1db4-4fdb-9227-f63d14771655</v>
+        <v>d129cfea-450c-4c5c-b407-9df62eeb721b</v>
       </c>
       <c r="E11" t="str">
         <v>Motorized Roller Blind</v>
@@ -2091,10 +2091,10 @@
         <v>Dimout Roller Blinds</v>
       </c>
       <c r="C12" t="str">
-        <v>f20adf46-e21b-4475-bc9c-1c157ef7610d</v>
+        <v>3c78c582-d3dc-42a1-97de-ca5a11bc2b53</v>
       </c>
       <c r="D12" t="str">
-        <v>e96b16a1-1db4-4fdb-9227-f63d14771655</v>
+        <v>d129cfea-450c-4c5c-b407-9df62eeb721b</v>
       </c>
       <c r="E12" t="str">
         <v>Premium Roller Blind</v>
@@ -2180,10 +2180,10 @@
         <v>Dimout Roller Blinds</v>
       </c>
       <c r="C13" t="str">
-        <v>f20adf46-e21b-4475-bc9c-1c157ef7610d</v>
+        <v>3c78c582-d3dc-42a1-97de-ca5a11bc2b53</v>
       </c>
       <c r="D13" t="str">
-        <v>e96b16a1-1db4-4fdb-9227-f63d14771655</v>
+        <v>d129cfea-450c-4c5c-b407-9df62eeb721b</v>
       </c>
       <c r="E13" t="str">
         <v>Dual Layer Roller Blind</v>
@@ -2269,10 +2269,10 @@
         <v>Waterproof Roller Blinds</v>
       </c>
       <c r="C14" t="str">
-        <v>f20adf46-e21b-4475-bc9c-1c157ef7610d</v>
+        <v>3c78c582-d3dc-42a1-97de-ca5a11bc2b53</v>
       </c>
       <c r="D14" t="str">
-        <v>a8c771b0-910e-4b5b-bc0c-1902d4476642</v>
+        <v>18cb1514-09ce-4de6-84ba-2177178a05e4</v>
       </c>
       <c r="E14" t="str">
         <v>Day Night Roller Blind</v>
@@ -2358,10 +2358,10 @@
         <v>Waterproof Roller Blinds</v>
       </c>
       <c r="C15" t="str">
-        <v>f20adf46-e21b-4475-bc9c-1c157ef7610d</v>
+        <v>3c78c582-d3dc-42a1-97de-ca5a11bc2b53</v>
       </c>
       <c r="D15" t="str">
-        <v>a8c771b0-910e-4b5b-bc0c-1902d4476642</v>
+        <v>18cb1514-09ce-4de6-84ba-2177178a05e4</v>
       </c>
       <c r="E15" t="str">
         <v>PVC Venetian Blind</v>
@@ -2447,10 +2447,10 @@
         <v>Waterproof Roller Blinds</v>
       </c>
       <c r="C16" t="str">
-        <v>f20adf46-e21b-4475-bc9c-1c157ef7610d</v>
+        <v>3c78c582-d3dc-42a1-97de-ca5a11bc2b53</v>
       </c>
       <c r="D16" t="str">
-        <v>a8c771b0-910e-4b5b-bc0c-1902d4476642</v>
+        <v>18cb1514-09ce-4de6-84ba-2177178a05e4</v>
       </c>
       <c r="E16" t="str">
         <v>Aluminum Venetian Blind</v>
@@ -2536,10 +2536,10 @@
         <v>Waterproof Roller Blinds</v>
       </c>
       <c r="C17" t="str">
-        <v>f20adf46-e21b-4475-bc9c-1c157ef7610d</v>
+        <v>3c78c582-d3dc-42a1-97de-ca5a11bc2b53</v>
       </c>
       <c r="D17" t="str">
-        <v>a8c771b0-910e-4b5b-bc0c-1902d4476642</v>
+        <v>18cb1514-09ce-4de6-84ba-2177178a05e4</v>
       </c>
       <c r="E17" t="str">
         <v>Fabric Roman Blind</v>
@@ -2625,10 +2625,10 @@
         <v>Blackout Roman Blinds</v>
       </c>
       <c r="C18" t="str">
-        <v>2e31f713-54ce-47d9-9a21-a14352ef6901</v>
+        <v>b8b548e0-c408-4b40-8a6e-ac94d1c78b1b</v>
       </c>
       <c r="D18" t="str">
-        <v>2d78856f-75a7-49a8-9467-a8e65d9b2eae</v>
+        <v>94ff8b04-4bad-426d-aee0-d95375e47ebd</v>
       </c>
       <c r="E18" t="str">
         <v>Luxury Roman Blind</v>
@@ -2714,10 +2714,10 @@
         <v>Blackout Roman Blinds</v>
       </c>
       <c r="C19" t="str">
-        <v>2e31f713-54ce-47d9-9a21-a14352ef6901</v>
+        <v>b8b548e0-c408-4b40-8a6e-ac94d1c78b1b</v>
       </c>
       <c r="D19" t="str">
-        <v>2d78856f-75a7-49a8-9467-a8e65d9b2eae</v>
+        <v>94ff8b04-4bad-426d-aee0-d95375e47ebd</v>
       </c>
       <c r="E19" t="str">
         <v>Thermal Blackout Blind</v>
@@ -2803,10 +2803,10 @@
         <v>Blackout Roman Blinds</v>
       </c>
       <c r="C20" t="str">
-        <v>2e31f713-54ce-47d9-9a21-a14352ef6901</v>
+        <v>b8b548e0-c408-4b40-8a6e-ac94d1c78b1b</v>
       </c>
       <c r="D20" t="str">
-        <v>2d78856f-75a7-49a8-9467-a8e65d9b2eae</v>
+        <v>94ff8b04-4bad-426d-aee0-d95375e47ebd</v>
       </c>
       <c r="E20" t="str">
         <v>Printed Roller Blind</v>
@@ -2892,10 +2892,10 @@
         <v>Blackout Roman Blinds</v>
       </c>
       <c r="C21" t="str">
-        <v>2e31f713-54ce-47d9-9a21-a14352ef6901</v>
+        <v>b8b548e0-c408-4b40-8a6e-ac94d1c78b1b</v>
       </c>
       <c r="D21" t="str">
-        <v>2d78856f-75a7-49a8-9467-a8e65d9b2eae</v>
+        <v>94ff8b04-4bad-426d-aee0-d95375e47ebd</v>
       </c>
       <c r="E21" t="str">
         <v>Plain White Roller Blind</v>
@@ -2981,10 +2981,10 @@
         <v>See-through Roman Blinds</v>
       </c>
       <c r="C22" t="str">
-        <v>2e31f713-54ce-47d9-9a21-a14352ef6901</v>
+        <v>b8b548e0-c408-4b40-8a6e-ac94d1c78b1b</v>
       </c>
       <c r="D22" t="str">
-        <v>0b138f75-7651-4e52-9618-73bd83bddad6</v>
+        <v>f618ad4e-da86-4328-b1ec-a7fd0acca449</v>
       </c>
       <c r="E22" t="str">
         <v>Smart Motorized Blind</v>
@@ -3070,10 +3070,10 @@
         <v>See-through Roman Blinds</v>
       </c>
       <c r="C23" t="str">
-        <v>2e31f713-54ce-47d9-9a21-a14352ef6901</v>
+        <v>b8b548e0-c408-4b40-8a6e-ac94d1c78b1b</v>
       </c>
       <c r="D23" t="str">
-        <v>0b138f75-7651-4e52-9618-73bd83bddad6</v>
+        <v>f618ad4e-da86-4328-b1ec-a7fd0acca449</v>
       </c>
       <c r="E23" t="str">
         <v>Remote Control Blind</v>
@@ -3159,10 +3159,10 @@
         <v>See-through Roman Blinds</v>
       </c>
       <c r="C24" t="str">
-        <v>2e31f713-54ce-47d9-9a21-a14352ef6901</v>
+        <v>b8b548e0-c408-4b40-8a6e-ac94d1c78b1b</v>
       </c>
       <c r="D24" t="str">
-        <v>0b138f75-7651-4e52-9618-73bd83bddad6</v>
+        <v>f618ad4e-da86-4328-b1ec-a7fd0acca449</v>
       </c>
       <c r="E24" t="str">
         <v>Cordless Roller Blind</v>
@@ -3248,10 +3248,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C25" t="str">
-        <v>2e31f713-54ce-47d9-9a21-a14352ef6901</v>
+        <v>b8b548e0-c408-4b40-8a6e-ac94d1c78b1b</v>
       </c>
       <c r="D25" t="str">
-        <v>0a6649da-c760-4c59-a2f2-7ef3f5284103</v>
+        <v>bf994ce1-65b9-4c12-93e9-7a651465aab0</v>
       </c>
       <c r="E25" t="str">
         <v>Waterproof Roller Blind</v>
@@ -3337,10 +3337,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C26" t="str">
-        <v>2e31f713-54ce-47d9-9a21-a14352ef6901</v>
+        <v>b8b548e0-c408-4b40-8a6e-ac94d1c78b1b</v>
       </c>
       <c r="D26" t="str">
-        <v>0a6649da-c760-4c59-a2f2-7ef3f5284103</v>
+        <v>bf994ce1-65b9-4c12-93e9-7a651465aab0</v>
       </c>
       <c r="E26" t="str">
         <v>Kitchen Roller Blind</v>
@@ -3426,10 +3426,10 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C27" t="str">
-        <v>2e31f713-54ce-47d9-9a21-a14352ef6901</v>
+        <v>b8b548e0-c408-4b40-8a6e-ac94d1c78b1b</v>
       </c>
       <c r="D27" t="str">
-        <v>0a6649da-c760-4c59-a2f2-7ef3f5284103</v>
+        <v>bf994ce1-65b9-4c12-93e9-7a651465aab0</v>
       </c>
       <c r="E27" t="str">
         <v>Bathroom Roller Blind</v>
@@ -3515,10 +3515,10 @@
         <v>Dimout Zebra Blind</v>
       </c>
       <c r="C28" t="str">
-        <v>f81bc381-36e7-4364-940f-ec5aeac8cfdb</v>
+        <v>31b71b51-e8ef-409b-ade4-10ffe06748b2</v>
       </c>
       <c r="D28" t="str">
-        <v>17744f51-bf2e-4def-a6c5-dd29fd9f4a46</v>
+        <v>03467fe8-67c4-4130-9612-7a3bec237766</v>
       </c>
       <c r="E28" t="str">
         <v>Office Roller Blind</v>
@@ -3604,10 +3604,10 @@
         <v>Dimout Zebra Blind</v>
       </c>
       <c r="C29" t="str">
-        <v>f81bc381-36e7-4364-940f-ec5aeac8cfdb</v>
+        <v>31b71b51-e8ef-409b-ade4-10ffe06748b2</v>
       </c>
       <c r="D29" t="str">
-        <v>17744f51-bf2e-4def-a6c5-dd29fd9f4a46</v>
+        <v>03467fe8-67c4-4130-9612-7a3bec237766</v>
       </c>
       <c r="E29" t="str">
         <v>Vertical Blind</v>
@@ -3693,10 +3693,10 @@
         <v>Dimout Zebra Blind</v>
       </c>
       <c r="C30" t="str">
-        <v>f81bc381-36e7-4364-940f-ec5aeac8cfdb</v>
+        <v>31b71b51-e8ef-409b-ade4-10ffe06748b2</v>
       </c>
       <c r="D30" t="str">
-        <v>17744f51-bf2e-4def-a6c5-dd29fd9f4a46</v>
+        <v>03467fe8-67c4-4130-9612-7a3bec237766</v>
       </c>
       <c r="E30" t="str">
         <v>Fabric Vertical Blind</v>
@@ -3782,10 +3782,10 @@
         <v>Dimout Zebra Blind</v>
       </c>
       <c r="C31" t="str">
-        <v>f81bc381-36e7-4364-940f-ec5aeac8cfdb</v>
+        <v>31b71b51-e8ef-409b-ade4-10ffe06748b2</v>
       </c>
       <c r="D31" t="str">
-        <v>17744f51-bf2e-4def-a6c5-dd29fd9f4a46</v>
+        <v>03467fe8-67c4-4130-9612-7a3bec237766</v>
       </c>
       <c r="E31" t="str">
         <v>PVC Vertical Blind</v>
@@ -3871,10 +3871,10 @@
         <v>Dimout Zebra Blind</v>
       </c>
       <c r="C32" t="str">
-        <v>f81bc381-36e7-4364-940f-ec5aeac8cfdb</v>
+        <v>31b71b51-e8ef-409b-ade4-10ffe06748b2</v>
       </c>
       <c r="D32" t="str">
-        <v>17744f51-bf2e-4def-a6c5-dd29fd9f4a46</v>
+        <v>03467fe8-67c4-4130-9612-7a3bec237766</v>
       </c>
       <c r="E32" t="str">
         <v>Classic Curtain Panel</v>
@@ -3960,10 +3960,10 @@
         <v>Dimout Zebra Blind</v>
       </c>
       <c r="C33" t="str">
-        <v>f81bc381-36e7-4364-940f-ec5aeac8cfdb</v>
+        <v>31b71b51-e8ef-409b-ade4-10ffe06748b2</v>
       </c>
       <c r="D33" t="str">
-        <v>17744f51-bf2e-4def-a6c5-dd29fd9f4a46</v>
+        <v>03467fe8-67c4-4130-9612-7a3bec237766</v>
       </c>
       <c r="E33" t="str">
         <v>Eyelet Curtain</v>
@@ -4049,10 +4049,10 @@
         <v>Dimout Zebra Blind</v>
       </c>
       <c r="C34" t="str">
-        <v>f81bc381-36e7-4364-940f-ec5aeac8cfdb</v>
+        <v>31b71b51-e8ef-409b-ade4-10ffe06748b2</v>
       </c>
       <c r="D34" t="str">
-        <v>17744f51-bf2e-4def-a6c5-dd29fd9f4a46</v>
+        <v>03467fe8-67c4-4130-9612-7a3bec237766</v>
       </c>
       <c r="E34" t="str">
         <v>Pinch Pleat Curtain</v>
@@ -4138,10 +4138,10 @@
         <v>Dimout Zebra Blind</v>
       </c>
       <c r="C35" t="str">
-        <v>f81bc381-36e7-4364-940f-ec5aeac8cfdb</v>
+        <v>31b71b51-e8ef-409b-ade4-10ffe06748b2</v>
       </c>
       <c r="D35" t="str">
-        <v>17744f51-bf2e-4def-a6c5-dd29fd9f4a46</v>
+        <v>03467fe8-67c4-4130-9612-7a3bec237766</v>
       </c>
       <c r="E35" t="str">
         <v>Linen Curtain</v>
@@ -4227,10 +4227,10 @@
         <v>Dimout Zebra Blind</v>
       </c>
       <c r="C36" t="str">
-        <v>f81bc381-36e7-4364-940f-ec5aeac8cfdb</v>
+        <v>31b71b51-e8ef-409b-ade4-10ffe06748b2</v>
       </c>
       <c r="D36" t="str">
-        <v>17744f51-bf2e-4def-a6c5-dd29fd9f4a46</v>
+        <v>03467fe8-67c4-4130-9612-7a3bec237766</v>
       </c>
       <c r="E36" t="str">
         <v>Velvet Curtain</v>
@@ -4316,10 +4316,10 @@
         <v>Dimout Zebra Blind</v>
       </c>
       <c r="C37" t="str">
-        <v>f81bc381-36e7-4364-940f-ec5aeac8cfdb</v>
+        <v>31b71b51-e8ef-409b-ade4-10ffe06748b2</v>
       </c>
       <c r="D37" t="str">
-        <v>17744f51-bf2e-4def-a6c5-dd29fd9f4a46</v>
+        <v>03467fe8-67c4-4130-9612-7a3bec237766</v>
       </c>
       <c r="E37" t="str">
         <v>Thermal Curtain</v>
@@ -4405,10 +4405,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C38" t="str">
-        <v>f81bc381-36e7-4364-940f-ec5aeac8cfdb</v>
+        <v>31b71b51-e8ef-409b-ade4-10ffe06748b2</v>
       </c>
       <c r="D38" t="str">
-        <v>a3d63bbd-beea-4c82-829f-df9289344c60</v>
+        <v>ed46c436-f916-4324-8856-218139a0550a</v>
       </c>
       <c r="E38" t="str">
         <v>Noise Reducing Curtain</v>
@@ -4494,10 +4494,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C39" t="str">
-        <v>f81bc381-36e7-4364-940f-ec5aeac8cfdb</v>
+        <v>31b71b51-e8ef-409b-ade4-10ffe06748b2</v>
       </c>
       <c r="D39" t="str">
-        <v>a3d63bbd-beea-4c82-829f-df9289344c60</v>
+        <v>ed46c436-f916-4324-8856-218139a0550a</v>
       </c>
       <c r="E39" t="str">
         <v>Sheer White Curtain</v>
@@ -4583,10 +4583,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C40" t="str">
-        <v>f81bc381-36e7-4364-940f-ec5aeac8cfdb</v>
+        <v>31b71b51-e8ef-409b-ade4-10ffe06748b2</v>
       </c>
       <c r="D40" t="str">
-        <v>a3d63bbd-beea-4c82-829f-df9289344c60</v>
+        <v>ed46c436-f916-4324-8856-218139a0550a</v>
       </c>
       <c r="E40" t="str">
         <v>Patterned Curtain</v>
@@ -4672,10 +4672,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C41" t="str">
-        <v>f81bc381-36e7-4364-940f-ec5aeac8cfdb</v>
+        <v>31b71b51-e8ef-409b-ade4-10ffe06748b2</v>
       </c>
       <c r="D41" t="str">
-        <v>a3d63bbd-beea-4c82-829f-df9289344c60</v>
+        <v>ed46c436-f916-4324-8856-218139a0550a</v>
       </c>
       <c r="E41" t="str">
         <v>Kids Room Curtain</v>
@@ -4761,10 +4761,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C42" t="str">
-        <v>f81bc381-36e7-4364-940f-ec5aeac8cfdb</v>
+        <v>31b71b51-e8ef-409b-ade4-10ffe06748b2</v>
       </c>
       <c r="D42" t="str">
-        <v>a3d63bbd-beea-4c82-829f-df9289344c60</v>
+        <v>ed46c436-f916-4324-8856-218139a0550a</v>
       </c>
       <c r="E42" t="str">
         <v>Bedroom Blackout Curtain</v>
@@ -4850,10 +4850,10 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C43" t="str">
-        <v>f81bc381-36e7-4364-940f-ec5aeac8cfdb</v>
+        <v>31b71b51-e8ef-409b-ade4-10ffe06748b2</v>
       </c>
       <c r="D43" t="str">
-        <v>a3d63bbd-beea-4c82-829f-df9289344c60</v>
+        <v>ed46c436-f916-4324-8856-218139a0550a</v>
       </c>
       <c r="E43" t="str">
         <v>Living Room Curtain</v>
@@ -4939,10 +4939,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C44" t="str">
-        <v>d92f6e1b-42b8-4244-8534-a90569cf1a89</v>
+        <v>f09e670d-a0f2-405e-99c2-e99692b87bf9</v>
       </c>
       <c r="D44" t="str">
-        <v>3807807b-b44a-4d4d-9bda-12646e61f6a3</v>
+        <v>b8c0b3f2-0c0b-4dde-b3ce-eee48d05ef73</v>
       </c>
       <c r="E44" t="str">
         <v>Window Valance</v>
@@ -5028,10 +5028,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C45" t="str">
-        <v>d92f6e1b-42b8-4244-8534-a90569cf1a89</v>
+        <v>f09e670d-a0f2-405e-99c2-e99692b87bf9</v>
       </c>
       <c r="D45" t="str">
-        <v>3807807b-b44a-4d4d-9bda-12646e61f6a3</v>
+        <v>b8c0b3f2-0c0b-4dde-b3ce-eee48d05ef73</v>
       </c>
       <c r="E45" t="str">
         <v>Straight Valance</v>
@@ -5117,10 +5117,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C46" t="str">
-        <v>d92f6e1b-42b8-4244-8534-a90569cf1a89</v>
+        <v>f09e670d-a0f2-405e-99c2-e99692b87bf9</v>
       </c>
       <c r="D46" t="str">
-        <v>3807807b-b44a-4d4d-9bda-12646e61f6a3</v>
+        <v>b8c0b3f2-0c0b-4dde-b3ce-eee48d05ef73</v>
       </c>
       <c r="E46" t="str">
         <v>Box Pleat Valance</v>
@@ -5206,10 +5206,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C47" t="str">
-        <v>d92f6e1b-42b8-4244-8534-a90569cf1a89</v>
+        <v>f09e670d-a0f2-405e-99c2-e99692b87bf9</v>
       </c>
       <c r="D47" t="str">
-        <v>3807807b-b44a-4d4d-9bda-12646e61f6a3</v>
+        <v>b8c0b3f2-0c0b-4dde-b3ce-eee48d05ef73</v>
       </c>
       <c r="E47" t="str">
         <v>Decor Trim Valance</v>
@@ -5295,10 +5295,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C48" t="str">
-        <v>d92f6e1b-42b8-4244-8534-a90569cf1a89</v>
+        <v>f09e670d-a0f2-405e-99c2-e99692b87bf9</v>
       </c>
       <c r="D48" t="str">
-        <v>3807807b-b44a-4d4d-9bda-12646e61f6a3</v>
+        <v>b8c0b3f2-0c0b-4dde-b3ce-eee48d05ef73</v>
       </c>
       <c r="E48" t="str">
         <v>Blind Mounting Kit</v>
@@ -5384,10 +5384,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C49" t="str">
-        <v>d92f6e1b-42b8-4244-8534-a90569cf1a89</v>
+        <v>f09e670d-a0f2-405e-99c2-e99692b87bf9</v>
       </c>
       <c r="D49" t="str">
-        <v>3807807b-b44a-4d4d-9bda-12646e61f6a3</v>
+        <v>b8c0b3f2-0c0b-4dde-b3ce-eee48d05ef73</v>
       </c>
       <c r="E49" t="str">
         <v>Ceiling Mount Bracket</v>
@@ -5473,10 +5473,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C50" t="str">
-        <v>d92f6e1b-42b8-4244-8534-a90569cf1a89</v>
+        <v>f09e670d-a0f2-405e-99c2-e99692b87bf9</v>
       </c>
       <c r="D50" t="str">
-        <v>3807807b-b44a-4d4d-9bda-12646e61f6a3</v>
+        <v>b8c0b3f2-0c0b-4dde-b3ce-eee48d05ef73</v>
       </c>
       <c r="E50" t="str">
         <v>Wall Mount Bracket</v>
@@ -5562,10 +5562,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C51" t="str">
-        <v>d92f6e1b-42b8-4244-8534-a90569cf1a89</v>
+        <v>f09e670d-a0f2-405e-99c2-e99692b87bf9</v>
       </c>
       <c r="D51" t="str">
-        <v>3807807b-b44a-4d4d-9bda-12646e61f6a3</v>
+        <v>b8c0b3f2-0c0b-4dde-b3ce-eee48d05ef73</v>
       </c>
       <c r="E51" t="str">
         <v>Heavy Duty Bracket</v>
@@ -5651,10 +5651,10 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C52" t="str">
-        <v>d92f6e1b-42b8-4244-8534-a90569cf1a89</v>
+        <v>f09e670d-a0f2-405e-99c2-e99692b87bf9</v>
       </c>
       <c r="D52" t="str">
-        <v>3807807b-b44a-4d4d-9bda-12646e61f6a3</v>
+        <v>b8c0b3f2-0c0b-4dde-b3ce-eee48d05ef73</v>
       </c>
       <c r="E52" t="str">
         <v>Slim Panel Blind</v>
@@ -5740,10 +5740,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C53" t="str">
-        <v>d92f6e1b-42b8-4244-8534-a90569cf1a89</v>
+        <v>f09e670d-a0f2-405e-99c2-e99692b87bf9</v>
       </c>
       <c r="D53" t="str">
-        <v>437d4659-7f77-4f1c-be9b-5589924e665a</v>
+        <v>1b346010-dbde-452a-b16a-eeef09d45b58</v>
       </c>
       <c r="E53" t="str">
         <v>Wide Panel Blind</v>
@@ -5829,10 +5829,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C54" t="str">
-        <v>d92f6e1b-42b8-4244-8534-a90569cf1a89</v>
+        <v>f09e670d-a0f2-405e-99c2-e99692b87bf9</v>
       </c>
       <c r="D54" t="str">
-        <v>437d4659-7f77-4f1c-be9b-5589924e665a</v>
+        <v>1b346010-dbde-452a-b16a-eeef09d45b58</v>
       </c>
       <c r="E54" t="str">
         <v>Honeycomb Cellular Shade</v>
@@ -5918,10 +5918,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C55" t="str">
-        <v>d92f6e1b-42b8-4244-8534-a90569cf1a89</v>
+        <v>f09e670d-a0f2-405e-99c2-e99692b87bf9</v>
       </c>
       <c r="D55" t="str">
-        <v>437d4659-7f77-4f1c-be9b-5589924e665a</v>
+        <v>1b346010-dbde-452a-b16a-eeef09d45b58</v>
       </c>
       <c r="E55" t="str">
         <v>Top Down Bottom Up Shade</v>
@@ -6007,10 +6007,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C56" t="str">
-        <v>d92f6e1b-42b8-4244-8534-a90569cf1a89</v>
+        <v>f09e670d-a0f2-405e-99c2-e99692b87bf9</v>
       </c>
       <c r="D56" t="str">
-        <v>437d4659-7f77-4f1c-be9b-5589924e665a</v>
+        <v>1b346010-dbde-452a-b16a-eeef09d45b58</v>
       </c>
       <c r="E56" t="str">
         <v>Energy Saving Shade</v>
@@ -6096,10 +6096,10 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C57" t="str">
-        <v>d92f6e1b-42b8-4244-8534-a90569cf1a89</v>
+        <v>f09e670d-a0f2-405e-99c2-e99692b87bf9</v>
       </c>
       <c r="D57" t="str">
-        <v>437d4659-7f77-4f1c-be9b-5589924e665a</v>
+        <v>1b346010-dbde-452a-b16a-eeef09d45b58</v>
       </c>
       <c r="E57" t="str">
         <v>Custom Size Window Blind</v>

--- a/prisma/seed/data/cheapblinds_data.xlsx
+++ b/prisma/seed/data/cheapblinds_data.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -480,7 +480,7 @@
         <v>SUPER_ADMIN</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" xml:space="preserve">
       <c r="A3" t="str">
         <v>Roman Blinds</v>
       </c>
@@ -496,8 +496,9 @@
       <c r="E3" t="str">
         <v>Roman Blinds in Dubai | Elegant &amp; Affordable Cheap Blinds</v>
       </c>
-      <c r="F3" t="str">
-        <v>Shop the best Roman window blinds in Dubai, UAE. Find cheap Roman blinds with premium fabrics for elegance, insulation, and lasting beauty._x000d_</v>
+      <c r="F3" t="str" xml:space="preserve">
+        <v xml:space="preserve">Shop the best Roman window blinds in Dubai, UAE. Find cheap Roman blinds with premium fabrics for elegance, insulation, and lasting beauty.
+</v>
       </c>
       <c r="G3" t="str">
         <v>http:localhost:3000roman-blinds</v>
@@ -605,15 +606,16 @@
     <hyperlink ref="G5" r:id="rId7"/>
     <hyperlink ref="I5" r:id="rId8"/>
   </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L15"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L1000"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N1000"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -773,7 +775,7 @@
         <v>SUPER_ADMIN</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" xml:space="preserve">
       <c r="A5" t="str">
         <v>Roller Blinds</v>
       </c>
@@ -792,8 +794,9 @@
       <c r="G5" t="str">
         <v>Waterproof Roller Blinds Dubai | Best For Bathroom &amp; Kitchen</v>
       </c>
-      <c r="H5" t="str">
-        <v>Shop waterproof roller blinds in Dubai at Cheap Blinds. Perfect moisture-resistant blinds for bathrooms, kitchens &amp; outdoor areas with easy maintenance._x000d_</v>
+      <c r="H5" t="str" xml:space="preserve">
+        <v xml:space="preserve">Shop waterproof roller blinds in Dubai at Cheap Blinds. Perfect moisture-resistant blinds for bathrooms, kitchens &amp; outdoor areas with easy maintenance.
+</v>
       </c>
       <c r="J5" t="str">
         <v>Waterproof Roller Blinds</v>
@@ -1091,15 +1094,16 @@
     <hyperlink ref="K11" r:id="rId10"/>
     <hyperlink ref="K12" r:id="rId11"/>
   </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N15"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N1000"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC57"/>
+  <dimension ref="A1:AF57"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1118,78 +1122,87 @@
         <v>subcategoryId</v>
       </c>
       <c r="E1" t="str">
+        <v>sku</v>
+      </c>
+      <c r="F1" t="str">
         <v>name</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>breadcrumb</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>description</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>shortDescription</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>slug</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>posterImageUrl</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>productImages</v>
       </c>
-      <c r="L1" t="str">
+      <c r="M1" t="str">
         <v>price</v>
       </c>
-      <c r="M1" t="str">
+      <c r="N1" t="str">
         <v>discountPrice</v>
       </c>
-      <c r="N1" t="str">
+      <c r="O1" t="str">
         <v>isMotorized</v>
       </c>
-      <c r="O1" t="str">
+      <c r="P1" t="str">
         <v>motorPrice</v>
       </c>
-      <c r="P1" t="str">
+      <c r="Q1" t="str">
         <v>stock</v>
       </c>
-      <c r="Q1" t="str">
-        <v>width</v>
-      </c>
       <c r="R1" t="str">
-        <v>height</v>
+        <v>minHeight</v>
       </c>
       <c r="S1" t="str">
+        <v>maxHeight</v>
+      </c>
+      <c r="T1" t="str">
+        <v>minWidth</v>
+      </c>
+      <c r="U1" t="str">
+        <v>maxWidth</v>
+      </c>
+      <c r="V1" t="str">
         <v>pattern</v>
       </c>
-      <c r="T1" t="str">
+      <c r="W1" t="str">
         <v>composition</v>
       </c>
-      <c r="U1" t="str">
+      <c r="X1" t="str">
         <v>color</v>
       </c>
-      <c r="V1" t="str">
+      <c r="Y1" t="str">
         <v>additionalInfo</v>
       </c>
-      <c r="W1" t="str">
+      <c r="Z1" t="str">
         <v>measuringGuide</v>
       </c>
-      <c r="X1" t="str">
+      <c r="AA1" t="str">
         <v>metaTitle</v>
       </c>
-      <c r="Y1" t="str">
+      <c r="AB1" t="str">
         <v>metaDescription</v>
       </c>
-      <c r="Z1" t="str">
+      <c r="AC1" t="str">
         <v>canonicalTag</v>
       </c>
-      <c r="AA1" t="str">
+      <c r="AD1" t="str">
         <v>seoSchema</v>
       </c>
-      <c r="AB1" t="str">
+      <c r="AE1" t="str">
         <v>status</v>
       </c>
-      <c r="AC1" t="str">
+      <c r="AF1" t="str">
         <v>lastEditedBy</v>
       </c>
     </row>
@@ -1201,84 +1214,93 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C2" t="str">
-        <v>3c78c582-d3dc-42a1-97de-ca5a11bc2b53</v>
+        <v>a2914f9b-15fd-4590-ac66-bcb2e17c3483</v>
       </c>
       <c r="D2" t="str">
-        <v>be2fbd1c-0c93-4bc7-b00c-a727f719c164</v>
+        <v>3f955ae4-ac9f-4011-8484-d113b3b9e78e</v>
       </c>
       <c r="E2" t="str">
-        <v>Classic Roller Blind</v>
+        <v>PROD-00001</v>
       </c>
       <c r="F2" t="str">
         <v>Classic Roller Blind</v>
       </c>
       <c r="G2" t="str">
+        <v>Classic Roller Blind</v>
+      </c>
+      <c r="H2" t="str">
         <v>High quality classic roller blind</v>
       </c>
-      <c r="H2" t="str">
+      <c r="I2" t="str">
         <v>Classic roller blind</v>
       </c>
-      <c r="I2" t="str">
+      <c r="J2" t="str">
         <v>fabric-vertical-blind</v>
       </c>
-      <c r="J2" t="str">
+      <c r="K2" t="str">
         <v>https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785556/slide6_mrq5gu.png</v>
       </c>
-      <c r="K2" t="str">
+      <c r="L2" t="str">
         <v>{"https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785586/Bric_Aquamarine_Dimout_Roman_Blinds-min_k7x3a0.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765957491/Bric_Aquamarine_Dimout_Roman_Blinds_2-min_zfjne2.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785586/Bric_Aquamarine_Dimout_Roman_Blinds_1-min_qgaijd.jpg"}</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>120</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>100</v>
       </c>
-      <c r="N2" t="b">
+      <c r="O2" t="b">
         <v>1</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>50</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>100</v>
       </c>
-      <c r="Q2">
-        <v>120</v>
-      </c>
       <c r="R2">
+        <v>150</v>
+      </c>
+      <c r="S2">
         <v>200</v>
       </c>
-      <c r="S2" t="str">
+      <c r="T2">
+        <v>150</v>
+      </c>
+      <c r="U2">
+        <v>200</v>
+      </c>
+      <c r="V2" t="str">
         <v>Striped</v>
       </c>
-      <c r="T2" t="str">
+      <c r="W2" t="str">
         <v>Polyester</v>
       </c>
-      <c r="U2" t="str">
+      <c r="X2" t="str">
         <v>White</v>
       </c>
-      <c r="V2" t="str">
+      <c r="Y2" t="str">
         <v>Standard install guide</v>
       </c>
-      <c r="W2" t="str">
+      <c r="Z2" t="str">
         <v>Guide 1</v>
       </c>
-      <c r="X2" t="str">
+      <c r="AA2" t="str">
         <v>Classic Roller Blind</v>
       </c>
-      <c r="Y2" t="str">
+      <c r="AB2" t="str">
         <v>Best roller blinds</v>
       </c>
-      <c r="Z2" t="str">
+      <c r="AC2" t="str">
         <v>classic-roller</v>
       </c>
-      <c r="AA2" t="str">
-        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
-      </c>
-      <c r="AB2" t="str">
-        <v>PUBLISHED</v>
-      </c>
-      <c r="AC2" t="str">
+      <c r="AD2" t="str">
+        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
+      </c>
+      <c r="AE2" t="str">
+        <v>PUBLISHED</v>
+      </c>
+      <c r="AF2" t="str">
         <v>SUPER_ADMIN</v>
       </c>
     </row>
@@ -1290,84 +1312,93 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C3" t="str">
-        <v>3c78c582-d3dc-42a1-97de-ca5a11bc2b53</v>
+        <v>a2914f9b-15fd-4590-ac66-bcb2e17c3483</v>
       </c>
       <c r="D3" t="str">
-        <v>be2fbd1c-0c93-4bc7-b00c-a727f719c164</v>
+        <v>3f955ae4-ac9f-4011-8484-d113b3b9e78e</v>
       </c>
       <c r="E3" t="str">
-        <v>Wooden Venetian Blind</v>
+        <v>PROD-00002</v>
       </c>
       <c r="F3" t="str">
         <v>Wooden Venetian Blind</v>
       </c>
       <c r="G3" t="str">
+        <v>Wooden Venetian Blind</v>
+      </c>
+      <c r="H3" t="str">
         <v>Premium wooden venetian blind</v>
       </c>
-      <c r="H3" t="str">
+      <c r="I3" t="str">
         <v>Wood venetian blind</v>
       </c>
-      <c r="I3" t="str">
+      <c r="J3" t="str">
         <v>wooden-venetian-blind</v>
       </c>
-      <c r="J3" t="str">
+      <c r="K3" t="str">
         <v>https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785143/slide5_dldteb.png</v>
       </c>
-      <c r="K3" t="str">
+      <c r="L3" t="str">
         <v>{"https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785536/Dorian_Luna_Dimout_Roller_Blinds-min_ebhnvd.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785536/Dorian_Luna_Dimout_Roller_Blinds_1-min_a6jw1j.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785536/Dorian_Luna_Dimout_Roller_Blinds_2-min_bxkqus.jpg"}</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>140</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>120</v>
       </c>
-      <c r="N3" t="b">
+      <c r="O3" t="b">
         <v>1</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>60</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>50</v>
       </c>
-      <c r="Q3">
-        <v>100</v>
-      </c>
       <c r="R3">
+        <v>120</v>
+      </c>
+      <c r="S3">
         <v>180</v>
       </c>
-      <c r="S3" t="str">
+      <c r="T3">
+        <v>120</v>
+      </c>
+      <c r="U3">
+        <v>180</v>
+      </c>
+      <c r="V3" t="str">
         <v>Woodgrain</v>
       </c>
-      <c r="T3" t="str">
+      <c r="W3" t="str">
         <v>Wood</v>
       </c>
-      <c r="U3" t="str">
+      <c r="X3" t="str">
         <v>Brown</v>
       </c>
-      <c r="V3" t="str">
+      <c r="Y3" t="str">
         <v>Mounting screws included</v>
       </c>
-      <c r="W3" t="str">
+      <c r="Z3" t="str">
         <v>Guide 2</v>
       </c>
-      <c r="X3" t="str">
+      <c r="AA3" t="str">
         <v>Wood Venetian Blind</v>
       </c>
-      <c r="Y3" t="str">
+      <c r="AB3" t="str">
         <v>Luxury venetian blinds</v>
       </c>
-      <c r="Z3" t="str">
+      <c r="AC3" t="str">
         <v>wooden-venetian</v>
       </c>
-      <c r="AA3" t="str">
-        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
-      </c>
-      <c r="AB3" t="str">
-        <v>PUBLISHED</v>
-      </c>
-      <c r="AC3" t="str">
+      <c r="AD3" t="str">
+        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
+      </c>
+      <c r="AE3" t="str">
+        <v>PUBLISHED</v>
+      </c>
+      <c r="AF3" t="str">
         <v>SUPER_ADMIN</v>
       </c>
     </row>
@@ -1379,84 +1410,93 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C4" t="str">
-        <v>3c78c582-d3dc-42a1-97de-ca5a11bc2b53</v>
+        <v>a2914f9b-15fd-4590-ac66-bcb2e17c3483</v>
       </c>
       <c r="D4" t="str">
-        <v>be2fbd1c-0c93-4bc7-b00c-a727f719c164</v>
+        <v>3f955ae4-ac9f-4011-8484-d113b3b9e78e</v>
       </c>
       <c r="E4" t="str">
-        <v>Blackout Shade</v>
+        <v>PROD-00003</v>
       </c>
       <c r="F4" t="str">
         <v>Blackout Shade</v>
       </c>
       <c r="G4" t="str">
+        <v>Blackout Shade</v>
+      </c>
+      <c r="H4" t="str">
         <v>Room darkening shade</v>
       </c>
-      <c r="H4" t="str">
+      <c r="I4" t="str">
         <v>Blackout shade</v>
       </c>
-      <c r="I4" t="str">
+      <c r="J4" t="str">
         <v>blackout-shade</v>
       </c>
-      <c r="J4" t="str">
+      <c r="K4" t="str">
         <v>https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785189/slide3_fcagso.png</v>
       </c>
-      <c r="K4" t="str">
+      <c r="L4" t="str">
         <v>{"https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785394/Aurora_Wheat_Dimout_Roman_Blinds-min_rcjk6x.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785393/Aurora_Wheat_Dimout_Roman_Blinds_1-min_njwb1u.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785394/Aurora_Wheat_Dimout_Roman_Blinds_2-min_p3jmxg.jpg"}</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>110</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>90</v>
       </c>
-      <c r="N4" t="b">
+      <c r="O4" t="b">
         <v>1</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>70</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>200</v>
       </c>
-      <c r="Q4">
-        <v>90</v>
-      </c>
       <c r="R4">
+        <v>150</v>
+      </c>
+      <c r="S4">
         <v>175</v>
       </c>
-      <c r="S4" t="str">
+      <c r="T4">
+        <v>150</v>
+      </c>
+      <c r="U4">
+        <v>175</v>
+      </c>
+      <c r="V4" t="str">
         <v>Solid</v>
       </c>
-      <c r="T4" t="str">
+      <c r="W4" t="str">
         <v>Fabric</v>
       </c>
-      <c r="U4" t="str">
+      <c r="X4" t="str">
         <v>Black</v>
       </c>
-      <c r="V4" t="str">
+      <c r="Y4" t="str">
         <v>Easy to install</v>
       </c>
-      <c r="W4" t="str">
+      <c r="Z4" t="str">
         <v>Guide 3</v>
       </c>
-      <c r="X4" t="str">
+      <c r="AA4" t="str">
         <v>Blackout Shade</v>
       </c>
-      <c r="Y4" t="str">
+      <c r="AB4" t="str">
         <v>Dark blackout shades</v>
       </c>
-      <c r="Z4" t="str">
+      <c r="AC4" t="str">
         <v>blackout-shade</v>
       </c>
-      <c r="AA4" t="str">
-        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
-      </c>
-      <c r="AB4" t="str">
-        <v>PUBLISHED</v>
-      </c>
-      <c r="AC4" t="str">
+      <c r="AD4" t="str">
+        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
+      </c>
+      <c r="AE4" t="str">
+        <v>PUBLISHED</v>
+      </c>
+      <c r="AF4" t="str">
         <v>SUPER_ADMIN</v>
       </c>
     </row>
@@ -1468,84 +1508,93 @@
         <v>Blackout Roller Blinds</v>
       </c>
       <c r="C5" t="str">
-        <v>3c78c582-d3dc-42a1-97de-ca5a11bc2b53</v>
+        <v>a2914f9b-15fd-4590-ac66-bcb2e17c3483</v>
       </c>
       <c r="D5" t="str">
-        <v>be2fbd1c-0c93-4bc7-b00c-a727f719c164</v>
+        <v>3f955ae4-ac9f-4011-8484-d113b3b9e78e</v>
       </c>
       <c r="E5" t="str">
-        <v>Sheer Curtain</v>
+        <v>PROD-00004</v>
       </c>
       <c r="F5" t="str">
         <v>Sheer Curtain</v>
       </c>
       <c r="G5" t="str">
+        <v>Sheer Curtain</v>
+      </c>
+      <c r="H5" t="str">
         <v>Light sheer curtain</v>
       </c>
-      <c r="H5" t="str">
+      <c r="I5" t="str">
         <v>Sheer curtain</v>
       </c>
-      <c r="I5" t="str">
+      <c r="J5" t="str">
         <v>sheer-curtain</v>
       </c>
-      <c r="J5" t="str">
+      <c r="K5" t="str">
         <v>https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785360/slide1_uggynp.webp</v>
       </c>
-      <c r="K5" t="str">
+      <c r="L5" t="str">
         <v>{"https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785586/Bric_Aquamarine_Dimout_Roman_Blinds-min_k7x3a0.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765957491/Bric_Aquamarine_Dimout_Roman_Blinds_2-min_zfjne2.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785586/Bric_Aquamarine_Dimout_Roman_Blinds_1-min_qgaijd.jpg"}</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>100</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>80</v>
       </c>
-      <c r="N5" t="b">
+      <c r="O5" t="b">
         <v>1</v>
-      </c>
-      <c r="O5">
-        <v>80</v>
       </c>
       <c r="P5">
         <v>80</v>
       </c>
       <c r="Q5">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="R5">
+        <v>140</v>
+      </c>
+      <c r="S5">
         <v>220</v>
       </c>
-      <c r="S5" t="str">
+      <c r="T5">
+        <v>140</v>
+      </c>
+      <c r="U5">
+        <v>220</v>
+      </c>
+      <c r="V5" t="str">
         <v>Floral</v>
       </c>
-      <c r="T5" t="str">
+      <c r="W5" t="str">
         <v>Cotton</v>
       </c>
-      <c r="U5" t="str">
+      <c r="X5" t="str">
         <v>White</v>
       </c>
-      <c r="V5" t="str">
+      <c r="Y5" t="str">
         <v>Hooks included</v>
       </c>
-      <c r="W5" t="str">
+      <c r="Z5" t="str">
         <v>Guide 4</v>
       </c>
-      <c r="X5" t="str">
+      <c r="AA5" t="str">
         <v>Sheer Curtain</v>
       </c>
-      <c r="Y5" t="str">
+      <c r="AB5" t="str">
         <v>Elegant sheer curtains</v>
       </c>
-      <c r="Z5" t="str">
+      <c r="AC5" t="str">
         <v>sheer-curtain</v>
       </c>
-      <c r="AA5" t="str">
-        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
-      </c>
-      <c r="AB5" t="str">
-        <v>PUBLISHED</v>
-      </c>
-      <c r="AC5" t="str">
+      <c r="AD5" t="str">
+        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
+      </c>
+      <c r="AE5" t="str">
+        <v>PUBLISHED</v>
+      </c>
+      <c r="AF5" t="str">
         <v>SUPER_ADMIN</v>
       </c>
     </row>
@@ -1557,84 +1606,93 @@
         <v>See-through Roller Blind</v>
       </c>
       <c r="C6" t="str">
-        <v>3c78c582-d3dc-42a1-97de-ca5a11bc2b53</v>
+        <v>a2914f9b-15fd-4590-ac66-bcb2e17c3483</v>
       </c>
       <c r="D6" t="str">
-        <v>015da6f2-9ccc-4e28-b276-3446477520b0</v>
+        <v>86ce982e-c7b9-44c1-9487-b2d1df592947</v>
       </c>
       <c r="E6" t="str">
-        <v>Blackout Curtain</v>
+        <v>PROD-00005</v>
       </c>
       <c r="F6" t="str">
         <v>Blackout Curtain</v>
       </c>
       <c r="G6" t="str">
+        <v>Blackout Curtain</v>
+      </c>
+      <c r="H6" t="str">
         <v>Heavy blackout curtain</v>
       </c>
-      <c r="H6" t="str">
+      <c r="I6" t="str">
         <v>Blackout curtain</v>
       </c>
-      <c r="I6" t="str">
+      <c r="J6" t="str">
         <v>blackout-curtain</v>
       </c>
-      <c r="J6" t="str">
+      <c r="K6" t="str">
         <v>https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785556/slide6_mrq5gu.png</v>
       </c>
-      <c r="K6" t="str">
+      <c r="L6" t="str">
         <v>{"https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785536/Dorian_Luna_Dimout_Roller_Blinds-min_ebhnvd.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785536/Dorian_Luna_Dimout_Roller_Blinds_1-min_a6jw1j.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785536/Dorian_Luna_Dimout_Roller_Blinds_2-min_bxkqus.jpg"}</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>150</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>110</v>
       </c>
-      <c r="N6" t="b">
+      <c r="O6" t="b">
         <v>1</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>90</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>60</v>
       </c>
-      <c r="Q6">
-        <v>160</v>
-      </c>
       <c r="R6">
+        <v>140</v>
+      </c>
+      <c r="S6">
         <v>230</v>
       </c>
-      <c r="S6" t="str">
+      <c r="T6">
+        <v>140</v>
+      </c>
+      <c r="U6">
+        <v>230</v>
+      </c>
+      <c r="V6" t="str">
         <v>Solid</v>
       </c>
-      <c r="T6" t="str">
+      <c r="W6" t="str">
         <v>Polyester</v>
       </c>
-      <c r="U6" t="str">
+      <c r="X6" t="str">
         <v>Grey</v>
       </c>
-      <c r="V6" t="str">
+      <c r="Y6" t="str">
         <v>Rod pocket</v>
       </c>
-      <c r="W6" t="str">
+      <c r="Z6" t="str">
         <v>Guide 5</v>
       </c>
-      <c r="X6" t="str">
+      <c r="AA6" t="str">
         <v>Blackout Curtain</v>
       </c>
-      <c r="Y6" t="str">
+      <c r="AB6" t="str">
         <v>Premium blackout curtains</v>
       </c>
-      <c r="Z6" t="str">
+      <c r="AC6" t="str">
         <v>blackout-curtain</v>
       </c>
-      <c r="AA6" t="str">
-        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
-      </c>
-      <c r="AB6" t="str">
-        <v>PUBLISHED</v>
-      </c>
-      <c r="AC6" t="str">
+      <c r="AD6" t="str">
+        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
+      </c>
+      <c r="AE6" t="str">
+        <v>PUBLISHED</v>
+      </c>
+      <c r="AF6" t="str">
         <v>SUPER_ADMIN</v>
       </c>
     </row>
@@ -1646,84 +1704,93 @@
         <v>See-through Roller Blind</v>
       </c>
       <c r="C7" t="str">
-        <v>3c78c582-d3dc-42a1-97de-ca5a11bc2b53</v>
+        <v>a2914f9b-15fd-4590-ac66-bcb2e17c3483</v>
       </c>
       <c r="D7" t="str">
-        <v>015da6f2-9ccc-4e28-b276-3446477520b0</v>
+        <v>86ce982e-c7b9-44c1-9487-b2d1df592947</v>
       </c>
       <c r="E7" t="str">
-        <v>Decorative Valance</v>
+        <v>PROD-00006</v>
       </c>
       <c r="F7" t="str">
         <v>Decorative Valance</v>
       </c>
       <c r="G7" t="str">
+        <v>Decorative Valance</v>
+      </c>
+      <c r="H7" t="str">
         <v>Decorative valance</v>
       </c>
-      <c r="H7" t="str">
+      <c r="I7" t="str">
         <v>Valance decor</v>
       </c>
-      <c r="I7" t="str">
+      <c r="J7" t="str">
         <v>decorative-valance</v>
       </c>
-      <c r="J7" t="str">
+      <c r="K7" t="str">
         <v>https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785143/slide5_dldteb.png</v>
       </c>
-      <c r="K7" t="str">
+      <c r="L7" t="str">
         <v>{"https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785394/Aurora_Wheat_Dimout_Roman_Blinds-min_rcjk6x.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785393/Aurora_Wheat_Dimout_Roman_Blinds_1-min_njwb1u.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785394/Aurora_Wheat_Dimout_Roman_Blinds_2-min_p3jmxg.jpg"}</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>130</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>120</v>
       </c>
-      <c r="N7" t="b">
+      <c r="O7" t="b">
         <v>0</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>0</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>300</v>
       </c>
-      <c r="Q7">
-        <v>30</v>
-      </c>
       <c r="R7">
-        <v>15</v>
-      </c>
-      <c r="S7" t="str">
+        <v>100</v>
+      </c>
+      <c r="S7">
+        <v>150</v>
+      </c>
+      <c r="T7">
+        <v>100</v>
+      </c>
+      <c r="U7">
+        <v>150</v>
+      </c>
+      <c r="V7" t="str">
         <v>Striped</v>
       </c>
-      <c r="T7" t="str">
+      <c r="W7" t="str">
         <v>Cotton</v>
       </c>
-      <c r="U7" t="str">
+      <c r="X7" t="str">
         <v>Blue</v>
       </c>
-      <c r="V7" t="str">
+      <c r="Y7" t="str">
         <v>Matching set</v>
       </c>
-      <c r="W7" t="str">
+      <c r="Z7" t="str">
         <v>Guide 6</v>
       </c>
-      <c r="X7" t="str">
+      <c r="AA7" t="str">
         <v>Decorative Valance</v>
       </c>
-      <c r="Y7" t="str">
+      <c r="AB7" t="str">
         <v>Stylish valance</v>
       </c>
-      <c r="Z7" t="str">
+      <c r="AC7" t="str">
         <v>decorative-valance</v>
       </c>
-      <c r="AA7" t="str">
-        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
-      </c>
-      <c r="AB7" t="str">
-        <v>PUBLISHED</v>
-      </c>
-      <c r="AC7" t="str">
+      <c r="AD7" t="str">
+        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
+      </c>
+      <c r="AE7" t="str">
+        <v>PUBLISHED</v>
+      </c>
+      <c r="AF7" t="str">
         <v>SUPER_ADMIN</v>
       </c>
     </row>
@@ -1735,84 +1802,93 @@
         <v>See-through Roller Blind</v>
       </c>
       <c r="C8" t="str">
-        <v>3c78c582-d3dc-42a1-97de-ca5a11bc2b53</v>
+        <v>a2914f9b-15fd-4590-ac66-bcb2e17c3483</v>
       </c>
       <c r="D8" t="str">
-        <v>015da6f2-9ccc-4e28-b276-3446477520b0</v>
+        <v>86ce982e-c7b9-44c1-9487-b2d1df592947</v>
       </c>
       <c r="E8" t="str">
-        <v>Mounting Brackets</v>
+        <v>PROD-00007</v>
       </c>
       <c r="F8" t="str">
         <v>Mounting Brackets</v>
       </c>
       <c r="G8" t="str">
+        <v>Mounting Brackets</v>
+      </c>
+      <c r="H8" t="str">
         <v>Blind mounting brackets</v>
       </c>
-      <c r="H8" t="str">
+      <c r="I8" t="str">
         <v>Mount brackets</v>
       </c>
-      <c r="I8" t="str">
+      <c r="J8" t="str">
         <v>mounting-brackets</v>
       </c>
-      <c r="J8" t="str">
+      <c r="K8" t="str">
         <v>https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785189/slide3_fcagso.png</v>
       </c>
-      <c r="K8" t="str">
+      <c r="L8" t="str">
         <v>{"https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785586/Bric_Aquamarine_Dimout_Roman_Blinds-min_k7x3a0.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765957491/Bric_Aquamarine_Dimout_Roman_Blinds_2-min_zfjne2.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785586/Bric_Aquamarine_Dimout_Roman_Blinds_1-min_qgaijd.jpg"}</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>90</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>70</v>
       </c>
-      <c r="N8" t="b">
+      <c r="O8" t="b">
         <v>0</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>0</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>500</v>
       </c>
-      <c r="Q8">
-        <v>5</v>
-      </c>
       <c r="R8">
-        <v>5</v>
-      </c>
-      <c r="S8" t="str">
+        <v>200</v>
+      </c>
+      <c r="S8">
+        <v>200</v>
+      </c>
+      <c r="T8">
+        <v>200</v>
+      </c>
+      <c r="U8">
+        <v>200</v>
+      </c>
+      <c r="V8" t="str">
         <v>Solid</v>
       </c>
-      <c r="T8" t="str">
+      <c r="W8" t="str">
         <v>Metal</v>
       </c>
-      <c r="U8" t="str">
+      <c r="X8" t="str">
         <v>White</v>
       </c>
-      <c r="V8" t="str">
+      <c r="Y8" t="str">
         <v>Bolts included</v>
       </c>
-      <c r="W8" t="str">
+      <c r="Z8" t="str">
         <v>Guide 7</v>
       </c>
-      <c r="X8" t="str">
+      <c r="AA8" t="str">
         <v>Mounting Brackets</v>
       </c>
-      <c r="Y8" t="str">
+      <c r="AB8" t="str">
         <v>Strong blind mounts</v>
       </c>
-      <c r="Z8" t="str">
+      <c r="AC8" t="str">
         <v>mounting-brackets</v>
       </c>
-      <c r="AA8" t="str">
-        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
-      </c>
-      <c r="AB8" t="str">
-        <v>PUBLISHED</v>
-      </c>
-      <c r="AC8" t="str">
+      <c r="AD8" t="str">
+        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
+      </c>
+      <c r="AE8" t="str">
+        <v>PUBLISHED</v>
+      </c>
+      <c r="AF8" t="str">
         <v>SUPER_ADMIN</v>
       </c>
     </row>
@@ -1824,84 +1900,93 @@
         <v>See-through Roller Blind</v>
       </c>
       <c r="C9" t="str">
-        <v>3c78c582-d3dc-42a1-97de-ca5a11bc2b53</v>
+        <v>a2914f9b-15fd-4590-ac66-bcb2e17c3483</v>
       </c>
       <c r="D9" t="str">
-        <v>015da6f2-9ccc-4e28-b276-3446477520b0</v>
+        <v>86ce982e-c7b9-44c1-9487-b2d1df592947</v>
       </c>
       <c r="E9" t="str">
-        <v>Panel Blind</v>
+        <v>PROD-00008</v>
       </c>
       <c r="F9" t="str">
         <v>Panel Blind</v>
       </c>
       <c r="G9" t="str">
+        <v>Panel Blind</v>
+      </c>
+      <c r="H9" t="str">
         <v>Modern panel blind</v>
       </c>
-      <c r="H9" t="str">
+      <c r="I9" t="str">
         <v>Panel blind</v>
       </c>
-      <c r="I9" t="str">
+      <c r="J9" t="str">
         <v>panel-blind</v>
       </c>
-      <c r="J9" t="str">
+      <c r="K9" t="str">
         <v>https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785360/slide1_uggynp.webp</v>
       </c>
-      <c r="K9" t="str">
+      <c r="L9" t="str">
         <v>{"https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785536/Dorian_Luna_Dimout_Roller_Blinds-min_ebhnvd.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785536/Dorian_Luna_Dimout_Roller_Blinds_1-min_a6jw1j.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785536/Dorian_Luna_Dimout_Roller_Blinds_2-min_bxkqus.jpg"}</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>250</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>170</v>
       </c>
-      <c r="N9" t="b">
+      <c r="O9" t="b">
         <v>0</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>0</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>90</v>
       </c>
-      <c r="Q9">
-        <v>180</v>
-      </c>
       <c r="R9">
+        <v>120</v>
+      </c>
+      <c r="S9">
         <v>200</v>
       </c>
-      <c r="S9" t="str">
+      <c r="T9">
+        <v>120</v>
+      </c>
+      <c r="U9">
+        <v>200</v>
+      </c>
+      <c r="V9" t="str">
         <v>Geometric</v>
       </c>
-      <c r="T9" t="str">
+      <c r="W9" t="str">
         <v>Polyester</v>
       </c>
-      <c r="U9" t="str">
+      <c r="X9" t="str">
         <v>Grey</v>
       </c>
-      <c r="V9" t="str">
+      <c r="Y9" t="str">
         <v>Rail kit</v>
       </c>
-      <c r="W9" t="str">
+      <c r="Z9" t="str">
         <v>Guide 8</v>
       </c>
-      <c r="X9" t="str">
+      <c r="AA9" t="str">
         <v>Panel Blind</v>
       </c>
-      <c r="Y9" t="str">
+      <c r="AB9" t="str">
         <v>Modern panel blinds</v>
       </c>
-      <c r="Z9" t="str">
+      <c r="AC9" t="str">
         <v>panel-blind</v>
       </c>
-      <c r="AA9" t="str">
-        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
-      </c>
-      <c r="AB9" t="str">
-        <v>PUBLISHED</v>
-      </c>
-      <c r="AC9" t="str">
+      <c r="AD9" t="str">
+        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
+      </c>
+      <c r="AE9" t="str">
+        <v>PUBLISHED</v>
+      </c>
+      <c r="AF9" t="str">
         <v>SUPER_ADMIN</v>
       </c>
     </row>
@@ -1913,84 +1998,93 @@
         <v>See-through Roller Blind</v>
       </c>
       <c r="C10" t="str">
-        <v>3c78c582-d3dc-42a1-97de-ca5a11bc2b53</v>
+        <v>a2914f9b-15fd-4590-ac66-bcb2e17c3483</v>
       </c>
       <c r="D10" t="str">
-        <v>015da6f2-9ccc-4e28-b276-3446477520b0</v>
+        <v>86ce982e-c7b9-44c1-9487-b2d1df592947</v>
       </c>
       <c r="E10" t="str">
-        <v>Cellular Shade</v>
+        <v>PROD-00009</v>
       </c>
       <c r="F10" t="str">
         <v>Cellular Shade</v>
       </c>
       <c r="G10" t="str">
+        <v>Cellular Shade</v>
+      </c>
+      <c r="H10" t="str">
         <v>Energy saving shade</v>
       </c>
-      <c r="H10" t="str">
+      <c r="I10" t="str">
         <v>Cellular shade</v>
       </c>
-      <c r="I10" t="str">
+      <c r="J10" t="str">
         <v>cellular-shade</v>
       </c>
-      <c r="J10" t="str">
+      <c r="K10" t="str">
         <v>https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785556/slide6_mrq5gu.png</v>
       </c>
-      <c r="K10" t="str">
+      <c r="L10" t="str">
         <v>{"https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785394/Aurora_Wheat_Dimout_Roman_Blinds-min_rcjk6x.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785393/Aurora_Wheat_Dimout_Roman_Blinds_1-min_njwb1u.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785394/Aurora_Wheat_Dimout_Roman_Blinds_2-min_p3jmxg.jpg"}</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>200</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>190</v>
       </c>
-      <c r="N10" t="b">
+      <c r="O10" t="b">
         <v>0</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>0</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>150</v>
       </c>
-      <c r="Q10">
-        <v>95</v>
-      </c>
       <c r="R10">
+        <v>150</v>
+      </c>
+      <c r="S10">
         <v>180</v>
       </c>
-      <c r="S10" t="str">
+      <c r="T10">
+        <v>150</v>
+      </c>
+      <c r="U10">
+        <v>180</v>
+      </c>
+      <c r="V10" t="str">
         <v>Honeycomb</v>
       </c>
-      <c r="T10" t="str">
+      <c r="W10" t="str">
         <v>Fabric</v>
       </c>
-      <c r="U10" t="str">
+      <c r="X10" t="str">
         <v>Black</v>
       </c>
-      <c r="V10" t="str">
+      <c r="Y10" t="str">
         <v>Thermal</v>
       </c>
-      <c r="W10" t="str">
+      <c r="Z10" t="str">
         <v>Guide 9</v>
       </c>
-      <c r="X10" t="str">
+      <c r="AA10" t="str">
         <v>Cellular Shade</v>
       </c>
-      <c r="Y10" t="str">
+      <c r="AB10" t="str">
         <v>Energy efficient shades</v>
       </c>
-      <c r="Z10" t="str">
+      <c r="AC10" t="str">
         <v>cellular-shade</v>
       </c>
-      <c r="AA10" t="str">
-        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
-      </c>
-      <c r="AB10" t="str">
-        <v>PUBLISHED</v>
-      </c>
-      <c r="AC10" t="str">
+      <c r="AD10" t="str">
+        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
+      </c>
+      <c r="AE10" t="str">
+        <v>PUBLISHED</v>
+      </c>
+      <c r="AF10" t="str">
         <v>SUPER_ADMIN</v>
       </c>
     </row>
@@ -2002,84 +2096,93 @@
         <v>Dimout Roller Blinds</v>
       </c>
       <c r="C11" t="str">
-        <v>3c78c582-d3dc-42a1-97de-ca5a11bc2b53</v>
+        <v>a2914f9b-15fd-4590-ac66-bcb2e17c3483</v>
       </c>
       <c r="D11" t="str">
-        <v>d129cfea-450c-4c5c-b407-9df62eeb721b</v>
+        <v>5af21d24-84f3-4156-9da1-efe11bc2970b</v>
       </c>
       <c r="E11" t="str">
-        <v>Motorized Roller Blind</v>
+        <v>PROD-00010</v>
       </c>
       <c r="F11" t="str">
         <v>Motorized Roller Blind</v>
       </c>
       <c r="G11" t="str">
+        <v>Motorized Roller Blind</v>
+      </c>
+      <c r="H11" t="str">
         <v>Motorized roller blind</v>
       </c>
-      <c r="H11" t="str">
+      <c r="I11" t="str">
         <v>Motor roller</v>
       </c>
-      <c r="I11" t="str">
+      <c r="J11" t="str">
         <v>motorized-roller-blind</v>
       </c>
-      <c r="J11" t="str">
+      <c r="K11" t="str">
         <v>https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785143/slide5_dldteb.png</v>
       </c>
-      <c r="K11" t="str">
+      <c r="L11" t="str">
         <v>{"https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785586/Bric_Aquamarine_Dimout_Roman_Blinds-min_k7x3a0.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765957491/Bric_Aquamarine_Dimout_Roman_Blinds_2-min_zfjne2.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785586/Bric_Aquamarine_Dimout_Roman_Blinds_1-min_qgaijd.jpg"}</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>170</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>150</v>
       </c>
-      <c r="N11" t="b">
+      <c r="O11" t="b">
         <v>1</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>85</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>70</v>
       </c>
-      <c r="Q11">
-        <v>130</v>
-      </c>
       <c r="R11">
+        <v>140</v>
+      </c>
+      <c r="S11">
         <v>195</v>
       </c>
-      <c r="S11" t="str">
+      <c r="T11">
+        <v>140</v>
+      </c>
+      <c r="U11">
+        <v>195</v>
+      </c>
+      <c r="V11" t="str">
         <v>Solid</v>
       </c>
-      <c r="T11" t="str">
+      <c r="W11" t="str">
         <v>Polyester</v>
       </c>
-      <c r="U11" t="str">
+      <c r="X11" t="str">
         <v>Red</v>
       </c>
-      <c r="V11" t="str">
+      <c r="Y11" t="str">
         <v>Remote included</v>
       </c>
-      <c r="W11" t="str">
+      <c r="Z11" t="str">
         <v>Guide 10</v>
       </c>
-      <c r="X11" t="str">
+      <c r="AA11" t="str">
         <v>Motorized Roller Blind</v>
       </c>
-      <c r="Y11" t="str">
+      <c r="AB11" t="str">
         <v>Smart motor blinds</v>
       </c>
-      <c r="Z11" t="str">
+      <c r="AC11" t="str">
         <v>motorized-roller</v>
       </c>
-      <c r="AA11" t="str">
-        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
-      </c>
-      <c r="AB11" t="str">
-        <v>PUBLISHED</v>
-      </c>
-      <c r="AC11" t="str">
+      <c r="AD11" t="str">
+        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
+      </c>
+      <c r="AE11" t="str">
+        <v>PUBLISHED</v>
+      </c>
+      <c r="AF11" t="str">
         <v>SUPER_ADMIN</v>
       </c>
     </row>
@@ -2091,84 +2194,93 @@
         <v>Dimout Roller Blinds</v>
       </c>
       <c r="C12" t="str">
-        <v>3c78c582-d3dc-42a1-97de-ca5a11bc2b53</v>
+        <v>a2914f9b-15fd-4590-ac66-bcb2e17c3483</v>
       </c>
       <c r="D12" t="str">
-        <v>d129cfea-450c-4c5c-b407-9df62eeb721b</v>
+        <v>5af21d24-84f3-4156-9da1-efe11bc2970b</v>
       </c>
       <c r="E12" t="str">
-        <v>Premium Roller Blind</v>
+        <v>PROD-00011</v>
       </c>
       <c r="F12" t="str">
         <v>Premium Roller Blind</v>
       </c>
       <c r="G12" t="str">
+        <v>Premium Roller Blind</v>
+      </c>
+      <c r="H12" t="str">
         <v>High quality classic roller blind</v>
       </c>
-      <c r="H12" t="str">
+      <c r="I12" t="str">
         <v>Classic roller blind</v>
       </c>
-      <c r="I12" t="str">
+      <c r="J12" t="str">
         <v>classic-roller-blind</v>
       </c>
-      <c r="J12" t="str">
+      <c r="K12" t="str">
         <v>https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785189/slide3_fcagso.png</v>
       </c>
-      <c r="K12" t="str">
+      <c r="L12" t="str">
         <v>{"https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785536/Dorian_Luna_Dimout_Roller_Blinds-min_ebhnvd.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785536/Dorian_Luna_Dimout_Roller_Blinds_1-min_a6jw1j.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785536/Dorian_Luna_Dimout_Roller_Blinds_2-min_bxkqus.jpg"}</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>120</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>100</v>
       </c>
-      <c r="N12" t="b">
+      <c r="O12" t="b">
         <v>1</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>50</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>100</v>
       </c>
-      <c r="Q12">
-        <v>120</v>
-      </c>
       <c r="R12">
+        <v>140</v>
+      </c>
+      <c r="S12">
         <v>200</v>
       </c>
-      <c r="S12" t="str">
+      <c r="T12">
+        <v>140</v>
+      </c>
+      <c r="U12">
+        <v>200</v>
+      </c>
+      <c r="V12" t="str">
         <v>Striped</v>
       </c>
-      <c r="T12" t="str">
+      <c r="W12" t="str">
         <v>Polyester</v>
       </c>
-      <c r="U12" t="str">
+      <c r="X12" t="str">
         <v>White</v>
       </c>
-      <c r="V12" t="str">
+      <c r="Y12" t="str">
         <v>Standard install guide</v>
       </c>
-      <c r="W12" t="str">
+      <c r="Z12" t="str">
         <v>Guide 1</v>
       </c>
-      <c r="X12" t="str">
+      <c r="AA12" t="str">
         <v>Classic Roller Blind</v>
       </c>
-      <c r="Y12" t="str">
+      <c r="AB12" t="str">
         <v>Best roller blinds</v>
       </c>
-      <c r="Z12" t="str">
+      <c r="AC12" t="str">
         <v>classic-roller</v>
       </c>
-      <c r="AA12" t="str">
-        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
-      </c>
-      <c r="AB12" t="str">
-        <v>PUBLISHED</v>
-      </c>
-      <c r="AC12" t="str">
+      <c r="AD12" t="str">
+        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
+      </c>
+      <c r="AE12" t="str">
+        <v>PUBLISHED</v>
+      </c>
+      <c r="AF12" t="str">
         <v>SUPER_ADMIN</v>
       </c>
     </row>
@@ -2180,84 +2292,93 @@
         <v>Dimout Roller Blinds</v>
       </c>
       <c r="C13" t="str">
-        <v>3c78c582-d3dc-42a1-97de-ca5a11bc2b53</v>
+        <v>a2914f9b-15fd-4590-ac66-bcb2e17c3483</v>
       </c>
       <c r="D13" t="str">
-        <v>d129cfea-450c-4c5c-b407-9df62eeb721b</v>
+        <v>5af21d24-84f3-4156-9da1-efe11bc2970b</v>
       </c>
       <c r="E13" t="str">
-        <v>Dual Layer Roller Blind</v>
+        <v>PROD-00012</v>
       </c>
       <c r="F13" t="str">
         <v>Dual Layer Roller Blind</v>
       </c>
       <c r="G13" t="str">
+        <v>Dual Layer Roller Blind</v>
+      </c>
+      <c r="H13" t="str">
         <v>Premium wooden venetian blind</v>
       </c>
-      <c r="H13" t="str">
+      <c r="I13" t="str">
         <v>Wood venetian blind</v>
       </c>
-      <c r="I13" t="str">
+      <c r="J13" t="str">
         <v>wooden-venetisan-blind</v>
       </c>
-      <c r="J13" t="str">
+      <c r="K13" t="str">
         <v>https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785360/slide1_uggynp.webp</v>
       </c>
-      <c r="K13" t="str">
+      <c r="L13" t="str">
         <v>{"https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785394/Aurora_Wheat_Dimout_Roman_Blinds-min_rcjk6x.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785393/Aurora_Wheat_Dimout_Roman_Blinds_1-min_njwb1u.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785394/Aurora_Wheat_Dimout_Roman_Blinds_2-min_p3jmxg.jpg"}</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>140</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>110</v>
       </c>
-      <c r="N13" t="b">
+      <c r="O13" t="b">
         <v>1</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>60</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>50</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>100</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>180</v>
       </c>
-      <c r="S13" t="str">
+      <c r="T13">
+        <v>100</v>
+      </c>
+      <c r="U13">
+        <v>180</v>
+      </c>
+      <c r="V13" t="str">
         <v>Woodgrain</v>
       </c>
-      <c r="T13" t="str">
+      <c r="W13" t="str">
         <v>Wood</v>
       </c>
-      <c r="U13" t="str">
+      <c r="X13" t="str">
         <v>Brown</v>
       </c>
-      <c r="V13" t="str">
+      <c r="Y13" t="str">
         <v>Mounting screws included</v>
       </c>
-      <c r="W13" t="str">
+      <c r="Z13" t="str">
         <v>Guide 2</v>
       </c>
-      <c r="X13" t="str">
+      <c r="AA13" t="str">
         <v>Wood Venetian Blind</v>
       </c>
-      <c r="Y13" t="str">
+      <c r="AB13" t="str">
         <v>Luxury venetian blinds</v>
       </c>
-      <c r="Z13" t="str">
+      <c r="AC13" t="str">
         <v>wooden-venetian</v>
       </c>
-      <c r="AA13" t="str">
-        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
-      </c>
-      <c r="AB13" t="str">
-        <v>PUBLISHED</v>
-      </c>
-      <c r="AC13" t="str">
+      <c r="AD13" t="str">
+        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
+      </c>
+      <c r="AE13" t="str">
+        <v>PUBLISHED</v>
+      </c>
+      <c r="AF13" t="str">
         <v>SUPER_ADMIN</v>
       </c>
     </row>
@@ -2269,84 +2390,93 @@
         <v>Waterproof Roller Blinds</v>
       </c>
       <c r="C14" t="str">
-        <v>3c78c582-d3dc-42a1-97de-ca5a11bc2b53</v>
+        <v>a2914f9b-15fd-4590-ac66-bcb2e17c3483</v>
       </c>
       <c r="D14" t="str">
-        <v>18cb1514-09ce-4de6-84ba-2177178a05e4</v>
+        <v>538ffaf5-3e6a-4044-bcc6-1e5a73255ae2</v>
       </c>
       <c r="E14" t="str">
-        <v>Day Night Roller Blind</v>
+        <v>PROD-00013</v>
       </c>
       <c r="F14" t="str">
         <v>Day Night Roller Blind</v>
       </c>
       <c r="G14" t="str">
+        <v>Day Night Roller Blind</v>
+      </c>
+      <c r="H14" t="str">
         <v>Energy saving shade</v>
       </c>
-      <c r="H14" t="str">
+      <c r="I14" t="str">
         <v>Cellular shade</v>
       </c>
-      <c r="I14" t="str">
+      <c r="J14" t="str">
         <v>cellulrar-sharde</v>
       </c>
-      <c r="J14" t="str">
+      <c r="K14" t="str">
         <v>https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785556/slide6_mrq5gu.png</v>
       </c>
-      <c r="K14" t="str">
+      <c r="L14" t="str">
         <v>{"https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785586/Bric_Aquamarine_Dimout_Roman_Blinds-min_k7x3a0.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765957491/Bric_Aquamarine_Dimout_Roman_Blinds_2-min_zfjne2.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785586/Bric_Aquamarine_Dimout_Roman_Blinds_1-min_qgaijd.jpg"}</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>110</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>80</v>
       </c>
-      <c r="N14" t="b">
+      <c r="O14" t="b">
         <v>0</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>0</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>150</v>
       </c>
-      <c r="Q14">
-        <v>95</v>
-      </c>
       <c r="R14">
+        <v>200</v>
+      </c>
+      <c r="S14">
         <v>180</v>
       </c>
-      <c r="S14" t="str">
+      <c r="T14">
+        <v>200</v>
+      </c>
+      <c r="U14">
+        <v>180</v>
+      </c>
+      <c r="V14" t="str">
         <v>Honeycomb</v>
       </c>
-      <c r="T14" t="str">
+      <c r="W14" t="str">
         <v>Fabric</v>
       </c>
-      <c r="U14" t="str">
+      <c r="X14" t="str">
         <v>Black</v>
       </c>
-      <c r="V14" t="str">
+      <c r="Y14" t="str">
         <v>Thermal</v>
       </c>
-      <c r="W14" t="str">
+      <c r="Z14" t="str">
         <v>Guide 9</v>
       </c>
-      <c r="X14" t="str">
+      <c r="AA14" t="str">
         <v>Cellular Shade</v>
       </c>
-      <c r="Y14" t="str">
+      <c r="AB14" t="str">
         <v>Energy efficient shades</v>
       </c>
-      <c r="Z14" t="str">
+      <c r="AC14" t="str">
         <v>cellular-shade</v>
       </c>
-      <c r="AA14" t="str">
-        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
-      </c>
-      <c r="AB14" t="str">
-        <v>PUBLISHED</v>
-      </c>
-      <c r="AC14" t="str">
+      <c r="AD14" t="str">
+        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
+      </c>
+      <c r="AE14" t="str">
+        <v>PUBLISHED</v>
+      </c>
+      <c r="AF14" t="str">
         <v>SUPER_ADMIN</v>
       </c>
     </row>
@@ -2358,84 +2488,93 @@
         <v>Waterproof Roller Blinds</v>
       </c>
       <c r="C15" t="str">
-        <v>3c78c582-d3dc-42a1-97de-ca5a11bc2b53</v>
+        <v>a2914f9b-15fd-4590-ac66-bcb2e17c3483</v>
       </c>
       <c r="D15" t="str">
-        <v>18cb1514-09ce-4de6-84ba-2177178a05e4</v>
+        <v>538ffaf5-3e6a-4044-bcc6-1e5a73255ae2</v>
       </c>
       <c r="E15" t="str">
-        <v>PVC Venetian Blind</v>
+        <v>PROD-00014</v>
       </c>
       <c r="F15" t="str">
         <v>PVC Venetian Blind</v>
       </c>
       <c r="G15" t="str">
+        <v>PVC Venetian Blind</v>
+      </c>
+      <c r="H15" t="str">
         <v>Motorized roller blind</v>
       </c>
-      <c r="H15" t="str">
+      <c r="I15" t="str">
         <v>Motor roller</v>
       </c>
-      <c r="I15" t="str">
+      <c r="J15" t="str">
         <v>motoqrized-roqller-blind</v>
       </c>
-      <c r="J15" t="str">
+      <c r="K15" t="str">
         <v>https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785143/slide5_dldteb.png</v>
       </c>
-      <c r="K15" t="str">
+      <c r="L15" t="str">
         <v>{"https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785536/Dorian_Luna_Dimout_Roller_Blinds-min_ebhnvd.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785536/Dorian_Luna_Dimout_Roller_Blinds_1-min_a6jw1j.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785536/Dorian_Luna_Dimout_Roller_Blinds_2-min_bxkqus.jpg"}</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>100</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>70</v>
       </c>
-      <c r="N15" t="b">
+      <c r="O15" t="b">
         <v>1</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>58</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>70</v>
       </c>
-      <c r="Q15">
-        <v>130</v>
-      </c>
       <c r="R15">
+        <v>120</v>
+      </c>
+      <c r="S15">
         <v>195</v>
       </c>
-      <c r="S15" t="str">
+      <c r="T15">
+        <v>120</v>
+      </c>
+      <c r="U15">
+        <v>195</v>
+      </c>
+      <c r="V15" t="str">
         <v>Solid</v>
       </c>
-      <c r="T15" t="str">
+      <c r="W15" t="str">
         <v>Polyester</v>
       </c>
-      <c r="U15" t="str">
+      <c r="X15" t="str">
         <v>Red</v>
       </c>
-      <c r="V15" t="str">
+      <c r="Y15" t="str">
         <v>Remote included</v>
       </c>
-      <c r="W15" t="str">
+      <c r="Z15" t="str">
         <v>Guide 10</v>
       </c>
-      <c r="X15" t="str">
+      <c r="AA15" t="str">
         <v>Motorized Roller Blind</v>
       </c>
-      <c r="Y15" t="str">
+      <c r="AB15" t="str">
         <v>Smart motor blinds</v>
       </c>
-      <c r="Z15" t="str">
+      <c r="AC15" t="str">
         <v>motorized-roller</v>
       </c>
-      <c r="AA15" t="str">
-        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
-      </c>
-      <c r="AB15" t="str">
-        <v>PUBLISHED</v>
-      </c>
-      <c r="AC15" t="str">
+      <c r="AD15" t="str">
+        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
+      </c>
+      <c r="AE15" t="str">
+        <v>PUBLISHED</v>
+      </c>
+      <c r="AF15" t="str">
         <v>SUPER_ADMIN</v>
       </c>
     </row>
@@ -2447,84 +2586,93 @@
         <v>Waterproof Roller Blinds</v>
       </c>
       <c r="C16" t="str">
-        <v>3c78c582-d3dc-42a1-97de-ca5a11bc2b53</v>
+        <v>a2914f9b-15fd-4590-ac66-bcb2e17c3483</v>
       </c>
       <c r="D16" t="str">
-        <v>18cb1514-09ce-4de6-84ba-2177178a05e4</v>
+        <v>538ffaf5-3e6a-4044-bcc6-1e5a73255ae2</v>
       </c>
       <c r="E16" t="str">
-        <v>Aluminum Venetian Blind</v>
+        <v>PROD-00015</v>
       </c>
       <c r="F16" t="str">
         <v>Aluminum Venetian Blind</v>
       </c>
       <c r="G16" t="str">
+        <v>Aluminum Venetian Blind</v>
+      </c>
+      <c r="H16" t="str">
         <v>High quality classic roller blind</v>
       </c>
-      <c r="H16" t="str">
+      <c r="I16" t="str">
         <v>Classic roller blind</v>
       </c>
-      <c r="I16" t="str">
+      <c r="J16" t="str">
         <v>classic-roller-bliqnd</v>
       </c>
-      <c r="J16" t="str">
+      <c r="K16" t="str">
         <v>https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785189/slide3_fcagso.png</v>
       </c>
-      <c r="K16" t="str">
+      <c r="L16" t="str">
         <v>{"https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785394/Aurora_Wheat_Dimout_Roman_Blinds-min_rcjk6x.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785393/Aurora_Wheat_Dimout_Roman_Blinds_1-min_njwb1u.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785394/Aurora_Wheat_Dimout_Roman_Blinds_2-min_p3jmxg.jpg"}</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>150</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>120</v>
       </c>
-      <c r="N16" t="b">
+      <c r="O16" t="b">
         <v>1</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>50</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>100</v>
       </c>
-      <c r="Q16">
-        <v>120</v>
-      </c>
       <c r="R16">
+        <v>150</v>
+      </c>
+      <c r="S16">
         <v>200</v>
       </c>
-      <c r="S16" t="str">
+      <c r="T16">
+        <v>150</v>
+      </c>
+      <c r="U16">
+        <v>200</v>
+      </c>
+      <c r="V16" t="str">
         <v>Striped</v>
       </c>
-      <c r="T16" t="str">
+      <c r="W16" t="str">
         <v>Polyester</v>
       </c>
-      <c r="U16" t="str">
+      <c r="X16" t="str">
         <v>White</v>
       </c>
-      <c r="V16" t="str">
+      <c r="Y16" t="str">
         <v>Standard install guide</v>
       </c>
-      <c r="W16" t="str">
+      <c r="Z16" t="str">
         <v>Guide 1</v>
       </c>
-      <c r="X16" t="str">
+      <c r="AA16" t="str">
         <v>Classic Roller Blind</v>
       </c>
-      <c r="Y16" t="str">
+      <c r="AB16" t="str">
         <v>Best roller blinds</v>
       </c>
-      <c r="Z16" t="str">
+      <c r="AC16" t="str">
         <v>classic-roller</v>
       </c>
-      <c r="AA16" t="str">
-        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
-      </c>
-      <c r="AB16" t="str">
-        <v>PUBLISHED</v>
-      </c>
-      <c r="AC16" t="str">
+      <c r="AD16" t="str">
+        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
+      </c>
+      <c r="AE16" t="str">
+        <v>PUBLISHED</v>
+      </c>
+      <c r="AF16" t="str">
         <v>SUPER_ADMIN</v>
       </c>
     </row>
@@ -2536,84 +2684,93 @@
         <v>Waterproof Roller Blinds</v>
       </c>
       <c r="C17" t="str">
-        <v>3c78c582-d3dc-42a1-97de-ca5a11bc2b53</v>
+        <v>a2914f9b-15fd-4590-ac66-bcb2e17c3483</v>
       </c>
       <c r="D17" t="str">
-        <v>18cb1514-09ce-4de6-84ba-2177178a05e4</v>
+        <v>538ffaf5-3e6a-4044-bcc6-1e5a73255ae2</v>
       </c>
       <c r="E17" t="str">
-        <v>Fabric Roman Blind</v>
+        <v>PROD-00016</v>
       </c>
       <c r="F17" t="str">
         <v>Fabric Roman Blind</v>
       </c>
       <c r="G17" t="str">
+        <v>Fabric Roman Blind</v>
+      </c>
+      <c r="H17" t="str">
         <v>Premium wooden venetian blind</v>
       </c>
-      <c r="H17" t="str">
+      <c r="I17" t="str">
         <v>Wood venetian blind</v>
       </c>
-      <c r="I17" t="str">
+      <c r="J17" t="str">
         <v>whooden-venetisan-blind</v>
       </c>
-      <c r="J17" t="str">
+      <c r="K17" t="str">
         <v>https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785360/slide1_uggynp.webp</v>
       </c>
-      <c r="K17" t="str">
+      <c r="L17" t="str">
         <v>{"https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785586/Bric_Aquamarine_Dimout_Roman_Blinds-min_k7x3a0.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765957491/Bric_Aquamarine_Dimout_Roman_Blinds_2-min_zfjne2.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785586/Bric_Aquamarine_Dimout_Roman_Blinds_1-min_qgaijd.jpg"}</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>130</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>110</v>
       </c>
-      <c r="N17" t="b">
+      <c r="O17" t="b">
         <v>1</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>60</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>50</v>
       </c>
-      <c r="Q17">
-        <v>100</v>
-      </c>
       <c r="R17">
+        <v>140</v>
+      </c>
+      <c r="S17">
         <v>180</v>
       </c>
-      <c r="S17" t="str">
+      <c r="T17">
+        <v>140</v>
+      </c>
+      <c r="U17">
+        <v>180</v>
+      </c>
+      <c r="V17" t="str">
         <v>Woodgrain</v>
       </c>
-      <c r="T17" t="str">
+      <c r="W17" t="str">
         <v>Wood</v>
       </c>
-      <c r="U17" t="str">
+      <c r="X17" t="str">
         <v>Brown</v>
       </c>
-      <c r="V17" t="str">
+      <c r="Y17" t="str">
         <v>Mounting screws included</v>
       </c>
-      <c r="W17" t="str">
+      <c r="Z17" t="str">
         <v>Guide 2</v>
       </c>
-      <c r="X17" t="str">
+      <c r="AA17" t="str">
         <v>Wood Venetian Blind</v>
       </c>
-      <c r="Y17" t="str">
+      <c r="AB17" t="str">
         <v>Luxury venetian blinds</v>
       </c>
-      <c r="Z17" t="str">
+      <c r="AC17" t="str">
         <v>wooden-venetian</v>
       </c>
-      <c r="AA17" t="str">
-        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
-      </c>
-      <c r="AB17" t="str">
-        <v>PUBLISHED</v>
-      </c>
-      <c r="AC17" t="str">
+      <c r="AD17" t="str">
+        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
+      </c>
+      <c r="AE17" t="str">
+        <v>PUBLISHED</v>
+      </c>
+      <c r="AF17" t="str">
         <v>SUPER_ADMIN</v>
       </c>
     </row>
@@ -2625,84 +2782,93 @@
         <v>Blackout Roman Blinds</v>
       </c>
       <c r="C18" t="str">
-        <v>b8b548e0-c408-4b40-8a6e-ac94d1c78b1b</v>
+        <v>f9385843-3ab9-4fa6-a812-997df07116a6</v>
       </c>
       <c r="D18" t="str">
-        <v>94ff8b04-4bad-426d-aee0-d95375e47ebd</v>
+        <v>ddd8787e-9cbc-414e-b42a-4cb76ec4f553</v>
       </c>
       <c r="E18" t="str">
-        <v>Luxury Roman Blind</v>
+        <v>PROD-00017</v>
       </c>
       <c r="F18" t="str">
         <v>Luxury Roman Blind</v>
       </c>
       <c r="G18" t="str">
+        <v>Luxury Roman Blind</v>
+      </c>
+      <c r="H18" t="str">
         <v>Decorative valance</v>
       </c>
-      <c r="H18" t="str">
+      <c r="I18" t="str">
         <v>Valance decor</v>
       </c>
-      <c r="I18" t="str">
+      <c r="J18" t="str">
         <v>decorvative-valance</v>
       </c>
-      <c r="J18" t="str">
+      <c r="K18" t="str">
         <v>https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785556/slide6_mrq5gu.png</v>
       </c>
-      <c r="K18" t="str">
+      <c r="L18" t="str">
         <v>{"https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785536/Dorian_Luna_Dimout_Roller_Blinds-min_ebhnvd.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785536/Dorian_Luna_Dimout_Roller_Blinds_1-min_a6jw1j.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785536/Dorian_Luna_Dimout_Roller_Blinds_2-min_bxkqus.jpg"}</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>90</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>80</v>
       </c>
-      <c r="N18" t="b">
+      <c r="O18" t="b">
         <v>0</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>0</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>300</v>
       </c>
-      <c r="Q18">
-        <v>30</v>
-      </c>
       <c r="R18">
-        <v>15</v>
-      </c>
-      <c r="S18" t="str">
+        <v>140</v>
+      </c>
+      <c r="S18">
+        <v>150</v>
+      </c>
+      <c r="T18">
+        <v>140</v>
+      </c>
+      <c r="U18">
+        <v>150</v>
+      </c>
+      <c r="V18" t="str">
         <v>Striped</v>
       </c>
-      <c r="T18" t="str">
+      <c r="W18" t="str">
         <v>Cotton</v>
       </c>
-      <c r="U18" t="str">
+      <c r="X18" t="str">
         <v>Blue</v>
       </c>
-      <c r="V18" t="str">
+      <c r="Y18" t="str">
         <v>Matching set</v>
       </c>
-      <c r="W18" t="str">
+      <c r="Z18" t="str">
         <v>Guide 6</v>
       </c>
-      <c r="X18" t="str">
+      <c r="AA18" t="str">
         <v>Decorative Valance</v>
       </c>
-      <c r="Y18" t="str">
+      <c r="AB18" t="str">
         <v>Stylish valance</v>
       </c>
-      <c r="Z18" t="str">
+      <c r="AC18" t="str">
         <v>decorative-valance</v>
       </c>
-      <c r="AA18" t="str">
-        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
-      </c>
-      <c r="AB18" t="str">
-        <v>PUBLISHED</v>
-      </c>
-      <c r="AC18" t="str">
+      <c r="AD18" t="str">
+        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
+      </c>
+      <c r="AE18" t="str">
+        <v>PUBLISHED</v>
+      </c>
+      <c r="AF18" t="str">
         <v>SUPER_ADMIN</v>
       </c>
     </row>
@@ -2714,84 +2880,93 @@
         <v>Blackout Roman Blinds</v>
       </c>
       <c r="C19" t="str">
-        <v>b8b548e0-c408-4b40-8a6e-ac94d1c78b1b</v>
+        <v>f9385843-3ab9-4fa6-a812-997df07116a6</v>
       </c>
       <c r="D19" t="str">
-        <v>94ff8b04-4bad-426d-aee0-d95375e47ebd</v>
+        <v>ddd8787e-9cbc-414e-b42a-4cb76ec4f553</v>
       </c>
       <c r="E19" t="str">
-        <v>Thermal Blackout Blind</v>
+        <v>PROD-00018</v>
       </c>
       <c r="F19" t="str">
         <v>Thermal Blackout Blind</v>
       </c>
       <c r="G19" t="str">
+        <v>Thermal Blackout Blind</v>
+      </c>
+      <c r="H19" t="str">
         <v>Blind mounting brackets</v>
       </c>
-      <c r="H19" t="str">
+      <c r="I19" t="str">
         <v>Mount brackets</v>
       </c>
-      <c r="I19" t="str">
+      <c r="J19" t="str">
         <v>mounting-bracfkets</v>
       </c>
-      <c r="J19" t="str">
+      <c r="K19" t="str">
         <v>https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785143/slide5_dldteb.png</v>
       </c>
-      <c r="K19" t="str">
+      <c r="L19" t="str">
         <v>{"https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785394/Aurora_Wheat_Dimout_Roman_Blinds-min_rcjk6x.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785393/Aurora_Wheat_Dimout_Roman_Blinds_1-min_njwb1u.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785394/Aurora_Wheat_Dimout_Roman_Blinds_2-min_p3jmxg.jpg"}</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>250</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>190</v>
       </c>
-      <c r="N19" t="b">
+      <c r="O19" t="b">
         <v>0</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>0</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>500</v>
       </c>
-      <c r="Q19">
-        <v>5</v>
-      </c>
       <c r="R19">
-        <v>5</v>
-      </c>
-      <c r="S19" t="str">
+        <v>100</v>
+      </c>
+      <c r="S19">
+        <v>100</v>
+      </c>
+      <c r="T19">
+        <v>100</v>
+      </c>
+      <c r="U19">
+        <v>100</v>
+      </c>
+      <c r="V19" t="str">
         <v>Solid</v>
       </c>
-      <c r="T19" t="str">
+      <c r="W19" t="str">
         <v>Metal</v>
       </c>
-      <c r="U19" t="str">
+      <c r="X19" t="str">
         <v>White</v>
       </c>
-      <c r="V19" t="str">
+      <c r="Y19" t="str">
         <v>Bolts included</v>
       </c>
-      <c r="W19" t="str">
+      <c r="Z19" t="str">
         <v>Guide 7</v>
       </c>
-      <c r="X19" t="str">
+      <c r="AA19" t="str">
         <v>Mounting Brackets</v>
       </c>
-      <c r="Y19" t="str">
+      <c r="AB19" t="str">
         <v>Strong blind mounts</v>
       </c>
-      <c r="Z19" t="str">
+      <c r="AC19" t="str">
         <v>mounting-brackets</v>
       </c>
-      <c r="AA19" t="str">
-        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
-      </c>
-      <c r="AB19" t="str">
-        <v>PUBLISHED</v>
-      </c>
-      <c r="AC19" t="str">
+      <c r="AD19" t="str">
+        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
+      </c>
+      <c r="AE19" t="str">
+        <v>PUBLISHED</v>
+      </c>
+      <c r="AF19" t="str">
         <v>SUPER_ADMIN</v>
       </c>
     </row>
@@ -2803,84 +2978,93 @@
         <v>Blackout Roman Blinds</v>
       </c>
       <c r="C20" t="str">
-        <v>b8b548e0-c408-4b40-8a6e-ac94d1c78b1b</v>
+        <v>f9385843-3ab9-4fa6-a812-997df07116a6</v>
       </c>
       <c r="D20" t="str">
-        <v>94ff8b04-4bad-426d-aee0-d95375e47ebd</v>
+        <v>ddd8787e-9cbc-414e-b42a-4cb76ec4f553</v>
       </c>
       <c r="E20" t="str">
-        <v>Printed Roller Blind</v>
+        <v>PROD-00019</v>
       </c>
       <c r="F20" t="str">
         <v>Printed Roller Blind</v>
       </c>
       <c r="G20" t="str">
+        <v>Printed Roller Blind</v>
+      </c>
+      <c r="H20" t="str">
         <v>Modern panel blind</v>
       </c>
-      <c r="H20" t="str">
+      <c r="I20" t="str">
         <v>Panel blind</v>
       </c>
-      <c r="I20" t="str">
+      <c r="J20" t="str">
         <v>panfel-blind</v>
       </c>
-      <c r="J20" t="str">
+      <c r="K20" t="str">
         <v>https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785189/slide3_fcagso.png</v>
       </c>
-      <c r="K20" t="str">
+      <c r="L20" t="str">
         <v>{"https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785586/Bric_Aquamarine_Dimout_Roman_Blinds-min_k7x3a0.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765957491/Bric_Aquamarine_Dimout_Roman_Blinds_2-min_zfjne2.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785586/Bric_Aquamarine_Dimout_Roman_Blinds_1-min_qgaijd.jpg"}</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>200</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>180</v>
       </c>
-      <c r="N20" t="b">
+      <c r="O20" t="b">
         <v>0</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>0</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>90</v>
-      </c>
-      <c r="Q20">
-        <v>180</v>
       </c>
       <c r="R20">
         <v>200</v>
       </c>
-      <c r="S20" t="str">
+      <c r="S20">
+        <v>200</v>
+      </c>
+      <c r="T20">
+        <v>200</v>
+      </c>
+      <c r="U20">
+        <v>200</v>
+      </c>
+      <c r="V20" t="str">
         <v>Geometric</v>
       </c>
-      <c r="T20" t="str">
+      <c r="W20" t="str">
         <v>Polyester</v>
       </c>
-      <c r="U20" t="str">
+      <c r="X20" t="str">
         <v>Grey</v>
       </c>
-      <c r="V20" t="str">
+      <c r="Y20" t="str">
         <v>Rail kit</v>
       </c>
-      <c r="W20" t="str">
+      <c r="Z20" t="str">
         <v>Guide 8</v>
       </c>
-      <c r="X20" t="str">
+      <c r="AA20" t="str">
         <v>Panel Blind</v>
       </c>
-      <c r="Y20" t="str">
+      <c r="AB20" t="str">
         <v>Modern panel blinds</v>
       </c>
-      <c r="Z20" t="str">
+      <c r="AC20" t="str">
         <v>panel-blind</v>
       </c>
-      <c r="AA20" t="str">
-        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
-      </c>
-      <c r="AB20" t="str">
-        <v>PUBLISHED</v>
-      </c>
-      <c r="AC20" t="str">
+      <c r="AD20" t="str">
+        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
+      </c>
+      <c r="AE20" t="str">
+        <v>PUBLISHED</v>
+      </c>
+      <c r="AF20" t="str">
         <v>SUPER_ADMIN</v>
       </c>
     </row>
@@ -2892,84 +3076,93 @@
         <v>Blackout Roman Blinds</v>
       </c>
       <c r="C21" t="str">
-        <v>b8b548e0-c408-4b40-8a6e-ac94d1c78b1b</v>
+        <v>f9385843-3ab9-4fa6-a812-997df07116a6</v>
       </c>
       <c r="D21" t="str">
-        <v>94ff8b04-4bad-426d-aee0-d95375e47ebd</v>
+        <v>ddd8787e-9cbc-414e-b42a-4cb76ec4f553</v>
       </c>
       <c r="E21" t="str">
-        <v>Plain White Roller Blind</v>
+        <v>PROD-00020</v>
       </c>
       <c r="F21" t="str">
         <v>Plain White Roller Blind</v>
       </c>
       <c r="G21" t="str">
+        <v>Plain White Roller Blind</v>
+      </c>
+      <c r="H21" t="str">
         <v>Energy saving shade</v>
       </c>
-      <c r="H21" t="str">
+      <c r="I21" t="str">
         <v>Cellular shade</v>
       </c>
-      <c r="I21" t="str">
+      <c r="J21" t="str">
         <v>cerllular-shrade</v>
       </c>
-      <c r="J21" t="str">
+      <c r="K21" t="str">
         <v>https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785360/slide1_uggynp.webp</v>
       </c>
-      <c r="K21" t="str">
+      <c r="L21" t="str">
         <v>{"https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785536/Dorian_Luna_Dimout_Roller_Blinds-min_ebhnvd.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785536/Dorian_Luna_Dimout_Roller_Blinds_1-min_a6jw1j.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785536/Dorian_Luna_Dimout_Roller_Blinds_2-min_bxkqus.jpg"}</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>170</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>150</v>
       </c>
-      <c r="N21" t="b">
+      <c r="O21" t="b">
         <v>0</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>0</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>150</v>
       </c>
-      <c r="Q21">
-        <v>95</v>
-      </c>
       <c r="R21">
+        <v>120</v>
+      </c>
+      <c r="S21">
         <v>180</v>
       </c>
-      <c r="S21" t="str">
+      <c r="T21">
+        <v>120</v>
+      </c>
+      <c r="U21">
+        <v>180</v>
+      </c>
+      <c r="V21" t="str">
         <v>Honeycomb</v>
       </c>
-      <c r="T21" t="str">
+      <c r="W21" t="str">
         <v>Fabric</v>
       </c>
-      <c r="U21" t="str">
+      <c r="X21" t="str">
         <v>Black</v>
       </c>
-      <c r="V21" t="str">
+      <c r="Y21" t="str">
         <v>Thermal</v>
       </c>
-      <c r="W21" t="str">
+      <c r="Z21" t="str">
         <v>Guide 9</v>
       </c>
-      <c r="X21" t="str">
+      <c r="AA21" t="str">
         <v>Cellular Shade</v>
       </c>
-      <c r="Y21" t="str">
+      <c r="AB21" t="str">
         <v>Energy efficient shades</v>
       </c>
-      <c r="Z21" t="str">
+      <c r="AC21" t="str">
         <v>cellular-shade</v>
       </c>
-      <c r="AA21" t="str">
-        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
-      </c>
-      <c r="AB21" t="str">
-        <v>PUBLISHED</v>
-      </c>
-      <c r="AC21" t="str">
+      <c r="AD21" t="str">
+        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
+      </c>
+      <c r="AE21" t="str">
+        <v>PUBLISHED</v>
+      </c>
+      <c r="AF21" t="str">
         <v>SUPER_ADMIN</v>
       </c>
     </row>
@@ -2981,84 +3174,93 @@
         <v>See-through Roman Blinds</v>
       </c>
       <c r="C22" t="str">
-        <v>b8b548e0-c408-4b40-8a6e-ac94d1c78b1b</v>
+        <v>f9385843-3ab9-4fa6-a812-997df07116a6</v>
       </c>
       <c r="D22" t="str">
-        <v>f618ad4e-da86-4328-b1ec-a7fd0acca449</v>
+        <v>49c54cc1-77c4-4f09-bffe-f60b2678b82b</v>
       </c>
       <c r="E22" t="str">
-        <v>Smart Motorized Blind</v>
+        <v>PROD-00021</v>
       </c>
       <c r="F22" t="str">
         <v>Smart Motorized Blind</v>
       </c>
       <c r="G22" t="str">
+        <v>Smart Motorized Blind</v>
+      </c>
+      <c r="H22" t="str">
         <v>Motorized roller blind</v>
       </c>
-      <c r="H22" t="str">
+      <c r="I22" t="str">
         <v>Motor roller</v>
       </c>
-      <c r="I22" t="str">
+      <c r="J22" t="str">
         <v>motorizewd-rollwer-blind</v>
       </c>
-      <c r="J22" t="str">
+      <c r="K22" t="str">
         <v>https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785556/slide6_mrq5gu.png</v>
       </c>
-      <c r="K22" t="str">
+      <c r="L22" t="str">
         <v>{"https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785394/Aurora_Wheat_Dimout_Roman_Blinds-min_rcjk6x.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785393/Aurora_Wheat_Dimout_Roman_Blinds_1-min_njwb1u.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785394/Aurora_Wheat_Dimout_Roman_Blinds_2-min_p3jmxg.jpg"}</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>120</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>100</v>
       </c>
-      <c r="N22" t="b">
+      <c r="O22" t="b">
         <v>1</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>58</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>70</v>
       </c>
-      <c r="Q22">
-        <v>130</v>
-      </c>
       <c r="R22">
+        <v>150</v>
+      </c>
+      <c r="S22">
         <v>195</v>
       </c>
-      <c r="S22" t="str">
+      <c r="T22">
+        <v>150</v>
+      </c>
+      <c r="U22">
+        <v>195</v>
+      </c>
+      <c r="V22" t="str">
         <v>Solid</v>
       </c>
-      <c r="T22" t="str">
+      <c r="W22" t="str">
         <v>Polyester</v>
       </c>
-      <c r="U22" t="str">
+      <c r="X22" t="str">
         <v>Red</v>
       </c>
-      <c r="V22" t="str">
+      <c r="Y22" t="str">
         <v>Remote included</v>
       </c>
-      <c r="W22" t="str">
+      <c r="Z22" t="str">
         <v>Guide 10</v>
       </c>
-      <c r="X22" t="str">
+      <c r="AA22" t="str">
         <v>Motorized Roller Blind</v>
       </c>
-      <c r="Y22" t="str">
+      <c r="AB22" t="str">
         <v>Smart motor blinds</v>
       </c>
-      <c r="Z22" t="str">
+      <c r="AC22" t="str">
         <v>motorized-roller</v>
       </c>
-      <c r="AA22" t="str">
-        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
-      </c>
-      <c r="AB22" t="str">
-        <v>PUBLISHED</v>
-      </c>
-      <c r="AC22" t="str">
+      <c r="AD22" t="str">
+        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
+      </c>
+      <c r="AE22" t="str">
+        <v>PUBLISHED</v>
+      </c>
+      <c r="AF22" t="str">
         <v>SUPER_ADMIN</v>
       </c>
     </row>
@@ -3070,84 +3272,93 @@
         <v>See-through Roman Blinds</v>
       </c>
       <c r="C23" t="str">
-        <v>b8b548e0-c408-4b40-8a6e-ac94d1c78b1b</v>
+        <v>f9385843-3ab9-4fa6-a812-997df07116a6</v>
       </c>
       <c r="D23" t="str">
-        <v>f618ad4e-da86-4328-b1ec-a7fd0acca449</v>
+        <v>49c54cc1-77c4-4f09-bffe-f60b2678b82b</v>
       </c>
       <c r="E23" t="str">
-        <v>Remote Control Blind</v>
+        <v>PROD-00022</v>
       </c>
       <c r="F23" t="str">
         <v>Remote Control Blind</v>
       </c>
       <c r="G23" t="str">
+        <v>Remote Control Blind</v>
+      </c>
+      <c r="H23" t="str">
         <v>Energy saving shade</v>
       </c>
-      <c r="H23" t="str">
+      <c r="I23" t="str">
         <v>Cellular shade</v>
       </c>
-      <c r="I23" t="str">
+      <c r="J23" t="str">
         <v>ckellular-shkade</v>
       </c>
-      <c r="J23" t="str">
+      <c r="K23" t="str">
         <v>https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785143/slide5_dldteb.png</v>
       </c>
-      <c r="K23" t="str">
+      <c r="L23" t="str">
         <v>{"https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785586/Bric_Aquamarine_Dimout_Roman_Blinds-min_k7x3a0.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765957491/Bric_Aquamarine_Dimout_Roman_Blinds_2-min_zfjne2.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785586/Bric_Aquamarine_Dimout_Roman_Blinds_1-min_qgaijd.jpg"}</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>140</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>120</v>
       </c>
-      <c r="N23" t="b">
+      <c r="O23" t="b">
         <v>0</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>0</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>150</v>
       </c>
-      <c r="Q23">
-        <v>95</v>
-      </c>
       <c r="R23">
+        <v>140</v>
+      </c>
+      <c r="S23">
         <v>180</v>
       </c>
-      <c r="S23" t="str">
+      <c r="T23">
+        <v>140</v>
+      </c>
+      <c r="U23">
+        <v>180</v>
+      </c>
+      <c r="V23" t="str">
         <v>Honeycomb</v>
       </c>
-      <c r="T23" t="str">
+      <c r="W23" t="str">
         <v>Fabric</v>
       </c>
-      <c r="U23" t="str">
+      <c r="X23" t="str">
         <v>Black</v>
       </c>
-      <c r="V23" t="str">
+      <c r="Y23" t="str">
         <v>Thermal</v>
       </c>
-      <c r="W23" t="str">
+      <c r="Z23" t="str">
         <v>Guide 9</v>
       </c>
-      <c r="X23" t="str">
+      <c r="AA23" t="str">
         <v>Cellular Shade</v>
       </c>
-      <c r="Y23" t="str">
+      <c r="AB23" t="str">
         <v>Energy efficient shades</v>
       </c>
-      <c r="Z23" t="str">
+      <c r="AC23" t="str">
         <v>cellular-shade</v>
       </c>
-      <c r="AA23" t="str">
-        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
-      </c>
-      <c r="AB23" t="str">
-        <v>PUBLISHED</v>
-      </c>
-      <c r="AC23" t="str">
+      <c r="AD23" t="str">
+        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
+      </c>
+      <c r="AE23" t="str">
+        <v>PUBLISHED</v>
+      </c>
+      <c r="AF23" t="str">
         <v>SUPER_ADMIN</v>
       </c>
     </row>
@@ -3159,84 +3370,93 @@
         <v>See-through Roman Blinds</v>
       </c>
       <c r="C24" t="str">
-        <v>b8b548e0-c408-4b40-8a6e-ac94d1c78b1b</v>
+        <v>f9385843-3ab9-4fa6-a812-997df07116a6</v>
       </c>
       <c r="D24" t="str">
-        <v>f618ad4e-da86-4328-b1ec-a7fd0acca449</v>
+        <v>49c54cc1-77c4-4f09-bffe-f60b2678b82b</v>
       </c>
       <c r="E24" t="str">
-        <v>Cordless Roller Blind</v>
+        <v>PROD-00023</v>
       </c>
       <c r="F24" t="str">
         <v>Cordless Roller Blind</v>
       </c>
       <c r="G24" t="str">
+        <v>Cordless Roller Blind</v>
+      </c>
+      <c r="H24" t="str">
         <v>Decorative valance</v>
       </c>
-      <c r="H24" t="str">
+      <c r="I24" t="str">
         <v>Valance decor</v>
       </c>
-      <c r="I24" t="str">
+      <c r="J24" t="str">
         <v>decorative-valancef</v>
       </c>
-      <c r="J24" t="str">
+      <c r="K24" t="str">
         <v>https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785189/slide3_fcagso.png</v>
       </c>
-      <c r="K24" t="str">
+      <c r="L24" t="str">
         <v>{"https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785536/Dorian_Luna_Dimout_Roller_Blinds-min_ebhnvd.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785536/Dorian_Luna_Dimout_Roller_Blinds_1-min_a6jw1j.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785536/Dorian_Luna_Dimout_Roller_Blinds_2-min_bxkqus.jpg"}</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>110</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>100</v>
       </c>
-      <c r="N24" t="b">
+      <c r="O24" t="b">
         <v>0</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>0</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>300</v>
       </c>
-      <c r="Q24">
-        <v>30</v>
-      </c>
       <c r="R24">
-        <v>15</v>
-      </c>
-      <c r="S24" t="str">
+        <v>140</v>
+      </c>
+      <c r="S24">
+        <v>150</v>
+      </c>
+      <c r="T24">
+        <v>140</v>
+      </c>
+      <c r="U24">
+        <v>150</v>
+      </c>
+      <c r="V24" t="str">
         <v>Striped</v>
       </c>
-      <c r="T24" t="str">
+      <c r="W24" t="str">
         <v>Cotton</v>
       </c>
-      <c r="U24" t="str">
+      <c r="X24" t="str">
         <v>Blue</v>
       </c>
-      <c r="V24" t="str">
+      <c r="Y24" t="str">
         <v>Matching set</v>
       </c>
-      <c r="W24" t="str">
+      <c r="Z24" t="str">
         <v>Guide 6</v>
       </c>
-      <c r="X24" t="str">
+      <c r="AA24" t="str">
         <v>Decorative Valance</v>
       </c>
-      <c r="Y24" t="str">
+      <c r="AB24" t="str">
         <v>Stylish valance</v>
       </c>
-      <c r="Z24" t="str">
+      <c r="AC24" t="str">
         <v>decorative-valance</v>
       </c>
-      <c r="AA24" t="str">
-        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
-      </c>
-      <c r="AB24" t="str">
-        <v>PUBLISHED</v>
-      </c>
-      <c r="AC24" t="str">
+      <c r="AD24" t="str">
+        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
+      </c>
+      <c r="AE24" t="str">
+        <v>PUBLISHED</v>
+      </c>
+      <c r="AF24" t="str">
         <v>SUPER_ADMIN</v>
       </c>
     </row>
@@ -3248,84 +3468,93 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C25" t="str">
-        <v>b8b548e0-c408-4b40-8a6e-ac94d1c78b1b</v>
+        <v>f9385843-3ab9-4fa6-a812-997df07116a6</v>
       </c>
       <c r="D25" t="str">
-        <v>bf994ce1-65b9-4c12-93e9-7a651465aab0</v>
+        <v>c451f207-8cf4-4308-9a84-01879f43dcfb</v>
       </c>
       <c r="E25" t="str">
-        <v>Waterproof Roller Blind</v>
+        <v>PROD-00024</v>
       </c>
       <c r="F25" t="str">
         <v>Waterproof Roller Blind</v>
       </c>
       <c r="G25" t="str">
+        <v>Waterproof Roller Blind</v>
+      </c>
+      <c r="H25" t="str">
         <v>Blind mounting brackets</v>
       </c>
-      <c r="H25" t="str">
+      <c r="I25" t="str">
         <v>Mount brackets</v>
       </c>
-      <c r="I25" t="str">
+      <c r="J25" t="str">
         <v>mounting-ssfw</v>
       </c>
-      <c r="J25" t="str">
+      <c r="K25" t="str">
         <v>https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785360/slide1_uggynp.webp</v>
       </c>
-      <c r="K25" t="str">
+      <c r="L25" t="str">
         <v>{"https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785394/Aurora_Wheat_Dimout_Roman_Blinds-min_rcjk6x.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785393/Aurora_Wheat_Dimout_Roman_Blinds_1-min_njwb1u.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785394/Aurora_Wheat_Dimout_Roman_Blinds_2-min_p3jmxg.jpg"}</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>100</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>90</v>
       </c>
-      <c r="N25" t="b">
+      <c r="O25" t="b">
         <v>0</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>0</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>500</v>
       </c>
-      <c r="Q25">
-        <v>5</v>
-      </c>
       <c r="R25">
-        <v>5</v>
-      </c>
-      <c r="S25" t="str">
+        <v>100</v>
+      </c>
+      <c r="S25">
+        <v>100</v>
+      </c>
+      <c r="T25">
+        <v>100</v>
+      </c>
+      <c r="U25">
+        <v>100</v>
+      </c>
+      <c r="V25" t="str">
         <v>Solid</v>
       </c>
-      <c r="T25" t="str">
+      <c r="W25" t="str">
         <v>Metal</v>
       </c>
-      <c r="U25" t="str">
+      <c r="X25" t="str">
         <v>White</v>
       </c>
-      <c r="V25" t="str">
+      <c r="Y25" t="str">
         <v>Bolts included</v>
       </c>
-      <c r="W25" t="str">
+      <c r="Z25" t="str">
         <v>Guide 7</v>
       </c>
-      <c r="X25" t="str">
+      <c r="AA25" t="str">
         <v>Mounting Brackets</v>
       </c>
-      <c r="Y25" t="str">
+      <c r="AB25" t="str">
         <v>Strong blind mounts</v>
       </c>
-      <c r="Z25" t="str">
+      <c r="AC25" t="str">
         <v>mounting-brackets</v>
       </c>
-      <c r="AA25" t="str">
-        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
-      </c>
-      <c r="AB25" t="str">
-        <v>PUBLISHED</v>
-      </c>
-      <c r="AC25" t="str">
+      <c r="AD25" t="str">
+        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
+      </c>
+      <c r="AE25" t="str">
+        <v>PUBLISHED</v>
+      </c>
+      <c r="AF25" t="str">
         <v>SUPER_ADMIN</v>
       </c>
     </row>
@@ -3337,84 +3566,93 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C26" t="str">
-        <v>b8b548e0-c408-4b40-8a6e-ac94d1c78b1b</v>
+        <v>f9385843-3ab9-4fa6-a812-997df07116a6</v>
       </c>
       <c r="D26" t="str">
-        <v>bf994ce1-65b9-4c12-93e9-7a651465aab0</v>
+        <v>c451f207-8cf4-4308-9a84-01879f43dcfb</v>
       </c>
       <c r="E26" t="str">
-        <v>Kitchen Roller Blind</v>
+        <v>PROD-00025</v>
       </c>
       <c r="F26" t="str">
         <v>Kitchen Roller Blind</v>
       </c>
       <c r="G26" t="str">
+        <v>Kitchen Roller Blind</v>
+      </c>
+      <c r="H26" t="str">
         <v>Modern panel blind</v>
       </c>
-      <c r="H26" t="str">
+      <c r="I26" t="str">
         <v>Panel blind</v>
       </c>
-      <c r="I26" t="str">
+      <c r="J26" t="str">
         <v>pafnel-blind</v>
       </c>
-      <c r="J26" t="str">
+      <c r="K26" t="str">
         <v>https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785556/slide6_mrq5gu.png</v>
       </c>
-      <c r="K26" t="str">
+      <c r="L26" t="str">
         <v>{"https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785586/Bric_Aquamarine_Dimout_Roman_Blinds-min_k7x3a0.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765957491/Bric_Aquamarine_Dimout_Roman_Blinds_2-min_zfjne2.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785586/Bric_Aquamarine_Dimout_Roman_Blinds_1-min_qgaijd.jpg"}</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>150</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>130</v>
       </c>
-      <c r="N26" t="b">
+      <c r="O26" t="b">
         <v>0</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>0</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>90</v>
-      </c>
-      <c r="Q26">
-        <v>180</v>
       </c>
       <c r="R26">
         <v>200</v>
       </c>
-      <c r="S26" t="str">
+      <c r="S26">
+        <v>200</v>
+      </c>
+      <c r="T26">
+        <v>200</v>
+      </c>
+      <c r="U26">
+        <v>200</v>
+      </c>
+      <c r="V26" t="str">
         <v>Geometric</v>
       </c>
-      <c r="T26" t="str">
+      <c r="W26" t="str">
         <v>Polyester</v>
       </c>
-      <c r="U26" t="str">
+      <c r="X26" t="str">
         <v>Grey</v>
       </c>
-      <c r="V26" t="str">
+      <c r="Y26" t="str">
         <v>Rail kit</v>
       </c>
-      <c r="W26" t="str">
+      <c r="Z26" t="str">
         <v>Guide 8</v>
       </c>
-      <c r="X26" t="str">
+      <c r="AA26" t="str">
         <v>Panel Blind</v>
       </c>
-      <c r="Y26" t="str">
+      <c r="AB26" t="str">
         <v>Modern panel blinds</v>
       </c>
-      <c r="Z26" t="str">
+      <c r="AC26" t="str">
         <v>panel-blind</v>
       </c>
-      <c r="AA26" t="str">
-        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
-      </c>
-      <c r="AB26" t="str">
-        <v>PUBLISHED</v>
-      </c>
-      <c r="AC26" t="str">
+      <c r="AD26" t="str">
+        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
+      </c>
+      <c r="AE26" t="str">
+        <v>PUBLISHED</v>
+      </c>
+      <c r="AF26" t="str">
         <v>SUPER_ADMIN</v>
       </c>
     </row>
@@ -3426,84 +3664,93 @@
         <v>Dim-out Roman Blinds</v>
       </c>
       <c r="C27" t="str">
-        <v>b8b548e0-c408-4b40-8a6e-ac94d1c78b1b</v>
+        <v>f9385843-3ab9-4fa6-a812-997df07116a6</v>
       </c>
       <c r="D27" t="str">
-        <v>bf994ce1-65b9-4c12-93e9-7a651465aab0</v>
+        <v>c451f207-8cf4-4308-9a84-01879f43dcfb</v>
       </c>
       <c r="E27" t="str">
-        <v>Bathroom Roller Blind</v>
+        <v>PROD-00026</v>
       </c>
       <c r="F27" t="str">
         <v>Bathroom Roller Blind</v>
       </c>
       <c r="G27" t="str">
+        <v>Bathroom Roller Blind</v>
+      </c>
+      <c r="H27" t="str">
         <v>Energy saving shade</v>
       </c>
-      <c r="H27" t="str">
+      <c r="I27" t="str">
         <v>Cellular shade</v>
       </c>
-      <c r="I27" t="str">
+      <c r="J27" t="str">
         <v>celulular-shaude</v>
       </c>
-      <c r="J27" t="str">
+      <c r="K27" t="str">
         <v>https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785143/slide5_dldteb.png</v>
       </c>
-      <c r="K27" t="str">
+      <c r="L27" t="str">
         <v>{"https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785536/Dorian_Luna_Dimout_Roller_Blinds-min_ebhnvd.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785536/Dorian_Luna_Dimout_Roller_Blinds_1-min_a6jw1j.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785536/Dorian_Luna_Dimout_Roller_Blinds_2-min_bxkqus.jpg"}</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>130</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>110</v>
       </c>
-      <c r="N27" t="b">
+      <c r="O27" t="b">
         <v>0</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>0</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>150</v>
       </c>
-      <c r="Q27">
-        <v>95</v>
-      </c>
       <c r="R27">
+        <v>120</v>
+      </c>
+      <c r="S27">
         <v>180</v>
       </c>
-      <c r="S27" t="str">
+      <c r="T27">
+        <v>120</v>
+      </c>
+      <c r="U27">
+        <v>180</v>
+      </c>
+      <c r="V27" t="str">
         <v>Honeycomb</v>
       </c>
-      <c r="T27" t="str">
+      <c r="W27" t="str">
         <v>Fabric</v>
       </c>
-      <c r="U27" t="str">
+      <c r="X27" t="str">
         <v>Black</v>
       </c>
-      <c r="V27" t="str">
+      <c r="Y27" t="str">
         <v>Thermal</v>
       </c>
-      <c r="W27" t="str">
+      <c r="Z27" t="str">
         <v>Guide 9</v>
       </c>
-      <c r="X27" t="str">
+      <c r="AA27" t="str">
         <v>Cellular Shade</v>
       </c>
-      <c r="Y27" t="str">
+      <c r="AB27" t="str">
         <v>Energy efficient shades</v>
       </c>
-      <c r="Z27" t="str">
+      <c r="AC27" t="str">
         <v>cellular-shade</v>
       </c>
-      <c r="AA27" t="str">
-        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
-      </c>
-      <c r="AB27" t="str">
-        <v>PUBLISHED</v>
-      </c>
-      <c r="AC27" t="str">
+      <c r="AD27" t="str">
+        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
+      </c>
+      <c r="AE27" t="str">
+        <v>PUBLISHED</v>
+      </c>
+      <c r="AF27" t="str">
         <v>SUPER_ADMIN</v>
       </c>
     </row>
@@ -3515,84 +3762,93 @@
         <v>Dimout Zebra Blind</v>
       </c>
       <c r="C28" t="str">
-        <v>31b71b51-e8ef-409b-ade4-10ffe06748b2</v>
+        <v>7c94bc15-0f53-4499-839c-df14a1fe01ea</v>
       </c>
       <c r="D28" t="str">
-        <v>03467fe8-67c4-4130-9612-7a3bec237766</v>
+        <v>ecc51a2d-6ef7-433b-80ac-7378c95a4968</v>
       </c>
       <c r="E28" t="str">
-        <v>Office Roller Blind</v>
+        <v>PROD-00027</v>
       </c>
       <c r="F28" t="str">
         <v>Office Roller Blind</v>
       </c>
       <c r="G28" t="str">
+        <v>Office Roller Blind</v>
+      </c>
+      <c r="H28" t="str">
         <v>Motorized roller blind</v>
       </c>
-      <c r="H28" t="str">
+      <c r="I28" t="str">
         <v>Motor roller</v>
       </c>
-      <c r="I28" t="str">
+      <c r="J28" t="str">
         <v>motoreized-roller-blind</v>
       </c>
-      <c r="J28" t="str">
+      <c r="K28" t="str">
         <v>https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785189/slide3_fcagso.png</v>
       </c>
-      <c r="K28" t="str">
+      <c r="L28" t="str">
         <v>{"https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785394/Aurora_Wheat_Dimout_Roman_Blinds-min_rcjk6x.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785393/Aurora_Wheat_Dimout_Roman_Blinds_1-min_njwb1u.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785394/Aurora_Wheat_Dimout_Roman_Blinds_2-min_p3jmxg.jpg"}</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>90</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>70</v>
       </c>
-      <c r="N28" t="b">
+      <c r="O28" t="b">
         <v>1</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>58</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>70</v>
       </c>
-      <c r="Q28">
-        <v>130</v>
-      </c>
       <c r="R28">
+        <v>150</v>
+      </c>
+      <c r="S28">
         <v>195</v>
       </c>
-      <c r="S28" t="str">
+      <c r="T28">
+        <v>150</v>
+      </c>
+      <c r="U28">
+        <v>195</v>
+      </c>
+      <c r="V28" t="str">
         <v>Solid</v>
       </c>
-      <c r="T28" t="str">
+      <c r="W28" t="str">
         <v>Polyester</v>
       </c>
-      <c r="U28" t="str">
+      <c r="X28" t="str">
         <v>Red</v>
       </c>
-      <c r="V28" t="str">
+      <c r="Y28" t="str">
         <v>Remote included</v>
       </c>
-      <c r="W28" t="str">
+      <c r="Z28" t="str">
         <v>Guide 10</v>
       </c>
-      <c r="X28" t="str">
+      <c r="AA28" t="str">
         <v>Motorized Roller Blind</v>
       </c>
-      <c r="Y28" t="str">
+      <c r="AB28" t="str">
         <v>Smart motor blinds</v>
       </c>
-      <c r="Z28" t="str">
+      <c r="AC28" t="str">
         <v>motorized-roller</v>
       </c>
-      <c r="AA28" t="str">
-        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
-      </c>
-      <c r="AB28" t="str">
-        <v>PUBLISHED</v>
-      </c>
-      <c r="AC28" t="str">
+      <c r="AD28" t="str">
+        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
+      </c>
+      <c r="AE28" t="str">
+        <v>PUBLISHED</v>
+      </c>
+      <c r="AF28" t="str">
         <v>SUPER_ADMIN</v>
       </c>
     </row>
@@ -3604,84 +3860,93 @@
         <v>Dimout Zebra Blind</v>
       </c>
       <c r="C29" t="str">
-        <v>31b71b51-e8ef-409b-ade4-10ffe06748b2</v>
+        <v>7c94bc15-0f53-4499-839c-df14a1fe01ea</v>
       </c>
       <c r="D29" t="str">
-        <v>03467fe8-67c4-4130-9612-7a3bec237766</v>
+        <v>ecc51a2d-6ef7-433b-80ac-7378c95a4968</v>
       </c>
       <c r="E29" t="str">
-        <v>Vertical Blind</v>
+        <v>PROD-00028</v>
       </c>
       <c r="F29" t="str">
         <v>Vertical Blind</v>
       </c>
       <c r="G29" t="str">
+        <v>Vertical Blind</v>
+      </c>
+      <c r="H29" t="str">
         <v>Energy saving shade</v>
       </c>
-      <c r="H29" t="str">
+      <c r="I29" t="str">
         <v>Cellular shade</v>
       </c>
-      <c r="I29" t="str">
+      <c r="J29" t="str">
         <v>celylular-shyade</v>
       </c>
-      <c r="J29" t="str">
+      <c r="K29" t="str">
         <v>https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785360/slide1_uggynp.webp</v>
       </c>
-      <c r="K29" t="str">
+      <c r="L29" t="str">
         <v>{"https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785586/Bric_Aquamarine_Dimout_Roman_Blinds-min_k7x3a0.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765957491/Bric_Aquamarine_Dimout_Roman_Blinds_2-min_zfjne2.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785586/Bric_Aquamarine_Dimout_Roman_Blinds_1-min_qgaijd.jpg"}</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>250</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>200</v>
       </c>
-      <c r="N29" t="b">
+      <c r="O29" t="b">
         <v>1</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>58</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>150</v>
       </c>
-      <c r="Q29">
-        <v>95</v>
-      </c>
       <c r="R29">
+        <v>140</v>
+      </c>
+      <c r="S29">
         <v>180</v>
       </c>
-      <c r="S29" t="str">
+      <c r="T29">
+        <v>140</v>
+      </c>
+      <c r="U29">
+        <v>180</v>
+      </c>
+      <c r="V29" t="str">
         <v>Honeycomb</v>
       </c>
-      <c r="T29" t="str">
+      <c r="W29" t="str">
         <v>Fabric</v>
       </c>
-      <c r="U29" t="str">
+      <c r="X29" t="str">
         <v>Black</v>
       </c>
-      <c r="V29" t="str">
+      <c r="Y29" t="str">
         <v>Thermal</v>
       </c>
-      <c r="W29" t="str">
+      <c r="Z29" t="str">
         <v>Guide 9</v>
       </c>
-      <c r="X29" t="str">
+      <c r="AA29" t="str">
         <v>Cellular Shade</v>
       </c>
-      <c r="Y29" t="str">
+      <c r="AB29" t="str">
         <v>Energy efficient shades</v>
       </c>
-      <c r="Z29" t="str">
+      <c r="AC29" t="str">
         <v>cellular-shade</v>
       </c>
-      <c r="AA29" t="str">
-        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
-      </c>
-      <c r="AB29" t="str">
-        <v>PUBLISHED</v>
-      </c>
-      <c r="AC29" t="str">
+      <c r="AD29" t="str">
+        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
+      </c>
+      <c r="AE29" t="str">
+        <v>PUBLISHED</v>
+      </c>
+      <c r="AF29" t="str">
         <v>SUPER_ADMIN</v>
       </c>
     </row>
@@ -3693,84 +3958,93 @@
         <v>Dimout Zebra Blind</v>
       </c>
       <c r="C30" t="str">
-        <v>31b71b51-e8ef-409b-ade4-10ffe06748b2</v>
+        <v>7c94bc15-0f53-4499-839c-df14a1fe01ea</v>
       </c>
       <c r="D30" t="str">
-        <v>03467fe8-67c4-4130-9612-7a3bec237766</v>
+        <v>ecc51a2d-6ef7-433b-80ac-7378c95a4968</v>
       </c>
       <c r="E30" t="str">
-        <v>Fabric Vertical Blind</v>
+        <v>PROD-00029</v>
       </c>
       <c r="F30" t="str">
         <v>Fabric Vertical Blind</v>
       </c>
       <c r="G30" t="str">
+        <v>Fabric Vertical Blind</v>
+      </c>
+      <c r="H30" t="str">
         <v>Decorative valance</v>
       </c>
-      <c r="H30" t="str">
+      <c r="I30" t="str">
         <v>Valance decor</v>
       </c>
-      <c r="I30" t="str">
+      <c r="J30" t="str">
         <v>decorative-valahnce</v>
       </c>
-      <c r="J30" t="str">
+      <c r="K30" t="str">
         <v>https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785556/slide6_mrq5gu.png</v>
       </c>
-      <c r="K30" t="str">
+      <c r="L30" t="str">
         <v>{"https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785536/Dorian_Luna_Dimout_Roller_Blinds-min_ebhnvd.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785536/Dorian_Luna_Dimout_Roller_Blinds_1-min_a6jw1j.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785536/Dorian_Luna_Dimout_Roller_Blinds_2-min_bxkqus.jpg"}</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>200</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>180</v>
       </c>
-      <c r="N30" t="b">
+      <c r="O30" t="b">
         <v>1</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>58</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>300</v>
       </c>
-      <c r="Q30">
-        <v>30</v>
-      </c>
       <c r="R30">
-        <v>15</v>
-      </c>
-      <c r="S30" t="str">
+        <v>140</v>
+      </c>
+      <c r="S30">
+        <v>150</v>
+      </c>
+      <c r="T30">
+        <v>140</v>
+      </c>
+      <c r="U30">
+        <v>150</v>
+      </c>
+      <c r="V30" t="str">
         <v>Striped</v>
       </c>
-      <c r="T30" t="str">
+      <c r="W30" t="str">
         <v>Cotton</v>
       </c>
-      <c r="U30" t="str">
+      <c r="X30" t="str">
         <v>Blue</v>
       </c>
-      <c r="V30" t="str">
+      <c r="Y30" t="str">
         <v>Matching set</v>
       </c>
-      <c r="W30" t="str">
+      <c r="Z30" t="str">
         <v>Guide 6</v>
       </c>
-      <c r="X30" t="str">
+      <c r="AA30" t="str">
         <v>Decorative Valance</v>
       </c>
-      <c r="Y30" t="str">
+      <c r="AB30" t="str">
         <v>Stylish valance</v>
       </c>
-      <c r="Z30" t="str">
+      <c r="AC30" t="str">
         <v>decorative-valance</v>
       </c>
-      <c r="AA30" t="str">
-        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
-      </c>
-      <c r="AB30" t="str">
-        <v>PUBLISHED</v>
-      </c>
-      <c r="AC30" t="str">
+      <c r="AD30" t="str">
+        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
+      </c>
+      <c r="AE30" t="str">
+        <v>PUBLISHED</v>
+      </c>
+      <c r="AF30" t="str">
         <v>SUPER_ADMIN</v>
       </c>
     </row>
@@ -3782,84 +4056,93 @@
         <v>Dimout Zebra Blind</v>
       </c>
       <c r="C31" t="str">
-        <v>31b71b51-e8ef-409b-ade4-10ffe06748b2</v>
+        <v>7c94bc15-0f53-4499-839c-df14a1fe01ea</v>
       </c>
       <c r="D31" t="str">
-        <v>03467fe8-67c4-4130-9612-7a3bec237766</v>
+        <v>ecc51a2d-6ef7-433b-80ac-7378c95a4968</v>
       </c>
       <c r="E31" t="str">
-        <v>PVC Vertical Blind</v>
+        <v>PROD-00030</v>
       </c>
       <c r="F31" t="str">
         <v>PVC Vertical Blind</v>
       </c>
       <c r="G31" t="str">
+        <v>PVC Vertical Blind</v>
+      </c>
+      <c r="H31" t="str">
         <v>Blind mounting brackets</v>
       </c>
-      <c r="H31" t="str">
+      <c r="I31" t="str">
         <v>Mount brackets</v>
       </c>
-      <c r="I31" t="str">
+      <c r="J31" t="str">
         <v>mounting-brdackets</v>
       </c>
-      <c r="J31" t="str">
+      <c r="K31" t="str">
         <v>https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785143/slide5_dldteb.png</v>
       </c>
-      <c r="K31" t="str">
+      <c r="L31" t="str">
         <v>{"https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785394/Aurora_Wheat_Dimout_Roman_Blinds-min_rcjk6x.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785393/Aurora_Wheat_Dimout_Roman_Blinds_1-min_njwb1u.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785394/Aurora_Wheat_Dimout_Roman_Blinds_2-min_p3jmxg.jpg"}</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>170</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>160</v>
       </c>
-      <c r="N31" t="b">
+      <c r="O31" t="b">
         <v>0</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>0</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>500</v>
       </c>
-      <c r="Q31">
-        <v>5</v>
-      </c>
       <c r="R31">
-        <v>5</v>
-      </c>
-      <c r="S31" t="str">
+        <v>100</v>
+      </c>
+      <c r="S31">
+        <v>100</v>
+      </c>
+      <c r="T31">
+        <v>100</v>
+      </c>
+      <c r="U31">
+        <v>100</v>
+      </c>
+      <c r="V31" t="str">
         <v>Solid</v>
       </c>
-      <c r="T31" t="str">
+      <c r="W31" t="str">
         <v>Metal</v>
       </c>
-      <c r="U31" t="str">
+      <c r="X31" t="str">
         <v>White</v>
       </c>
-      <c r="V31" t="str">
+      <c r="Y31" t="str">
         <v>Bolts included</v>
       </c>
-      <c r="W31" t="str">
+      <c r="Z31" t="str">
         <v>Guide 7</v>
       </c>
-      <c r="X31" t="str">
+      <c r="AA31" t="str">
         <v>Mounting Brackets</v>
       </c>
-      <c r="Y31" t="str">
+      <c r="AB31" t="str">
         <v>Strong blind mounts</v>
       </c>
-      <c r="Z31" t="str">
+      <c r="AC31" t="str">
         <v>mounting-brackets</v>
       </c>
-      <c r="AA31" t="str">
-        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
-      </c>
-      <c r="AB31" t="str">
-        <v>PUBLISHED</v>
-      </c>
-      <c r="AC31" t="str">
+      <c r="AD31" t="str">
+        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
+      </c>
+      <c r="AE31" t="str">
+        <v>PUBLISHED</v>
+      </c>
+      <c r="AF31" t="str">
         <v>SUPER_ADMIN</v>
       </c>
     </row>
@@ -3871,84 +4154,93 @@
         <v>Dimout Zebra Blind</v>
       </c>
       <c r="C32" t="str">
-        <v>31b71b51-e8ef-409b-ade4-10ffe06748b2</v>
+        <v>7c94bc15-0f53-4499-839c-df14a1fe01ea</v>
       </c>
       <c r="D32" t="str">
-        <v>03467fe8-67c4-4130-9612-7a3bec237766</v>
+        <v>ecc51a2d-6ef7-433b-80ac-7378c95a4968</v>
       </c>
       <c r="E32" t="str">
-        <v>Classic Curtain Panel</v>
+        <v>PROD-00031</v>
       </c>
       <c r="F32" t="str">
         <v>Classic Curtain Panel</v>
       </c>
       <c r="G32" t="str">
+        <v>Classic Curtain Panel</v>
+      </c>
+      <c r="H32" t="str">
         <v>Modern panel blind</v>
       </c>
-      <c r="H32" t="str">
+      <c r="I32" t="str">
         <v>Panel blind</v>
       </c>
-      <c r="I32" t="str">
+      <c r="J32" t="str">
         <v>panel-blinde</v>
       </c>
-      <c r="J32" t="str">
+      <c r="K32" t="str">
         <v>https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785189/slide3_fcagso.png</v>
       </c>
-      <c r="K32" t="str">
+      <c r="L32" t="str">
         <v>{"https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785586/Bric_Aquamarine_Dimout_Roman_Blinds-min_k7x3a0.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765957491/Bric_Aquamarine_Dimout_Roman_Blinds_2-min_zfjne2.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785586/Bric_Aquamarine_Dimout_Roman_Blinds_1-min_qgaijd.jpg"}</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>120</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>100</v>
       </c>
-      <c r="N32" t="b">
+      <c r="O32" t="b">
         <v>0</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>0</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>90</v>
-      </c>
-      <c r="Q32">
-        <v>180</v>
       </c>
       <c r="R32">
         <v>200</v>
       </c>
-      <c r="S32" t="str">
+      <c r="S32">
+        <v>200</v>
+      </c>
+      <c r="T32">
+        <v>200</v>
+      </c>
+      <c r="U32">
+        <v>200</v>
+      </c>
+      <c r="V32" t="str">
         <v>Geometric</v>
       </c>
-      <c r="T32" t="str">
+      <c r="W32" t="str">
         <v>Polyester</v>
       </c>
-      <c r="U32" t="str">
+      <c r="X32" t="str">
         <v>Grey</v>
       </c>
-      <c r="V32" t="str">
+      <c r="Y32" t="str">
         <v>Rail kit</v>
       </c>
-      <c r="W32" t="str">
+      <c r="Z32" t="str">
         <v>Guide 8</v>
       </c>
-      <c r="X32" t="str">
+      <c r="AA32" t="str">
         <v>Panel Blind</v>
       </c>
-      <c r="Y32" t="str">
+      <c r="AB32" t="str">
         <v>Modern panel blinds</v>
       </c>
-      <c r="Z32" t="str">
+      <c r="AC32" t="str">
         <v>panel-blind</v>
       </c>
-      <c r="AA32" t="str">
-        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
-      </c>
-      <c r="AB32" t="str">
-        <v>PUBLISHED</v>
-      </c>
-      <c r="AC32" t="str">
+      <c r="AD32" t="str">
+        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
+      </c>
+      <c r="AE32" t="str">
+        <v>PUBLISHED</v>
+      </c>
+      <c r="AF32" t="str">
         <v>SUPER_ADMIN</v>
       </c>
     </row>
@@ -3960,84 +4252,93 @@
         <v>Dimout Zebra Blind</v>
       </c>
       <c r="C33" t="str">
-        <v>31b71b51-e8ef-409b-ade4-10ffe06748b2</v>
+        <v>7c94bc15-0f53-4499-839c-df14a1fe01ea</v>
       </c>
       <c r="D33" t="str">
-        <v>03467fe8-67c4-4130-9612-7a3bec237766</v>
+        <v>ecc51a2d-6ef7-433b-80ac-7378c95a4968</v>
       </c>
       <c r="E33" t="str">
-        <v>Eyelet Curtain</v>
+        <v>PROD-00032</v>
       </c>
       <c r="F33" t="str">
         <v>Eyelet Curtain</v>
       </c>
       <c r="G33" t="str">
+        <v>Eyelet Curtain</v>
+      </c>
+      <c r="H33" t="str">
         <v>Energy saving shade</v>
       </c>
-      <c r="H33" t="str">
+      <c r="I33" t="str">
         <v>Cellular shade</v>
       </c>
-      <c r="I33" t="str">
+      <c r="J33" t="str">
         <v>celtlular-shatde</v>
       </c>
-      <c r="J33" t="str">
+      <c r="K33" t="str">
         <v>https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785360/slide1_uggynp.webp</v>
       </c>
-      <c r="K33" t="str">
+      <c r="L33" t="str">
         <v>{"https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785536/Dorian_Luna_Dimout_Roller_Blinds-min_ebhnvd.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785536/Dorian_Luna_Dimout_Roller_Blinds_1-min_a6jw1j.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785536/Dorian_Luna_Dimout_Roller_Blinds_2-min_bxkqus.jpg"}</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>140</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>120</v>
       </c>
-      <c r="N33" t="b">
+      <c r="O33" t="b">
         <v>0</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>0</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>150</v>
       </c>
-      <c r="Q33">
-        <v>95</v>
-      </c>
       <c r="R33">
+        <v>120</v>
+      </c>
+      <c r="S33">
         <v>180</v>
       </c>
-      <c r="S33" t="str">
+      <c r="T33">
+        <v>120</v>
+      </c>
+      <c r="U33">
+        <v>180</v>
+      </c>
+      <c r="V33" t="str">
         <v>Honeycomb</v>
       </c>
-      <c r="T33" t="str">
+      <c r="W33" t="str">
         <v>Fabric</v>
       </c>
-      <c r="U33" t="str">
+      <c r="X33" t="str">
         <v>Black</v>
       </c>
-      <c r="V33" t="str">
+      <c r="Y33" t="str">
         <v>Thermal</v>
       </c>
-      <c r="W33" t="str">
+      <c r="Z33" t="str">
         <v>Guide 9</v>
       </c>
-      <c r="X33" t="str">
+      <c r="AA33" t="str">
         <v>Cellular Shade</v>
       </c>
-      <c r="Y33" t="str">
+      <c r="AB33" t="str">
         <v>Energy efficient shades</v>
       </c>
-      <c r="Z33" t="str">
+      <c r="AC33" t="str">
         <v>cellular-shade</v>
       </c>
-      <c r="AA33" t="str">
-        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
-      </c>
-      <c r="AB33" t="str">
-        <v>PUBLISHED</v>
-      </c>
-      <c r="AC33" t="str">
+      <c r="AD33" t="str">
+        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
+      </c>
+      <c r="AE33" t="str">
+        <v>PUBLISHED</v>
+      </c>
+      <c r="AF33" t="str">
         <v>SUPER_ADMIN</v>
       </c>
     </row>
@@ -4049,84 +4350,93 @@
         <v>Dimout Zebra Blind</v>
       </c>
       <c r="C34" t="str">
-        <v>31b71b51-e8ef-409b-ade4-10ffe06748b2</v>
+        <v>7c94bc15-0f53-4499-839c-df14a1fe01ea</v>
       </c>
       <c r="D34" t="str">
-        <v>03467fe8-67c4-4130-9612-7a3bec237766</v>
+        <v>ecc51a2d-6ef7-433b-80ac-7378c95a4968</v>
       </c>
       <c r="E34" t="str">
-        <v>Pinch Pleat Curtain</v>
+        <v>PROD-00033</v>
       </c>
       <c r="F34" t="str">
         <v>Pinch Pleat Curtain</v>
       </c>
       <c r="G34" t="str">
+        <v>Pinch Pleat Curtain</v>
+      </c>
+      <c r="H34" t="str">
         <v>Motorized roller blind</v>
       </c>
-      <c r="H34" t="str">
+      <c r="I34" t="str">
         <v>Motor roller</v>
       </c>
-      <c r="I34" t="str">
+      <c r="J34" t="str">
         <v>motorized-rorller-blind</v>
       </c>
-      <c r="J34" t="str">
+      <c r="K34" t="str">
         <v>https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785556/slide6_mrq5gu.png</v>
       </c>
-      <c r="K34" t="str">
+      <c r="L34" t="str">
         <v>{"https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785394/Aurora_Wheat_Dimout_Roman_Blinds-min_rcjk6x.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785393/Aurora_Wheat_Dimout_Roman_Blinds_1-min_njwb1u.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785394/Aurora_Wheat_Dimout_Roman_Blinds_2-min_p3jmxg.jpg"}</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>110</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>90</v>
       </c>
-      <c r="N34" t="b">
+      <c r="O34" t="b">
         <v>1</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>58</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>70</v>
       </c>
-      <c r="Q34">
-        <v>130</v>
-      </c>
       <c r="R34">
+        <v>150</v>
+      </c>
+      <c r="S34">
         <v>195</v>
       </c>
-      <c r="S34" t="str">
+      <c r="T34">
+        <v>150</v>
+      </c>
+      <c r="U34">
+        <v>195</v>
+      </c>
+      <c r="V34" t="str">
         <v>Solid</v>
       </c>
-      <c r="T34" t="str">
+      <c r="W34" t="str">
         <v>Polyester</v>
       </c>
-      <c r="U34" t="str">
+      <c r="X34" t="str">
         <v>Red</v>
       </c>
-      <c r="V34" t="str">
+      <c r="Y34" t="str">
         <v>Remote included</v>
       </c>
-      <c r="W34" t="str">
+      <c r="Z34" t="str">
         <v>Guide 10</v>
       </c>
-      <c r="X34" t="str">
+      <c r="AA34" t="str">
         <v>Motorized Roller Blind</v>
       </c>
-      <c r="Y34" t="str">
+      <c r="AB34" t="str">
         <v>Smart motor blinds</v>
       </c>
-      <c r="Z34" t="str">
+      <c r="AC34" t="str">
         <v>motorized-roller</v>
       </c>
-      <c r="AA34" t="str">
-        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
-      </c>
-      <c r="AB34" t="str">
-        <v>PUBLISHED</v>
-      </c>
-      <c r="AC34" t="str">
+      <c r="AD34" t="str">
+        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
+      </c>
+      <c r="AE34" t="str">
+        <v>PUBLISHED</v>
+      </c>
+      <c r="AF34" t="str">
         <v>SUPER_ADMIN</v>
       </c>
     </row>
@@ -4138,84 +4448,93 @@
         <v>Dimout Zebra Blind</v>
       </c>
       <c r="C35" t="str">
-        <v>31b71b51-e8ef-409b-ade4-10ffe06748b2</v>
+        <v>7c94bc15-0f53-4499-839c-df14a1fe01ea</v>
       </c>
       <c r="D35" t="str">
-        <v>03467fe8-67c4-4130-9612-7a3bec237766</v>
+        <v>ecc51a2d-6ef7-433b-80ac-7378c95a4968</v>
       </c>
       <c r="E35" t="str">
-        <v>Linen Curtain</v>
+        <v>PROD-00034</v>
       </c>
       <c r="F35" t="str">
         <v>Linen Curtain</v>
       </c>
       <c r="G35" t="str">
+        <v>Linen Curtain</v>
+      </c>
+      <c r="H35" t="str">
         <v>Energy saving shade</v>
       </c>
-      <c r="H35" t="str">
+      <c r="I35" t="str">
         <v>Cellular shade</v>
       </c>
-      <c r="I35" t="str">
+      <c r="J35" t="str">
         <v>cerllular-shrade</v>
       </c>
-      <c r="J35" t="str">
+      <c r="K35" t="str">
         <v>https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785143/slide5_dldteb.png</v>
       </c>
-      <c r="K35" t="str">
+      <c r="L35" t="str">
         <v>{"https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785586/Bric_Aquamarine_Dimout_Roman_Blinds-min_k7x3a0.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765957491/Bric_Aquamarine_Dimout_Roman_Blinds_2-min_zfjne2.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785586/Bric_Aquamarine_Dimout_Roman_Blinds_1-min_qgaijd.jpg"}</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>100</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>80</v>
       </c>
-      <c r="N35" t="b">
+      <c r="O35" t="b">
         <v>1</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>58</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>150</v>
       </c>
-      <c r="Q35">
-        <v>95</v>
-      </c>
       <c r="R35">
-        <v>180</v>
-      </c>
-      <c r="S35" t="str">
+        <v>140</v>
+      </c>
+      <c r="S35">
+        <v>150</v>
+      </c>
+      <c r="T35">
+        <v>140</v>
+      </c>
+      <c r="U35">
+        <v>150</v>
+      </c>
+      <c r="V35" t="str">
         <v>Honeycomb</v>
       </c>
-      <c r="T35" t="str">
+      <c r="W35" t="str">
         <v>Fabric</v>
       </c>
-      <c r="U35" t="str">
+      <c r="X35" t="str">
         <v>Black</v>
       </c>
-      <c r="V35" t="str">
+      <c r="Y35" t="str">
         <v>Thermal</v>
       </c>
-      <c r="W35" t="str">
+      <c r="Z35" t="str">
         <v>Guide 9</v>
       </c>
-      <c r="X35" t="str">
+      <c r="AA35" t="str">
         <v>Cellular Shade</v>
       </c>
-      <c r="Y35" t="str">
+      <c r="AB35" t="str">
         <v>Energy efficient shades</v>
       </c>
-      <c r="Z35" t="str">
+      <c r="AC35" t="str">
         <v>cellular-shade</v>
       </c>
-      <c r="AA35" t="str">
-        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
-      </c>
-      <c r="AB35" t="str">
-        <v>PUBLISHED</v>
-      </c>
-      <c r="AC35" t="str">
+      <c r="AD35" t="str">
+        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
+      </c>
+      <c r="AE35" t="str">
+        <v>PUBLISHED</v>
+      </c>
+      <c r="AF35" t="str">
         <v>SUPER_ADMIN</v>
       </c>
     </row>
@@ -4227,84 +4546,93 @@
         <v>Dimout Zebra Blind</v>
       </c>
       <c r="C36" t="str">
-        <v>31b71b51-e8ef-409b-ade4-10ffe06748b2</v>
+        <v>7c94bc15-0f53-4499-839c-df14a1fe01ea</v>
       </c>
       <c r="D36" t="str">
-        <v>03467fe8-67c4-4130-9612-7a3bec237766</v>
+        <v>ecc51a2d-6ef7-433b-80ac-7378c95a4968</v>
       </c>
       <c r="E36" t="str">
-        <v>Velvet Curtain</v>
+        <v>PROD-00035</v>
       </c>
       <c r="F36" t="str">
         <v>Velvet Curtain</v>
       </c>
       <c r="G36" t="str">
+        <v>Velvet Curtain</v>
+      </c>
+      <c r="H36" t="str">
         <v>Blind mounting brackets</v>
       </c>
-      <c r="H36" t="str">
+      <c r="I36" t="str">
         <v>Mount brackets</v>
       </c>
-      <c r="I36" t="str">
+      <c r="J36" t="str">
         <v>moucnting-brackets</v>
       </c>
-      <c r="J36" t="str">
+      <c r="K36" t="str">
         <v>https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785189/slide3_fcagso.png</v>
       </c>
-      <c r="K36" t="str">
+      <c r="L36" t="str">
         <v>{"https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785536/Dorian_Luna_Dimout_Roller_Blinds-min_ebhnvd.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785536/Dorian_Luna_Dimout_Roller_Blinds_1-min_a6jw1j.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785536/Dorian_Luna_Dimout_Roller_Blinds_2-min_bxkqus.jpg"}</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>150</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>125</v>
       </c>
-      <c r="N36" t="b">
+      <c r="O36" t="b">
         <v>1</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>58</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>500</v>
       </c>
-      <c r="Q36">
-        <v>5</v>
-      </c>
       <c r="R36">
-        <v>5</v>
-      </c>
-      <c r="S36" t="str">
+        <v>140</v>
+      </c>
+      <c r="S36">
+        <v>100</v>
+      </c>
+      <c r="T36">
+        <v>140</v>
+      </c>
+      <c r="U36">
+        <v>100</v>
+      </c>
+      <c r="V36" t="str">
         <v>Solid</v>
       </c>
-      <c r="T36" t="str">
+      <c r="W36" t="str">
         <v>Metal</v>
       </c>
-      <c r="U36" t="str">
+      <c r="X36" t="str">
         <v>White</v>
       </c>
-      <c r="V36" t="str">
+      <c r="Y36" t="str">
         <v>Bolts included</v>
       </c>
-      <c r="W36" t="str">
+      <c r="Z36" t="str">
         <v>Guide 7</v>
       </c>
-      <c r="X36" t="str">
+      <c r="AA36" t="str">
         <v>Mounting Brackets</v>
       </c>
-      <c r="Y36" t="str">
+      <c r="AB36" t="str">
         <v>Strong blind mounts</v>
       </c>
-      <c r="Z36" t="str">
+      <c r="AC36" t="str">
         <v>mounting-brackets</v>
       </c>
-      <c r="AA36" t="str">
-        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
-      </c>
-      <c r="AB36" t="str">
-        <v>PUBLISHED</v>
-      </c>
-      <c r="AC36" t="str">
+      <c r="AD36" t="str">
+        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
+      </c>
+      <c r="AE36" t="str">
+        <v>PUBLISHED</v>
+      </c>
+      <c r="AF36" t="str">
         <v>SUPER_ADMIN</v>
       </c>
     </row>
@@ -4316,84 +4644,93 @@
         <v>Dimout Zebra Blind</v>
       </c>
       <c r="C37" t="str">
-        <v>31b71b51-e8ef-409b-ade4-10ffe06748b2</v>
+        <v>7c94bc15-0f53-4499-839c-df14a1fe01ea</v>
       </c>
       <c r="D37" t="str">
-        <v>03467fe8-67c4-4130-9612-7a3bec237766</v>
+        <v>ecc51a2d-6ef7-433b-80ac-7378c95a4968</v>
       </c>
       <c r="E37" t="str">
-        <v>Thermal Curtain</v>
+        <v>PROD-00036</v>
       </c>
       <c r="F37" t="str">
         <v>Thermal Curtain</v>
       </c>
       <c r="G37" t="str">
+        <v>Thermal Curtain</v>
+      </c>
+      <c r="H37" t="str">
         <v>Modern panel blind</v>
       </c>
-      <c r="H37" t="str">
+      <c r="I37" t="str">
         <v>Panel blind</v>
       </c>
-      <c r="I37" t="str">
+      <c r="J37" t="str">
         <v>panels-blinds</v>
       </c>
-      <c r="J37" t="str">
+      <c r="K37" t="str">
         <v>https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785360/slide1_uggynp.webp</v>
       </c>
-      <c r="K37" t="str">
+      <c r="L37" t="str">
         <v>{"https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785394/Aurora_Wheat_Dimout_Roman_Blinds-min_rcjk6x.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785393/Aurora_Wheat_Dimout_Roman_Blinds_1-min_njwb1u.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785394/Aurora_Wheat_Dimout_Roman_Blinds_2-min_p3jmxg.jpg"}</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>130</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>110</v>
       </c>
-      <c r="N37" t="b">
+      <c r="O37" t="b">
         <v>0</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>0</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>90</v>
       </c>
-      <c r="Q37">
-        <v>180</v>
-      </c>
       <c r="R37">
+        <v>100</v>
+      </c>
+      <c r="S37">
         <v>200</v>
       </c>
-      <c r="S37" t="str">
+      <c r="T37">
+        <v>100</v>
+      </c>
+      <c r="U37">
+        <v>200</v>
+      </c>
+      <c r="V37" t="str">
         <v>Geometric</v>
       </c>
-      <c r="T37" t="str">
+      <c r="W37" t="str">
         <v>Polyester</v>
       </c>
-      <c r="U37" t="str">
+      <c r="X37" t="str">
         <v>Grey</v>
       </c>
-      <c r="V37" t="str">
+      <c r="Y37" t="str">
         <v>Rail kit</v>
       </c>
-      <c r="W37" t="str">
+      <c r="Z37" t="str">
         <v>Guide 8</v>
       </c>
-      <c r="X37" t="str">
+      <c r="AA37" t="str">
         <v>Panel Blind</v>
       </c>
-      <c r="Y37" t="str">
+      <c r="AB37" t="str">
         <v>Modern panel blinds</v>
       </c>
-      <c r="Z37" t="str">
+      <c r="AC37" t="str">
         <v>panel-blind</v>
       </c>
-      <c r="AA37" t="str">
-        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
-      </c>
-      <c r="AB37" t="str">
-        <v>PUBLISHED</v>
-      </c>
-      <c r="AC37" t="str">
+      <c r="AD37" t="str">
+        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
+      </c>
+      <c r="AE37" t="str">
+        <v>PUBLISHED</v>
+      </c>
+      <c r="AF37" t="str">
         <v>SUPER_ADMIN</v>
       </c>
     </row>
@@ -4405,84 +4742,93 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C38" t="str">
-        <v>31b71b51-e8ef-409b-ade4-10ffe06748b2</v>
+        <v>7c94bc15-0f53-4499-839c-df14a1fe01ea</v>
       </c>
       <c r="D38" t="str">
-        <v>ed46c436-f916-4324-8856-218139a0550a</v>
+        <v>1f6f28c7-0d59-4698-806f-4e3e7bdeced0</v>
       </c>
       <c r="E38" t="str">
-        <v>Noise Reducing Curtain</v>
+        <v>PROD-00037</v>
       </c>
       <c r="F38" t="str">
         <v>Noise Reducing Curtain</v>
       </c>
       <c r="G38" t="str">
+        <v>Noise Reducing Curtain</v>
+      </c>
+      <c r="H38" t="str">
         <v>Energy saving shade</v>
       </c>
-      <c r="H38" t="str">
+      <c r="I38" t="str">
         <v>Cellular shade</v>
       </c>
-      <c r="I38" t="str">
+      <c r="J38" t="str">
         <v>celluelar-sheade</v>
       </c>
-      <c r="J38" t="str">
+      <c r="K38" t="str">
         <v>https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785556/slide6_mrq5gu.png</v>
       </c>
-      <c r="K38" t="str">
+      <c r="L38" t="str">
         <v>{"https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785586/Bric_Aquamarine_Dimout_Roman_Blinds-min_k7x3a0.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765957491/Bric_Aquamarine_Dimout_Roman_Blinds_2-min_zfjne2.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785586/Bric_Aquamarine_Dimout_Roman_Blinds_1-min_qgaijd.jpg"}</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>90</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>70</v>
       </c>
-      <c r="N38" t="b">
+      <c r="O38" t="b">
         <v>0</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>0</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>150</v>
       </c>
-      <c r="Q38">
-        <v>95</v>
-      </c>
       <c r="R38">
+        <v>200</v>
+      </c>
+      <c r="S38">
         <v>180</v>
       </c>
-      <c r="S38" t="str">
+      <c r="T38">
+        <v>200</v>
+      </c>
+      <c r="U38">
+        <v>180</v>
+      </c>
+      <c r="V38" t="str">
         <v>Honeycomb</v>
       </c>
-      <c r="T38" t="str">
+      <c r="W38" t="str">
         <v>Fabric</v>
       </c>
-      <c r="U38" t="str">
+      <c r="X38" t="str">
         <v>Black</v>
       </c>
-      <c r="V38" t="str">
+      <c r="Y38" t="str">
         <v>Thermal</v>
       </c>
-      <c r="W38" t="str">
+      <c r="Z38" t="str">
         <v>Guide 9</v>
       </c>
-      <c r="X38" t="str">
+      <c r="AA38" t="str">
         <v>Cellular Shade</v>
       </c>
-      <c r="Y38" t="str">
+      <c r="AB38" t="str">
         <v>Energy efficient shades</v>
       </c>
-      <c r="Z38" t="str">
+      <c r="AC38" t="str">
         <v>cellular-shade</v>
       </c>
-      <c r="AA38" t="str">
-        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
-      </c>
-      <c r="AB38" t="str">
-        <v>PUBLISHED</v>
-      </c>
-      <c r="AC38" t="str">
+      <c r="AD38" t="str">
+        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
+      </c>
+      <c r="AE38" t="str">
+        <v>PUBLISHED</v>
+      </c>
+      <c r="AF38" t="str">
         <v>SUPER_ADMIN</v>
       </c>
     </row>
@@ -4494,84 +4840,93 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C39" t="str">
-        <v>31b71b51-e8ef-409b-ade4-10ffe06748b2</v>
+        <v>7c94bc15-0f53-4499-839c-df14a1fe01ea</v>
       </c>
       <c r="D39" t="str">
-        <v>ed46c436-f916-4324-8856-218139a0550a</v>
+        <v>1f6f28c7-0d59-4698-806f-4e3e7bdeced0</v>
       </c>
       <c r="E39" t="str">
-        <v>Sheer White Curtain</v>
+        <v>PROD-00038</v>
       </c>
       <c r="F39" t="str">
         <v>Sheer White Curtain</v>
       </c>
       <c r="G39" t="str">
+        <v>Sheer White Curtain</v>
+      </c>
+      <c r="H39" t="str">
         <v>Motorized roller blind</v>
       </c>
-      <c r="H39" t="str">
+      <c r="I39" t="str">
         <v>Motor roller</v>
       </c>
-      <c r="I39" t="str">
+      <c r="J39" t="str">
         <v>motorized-roltler-blind</v>
       </c>
-      <c r="J39" t="str">
+      <c r="K39" t="str">
         <v>https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785143/slide5_dldteb.png</v>
       </c>
-      <c r="K39" t="str">
+      <c r="L39" t="str">
         <v>{"https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785536/Dorian_Luna_Dimout_Roller_Blinds-min_ebhnvd.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785536/Dorian_Luna_Dimout_Roller_Blinds_1-min_a6jw1j.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785536/Dorian_Luna_Dimout_Roller_Blinds_2-min_bxkqus.jpg"}</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>250</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>230</v>
       </c>
-      <c r="N39" t="b">
+      <c r="O39" t="b">
         <v>1</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>58</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <v>70</v>
       </c>
-      <c r="Q39">
-        <v>130</v>
-      </c>
       <c r="R39">
+        <v>120</v>
+      </c>
+      <c r="S39">
         <v>195</v>
       </c>
-      <c r="S39" t="str">
+      <c r="T39">
+        <v>120</v>
+      </c>
+      <c r="U39">
+        <v>195</v>
+      </c>
+      <c r="V39" t="str">
         <v>Solid</v>
       </c>
-      <c r="T39" t="str">
+      <c r="W39" t="str">
         <v>Polyester</v>
       </c>
-      <c r="U39" t="str">
+      <c r="X39" t="str">
         <v>Red</v>
       </c>
-      <c r="V39" t="str">
+      <c r="Y39" t="str">
         <v>Remote included</v>
       </c>
-      <c r="W39" t="str">
+      <c r="Z39" t="str">
         <v>Guide 10</v>
       </c>
-      <c r="X39" t="str">
+      <c r="AA39" t="str">
         <v>Motorized Roller Blind</v>
       </c>
-      <c r="Y39" t="str">
+      <c r="AB39" t="str">
         <v>Smart motor blinds</v>
       </c>
-      <c r="Z39" t="str">
+      <c r="AC39" t="str">
         <v>motorized-roller</v>
       </c>
-      <c r="AA39" t="str">
-        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
-      </c>
-      <c r="AB39" t="str">
-        <v>PUBLISHED</v>
-      </c>
-      <c r="AC39" t="str">
+      <c r="AD39" t="str">
+        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
+      </c>
+      <c r="AE39" t="str">
+        <v>PUBLISHED</v>
+      </c>
+      <c r="AF39" t="str">
         <v>SUPER_ADMIN</v>
       </c>
     </row>
@@ -4583,84 +4938,93 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C40" t="str">
-        <v>31b71b51-e8ef-409b-ade4-10ffe06748b2</v>
+        <v>7c94bc15-0f53-4499-839c-df14a1fe01ea</v>
       </c>
       <c r="D40" t="str">
-        <v>ed46c436-f916-4324-8856-218139a0550a</v>
+        <v>1f6f28c7-0d59-4698-806f-4e3e7bdeced0</v>
       </c>
       <c r="E40" t="str">
-        <v>Patterned Curtain</v>
+        <v>PROD-00039</v>
       </c>
       <c r="F40" t="str">
         <v>Patterned Curtain</v>
       </c>
       <c r="G40" t="str">
+        <v>Patterned Curtain</v>
+      </c>
+      <c r="H40" t="str">
         <v>Energy saving shade</v>
       </c>
-      <c r="H40" t="str">
+      <c r="I40" t="str">
         <v>Cellular shade</v>
       </c>
-      <c r="I40" t="str">
+      <c r="J40" t="str">
         <v>cellwular-shawde</v>
       </c>
-      <c r="J40" t="str">
+      <c r="K40" t="str">
         <v>https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785189/slide3_fcagso.png</v>
       </c>
-      <c r="K40" t="str">
+      <c r="L40" t="str">
         <v>{"https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785394/Aurora_Wheat_Dimout_Roman_Blinds-min_rcjk6x.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785393/Aurora_Wheat_Dimout_Roman_Blinds_1-min_njwb1u.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785394/Aurora_Wheat_Dimout_Roman_Blinds_2-min_p3jmxg.jpg"}</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>200</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>150</v>
       </c>
-      <c r="N40" t="b">
+      <c r="O40" t="b">
         <v>0</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>0</v>
       </c>
-      <c r="P40">
+      <c r="Q40">
         <v>150</v>
       </c>
-      <c r="Q40">
-        <v>95</v>
-      </c>
       <c r="R40">
+        <v>150</v>
+      </c>
+      <c r="S40">
         <v>180</v>
       </c>
-      <c r="S40" t="str">
+      <c r="T40">
+        <v>150</v>
+      </c>
+      <c r="U40">
+        <v>180</v>
+      </c>
+      <c r="V40" t="str">
         <v>Honeycomb</v>
       </c>
-      <c r="T40" t="str">
+      <c r="W40" t="str">
         <v>Fabric</v>
       </c>
-      <c r="U40" t="str">
+      <c r="X40" t="str">
         <v>Black</v>
       </c>
-      <c r="V40" t="str">
+      <c r="Y40" t="str">
         <v>Thermal</v>
       </c>
-      <c r="W40" t="str">
+      <c r="Z40" t="str">
         <v>Guide 9</v>
       </c>
-      <c r="X40" t="str">
+      <c r="AA40" t="str">
         <v>Cellular Shade</v>
       </c>
-      <c r="Y40" t="str">
+      <c r="AB40" t="str">
         <v>Energy efficient shades</v>
       </c>
-      <c r="Z40" t="str">
+      <c r="AC40" t="str">
         <v>cellular-shade</v>
       </c>
-      <c r="AA40" t="str">
-        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
-      </c>
-      <c r="AB40" t="str">
-        <v>PUBLISHED</v>
-      </c>
-      <c r="AC40" t="str">
+      <c r="AD40" t="str">
+        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
+      </c>
+      <c r="AE40" t="str">
+        <v>PUBLISHED</v>
+      </c>
+      <c r="AF40" t="str">
         <v>SUPER_ADMIN</v>
       </c>
     </row>
@@ -4672,84 +5036,93 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C41" t="str">
-        <v>31b71b51-e8ef-409b-ade4-10ffe06748b2</v>
+        <v>7c94bc15-0f53-4499-839c-df14a1fe01ea</v>
       </c>
       <c r="D41" t="str">
-        <v>ed46c436-f916-4324-8856-218139a0550a</v>
+        <v>1f6f28c7-0d59-4698-806f-4e3e7bdeced0</v>
       </c>
       <c r="E41" t="str">
-        <v>Kids Room Curtain</v>
+        <v>PROD-00040</v>
       </c>
       <c r="F41" t="str">
         <v>Kids Room Curtain</v>
       </c>
       <c r="G41" t="str">
+        <v>Kids Room Curtain</v>
+      </c>
+      <c r="H41" t="str">
         <v>Decorative valance</v>
       </c>
-      <c r="H41" t="str">
+      <c r="I41" t="str">
         <v>Valance decor</v>
       </c>
-      <c r="I41" t="str">
+      <c r="J41" t="str">
         <v>decorsative-valance</v>
       </c>
-      <c r="J41" t="str">
+      <c r="K41" t="str">
         <v>https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785360/slide1_uggynp.webp</v>
       </c>
-      <c r="K41" t="str">
+      <c r="L41" t="str">
         <v>{"https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785586/Bric_Aquamarine_Dimout_Roman_Blinds-min_k7x3a0.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765957491/Bric_Aquamarine_Dimout_Roman_Blinds_2-min_zfjne2.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785586/Bric_Aquamarine_Dimout_Roman_Blinds_1-min_qgaijd.jpg"}</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>170</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>140</v>
       </c>
-      <c r="N41" t="b">
+      <c r="O41" t="b">
         <v>0</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>0</v>
       </c>
-      <c r="P41">
+      <c r="Q41">
         <v>300</v>
       </c>
-      <c r="Q41">
-        <v>30</v>
-      </c>
       <c r="R41">
-        <v>15</v>
-      </c>
-      <c r="S41" t="str">
+        <v>140</v>
+      </c>
+      <c r="S41">
+        <v>150</v>
+      </c>
+      <c r="T41">
+        <v>140</v>
+      </c>
+      <c r="U41">
+        <v>150</v>
+      </c>
+      <c r="V41" t="str">
         <v>Striped</v>
       </c>
-      <c r="T41" t="str">
+      <c r="W41" t="str">
         <v>Cotton</v>
       </c>
-      <c r="U41" t="str">
+      <c r="X41" t="str">
         <v>Blue</v>
       </c>
-      <c r="V41" t="str">
+      <c r="Y41" t="str">
         <v>Matching set</v>
       </c>
-      <c r="W41" t="str">
+      <c r="Z41" t="str">
         <v>Guide 6</v>
       </c>
-      <c r="X41" t="str">
+      <c r="AA41" t="str">
         <v>Decorative Valance</v>
       </c>
-      <c r="Y41" t="str">
+      <c r="AB41" t="str">
         <v>Stylish valance</v>
       </c>
-      <c r="Z41" t="str">
+      <c r="AC41" t="str">
         <v>decorative-valance</v>
       </c>
-      <c r="AA41" t="str">
-        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
-      </c>
-      <c r="AB41" t="str">
-        <v>PUBLISHED</v>
-      </c>
-      <c r="AC41" t="str">
+      <c r="AD41" t="str">
+        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
+      </c>
+      <c r="AE41" t="str">
+        <v>PUBLISHED</v>
+      </c>
+      <c r="AF41" t="str">
         <v>SUPER_ADMIN</v>
       </c>
     </row>
@@ -4761,84 +5134,93 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C42" t="str">
-        <v>31b71b51-e8ef-409b-ade4-10ffe06748b2</v>
+        <v>7c94bc15-0f53-4499-839c-df14a1fe01ea</v>
       </c>
       <c r="D42" t="str">
-        <v>ed46c436-f916-4324-8856-218139a0550a</v>
+        <v>1f6f28c7-0d59-4698-806f-4e3e7bdeced0</v>
       </c>
       <c r="E42" t="str">
-        <v>Bedroom Blackout Curtain</v>
+        <v>PROD-00041</v>
       </c>
       <c r="F42" t="str">
         <v>Bedroom Blackout Curtain</v>
       </c>
       <c r="G42" t="str">
+        <v>Bedroom Blackout Curtain</v>
+      </c>
+      <c r="H42" t="str">
         <v>Blind mounting brackets</v>
       </c>
-      <c r="H42" t="str">
+      <c r="I42" t="str">
         <v>Mount brackets</v>
       </c>
-      <c r="I42" t="str">
+      <c r="J42" t="str">
         <v>mounticng-brackets</v>
       </c>
-      <c r="J42" t="str">
+      <c r="K42" t="str">
         <v>https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785556/slide6_mrq5gu.png</v>
       </c>
-      <c r="K42" t="str">
+      <c r="L42" t="str">
         <v>{"https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785536/Dorian_Luna_Dimout_Roller_Blinds-min_ebhnvd.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785536/Dorian_Luna_Dimout_Roller_Blinds_1-min_a6jw1j.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785536/Dorian_Luna_Dimout_Roller_Blinds_2-min_bxkqus.jpg"}</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>120</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>100</v>
       </c>
-      <c r="N42" t="b">
+      <c r="O42" t="b">
         <v>0</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>0</v>
       </c>
-      <c r="P42">
+      <c r="Q42">
         <v>500</v>
       </c>
-      <c r="Q42">
-        <v>5</v>
-      </c>
       <c r="R42">
-        <v>5</v>
-      </c>
-      <c r="S42" t="str">
+        <v>140</v>
+      </c>
+      <c r="S42">
+        <v>100</v>
+      </c>
+      <c r="T42">
+        <v>140</v>
+      </c>
+      <c r="U42">
+        <v>100</v>
+      </c>
+      <c r="V42" t="str">
         <v>Solid</v>
       </c>
-      <c r="T42" t="str">
+      <c r="W42" t="str">
         <v>Metal</v>
       </c>
-      <c r="U42" t="str">
+      <c r="X42" t="str">
         <v>White</v>
       </c>
-      <c r="V42" t="str">
+      <c r="Y42" t="str">
         <v>Bolts included</v>
       </c>
-      <c r="W42" t="str">
+      <c r="Z42" t="str">
         <v>Guide 7</v>
       </c>
-      <c r="X42" t="str">
+      <c r="AA42" t="str">
         <v>Mounting Brackets</v>
       </c>
-      <c r="Y42" t="str">
+      <c r="AB42" t="str">
         <v>Strong blind mounts</v>
       </c>
-      <c r="Z42" t="str">
+      <c r="AC42" t="str">
         <v>mounting-brackets</v>
       </c>
-      <c r="AA42" t="str">
-        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
-      </c>
-      <c r="AB42" t="str">
-        <v>PUBLISHED</v>
-      </c>
-      <c r="AC42" t="str">
+      <c r="AD42" t="str">
+        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
+      </c>
+      <c r="AE42" t="str">
+        <v>PUBLISHED</v>
+      </c>
+      <c r="AF42" t="str">
         <v>SUPER_ADMIN</v>
       </c>
     </row>
@@ -4850,84 +5232,93 @@
         <v>Light-Filtering Zebra Blinds</v>
       </c>
       <c r="C43" t="str">
-        <v>31b71b51-e8ef-409b-ade4-10ffe06748b2</v>
+        <v>7c94bc15-0f53-4499-839c-df14a1fe01ea</v>
       </c>
       <c r="D43" t="str">
-        <v>ed46c436-f916-4324-8856-218139a0550a</v>
+        <v>1f6f28c7-0d59-4698-806f-4e3e7bdeced0</v>
       </c>
       <c r="E43" t="str">
-        <v>Living Room Curtain</v>
+        <v>PROD-00042</v>
       </c>
       <c r="F43" t="str">
         <v>Living Room Curtain</v>
       </c>
       <c r="G43" t="str">
+        <v>Living Room Curtain</v>
+      </c>
+      <c r="H43" t="str">
         <v>Modern panel blind</v>
       </c>
-      <c r="H43" t="str">
+      <c r="I43" t="str">
         <v>Panel blind</v>
       </c>
-      <c r="I43" t="str">
+      <c r="J43" t="str">
         <v>pdanel-blidnd</v>
       </c>
-      <c r="J43" t="str">
+      <c r="K43" t="str">
         <v>https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785143/slide5_dldteb.png</v>
       </c>
-      <c r="K43" t="str">
+      <c r="L43" t="str">
         <v>{"https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785394/Aurora_Wheat_Dimout_Roman_Blinds-min_rcjk6x.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785393/Aurora_Wheat_Dimout_Roman_Blinds_1-min_njwb1u.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785394/Aurora_Wheat_Dimout_Roman_Blinds_2-min_p3jmxg.jpg"}</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>140</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>100</v>
       </c>
-      <c r="N43" t="b">
+      <c r="O43" t="b">
         <v>0</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <v>0</v>
       </c>
-      <c r="P43">
+      <c r="Q43">
         <v>90</v>
       </c>
-      <c r="Q43">
-        <v>180</v>
-      </c>
       <c r="R43">
+        <v>100</v>
+      </c>
+      <c r="S43">
         <v>200</v>
       </c>
-      <c r="S43" t="str">
+      <c r="T43">
+        <v>100</v>
+      </c>
+      <c r="U43">
+        <v>200</v>
+      </c>
+      <c r="V43" t="str">
         <v>Geometric</v>
       </c>
-      <c r="T43" t="str">
+      <c r="W43" t="str">
         <v>Polyester</v>
       </c>
-      <c r="U43" t="str">
+      <c r="X43" t="str">
         <v>Grey</v>
       </c>
-      <c r="V43" t="str">
+      <c r="Y43" t="str">
         <v>Rail kit</v>
       </c>
-      <c r="W43" t="str">
+      <c r="Z43" t="str">
         <v>Guide 8</v>
       </c>
-      <c r="X43" t="str">
+      <c r="AA43" t="str">
         <v>Panel Blind</v>
       </c>
-      <c r="Y43" t="str">
+      <c r="AB43" t="str">
         <v>Modern panel blinds</v>
       </c>
-      <c r="Z43" t="str">
+      <c r="AC43" t="str">
         <v>panel-blind</v>
       </c>
-      <c r="AA43" t="str">
-        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
-      </c>
-      <c r="AB43" t="str">
-        <v>PUBLISHED</v>
-      </c>
-      <c r="AC43" t="str">
+      <c r="AD43" t="str">
+        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
+      </c>
+      <c r="AE43" t="str">
+        <v>PUBLISHED</v>
+      </c>
+      <c r="AF43" t="str">
         <v>SUPER_ADMIN</v>
       </c>
     </row>
@@ -4939,84 +5330,93 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C44" t="str">
-        <v>f09e670d-a0f2-405e-99c2-e99692b87bf9</v>
+        <v>c6917c55-31eb-45b1-87f3-32ed37a79cd1</v>
       </c>
       <c r="D44" t="str">
-        <v>b8c0b3f2-0c0b-4dde-b3ce-eee48d05ef73</v>
+        <v>acbd0063-c7ea-4b6e-a190-b42a8a6e196f</v>
       </c>
       <c r="E44" t="str">
-        <v>Window Valance</v>
+        <v>PROD-00043</v>
       </c>
       <c r="F44" t="str">
         <v>Window Valance</v>
       </c>
       <c r="G44" t="str">
+        <v>Window Valance</v>
+      </c>
+      <c r="H44" t="str">
         <v>Energy saving shade</v>
       </c>
-      <c r="H44" t="str">
+      <c r="I44" t="str">
         <v>Cellular shade</v>
       </c>
-      <c r="I44" t="str">
+      <c r="J44" t="str">
         <v>celluqlar-shaqde</v>
       </c>
-      <c r="J44" t="str">
+      <c r="K44" t="str">
         <v>https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785189/slide3_fcagso.png</v>
       </c>
-      <c r="K44" t="str">
+      <c r="L44" t="str">
         <v>{"https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785586/Bric_Aquamarine_Dimout_Roman_Blinds-min_k7x3a0.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765957491/Bric_Aquamarine_Dimout_Roman_Blinds_2-min_zfjne2.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785586/Bric_Aquamarine_Dimout_Roman_Blinds_1-min_qgaijd.jpg"}</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>110</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>100</v>
       </c>
-      <c r="N44" t="b">
+      <c r="O44" t="b">
         <v>0</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>0</v>
       </c>
-      <c r="P44">
+      <c r="Q44">
         <v>150</v>
       </c>
-      <c r="Q44">
-        <v>95</v>
-      </c>
       <c r="R44">
+        <v>200</v>
+      </c>
+      <c r="S44">
         <v>180</v>
       </c>
-      <c r="S44" t="str">
+      <c r="T44">
+        <v>200</v>
+      </c>
+      <c r="U44">
+        <v>180</v>
+      </c>
+      <c r="V44" t="str">
         <v>Honeycomb</v>
       </c>
-      <c r="T44" t="str">
+      <c r="W44" t="str">
         <v>Fabric</v>
       </c>
-      <c r="U44" t="str">
+      <c r="X44" t="str">
         <v>Black</v>
       </c>
-      <c r="V44" t="str">
+      <c r="Y44" t="str">
         <v>Thermal</v>
       </c>
-      <c r="W44" t="str">
+      <c r="Z44" t="str">
         <v>Guide 9</v>
       </c>
-      <c r="X44" t="str">
+      <c r="AA44" t="str">
         <v>Cellular Shade</v>
       </c>
-      <c r="Y44" t="str">
+      <c r="AB44" t="str">
         <v>Energy efficient shades</v>
       </c>
-      <c r="Z44" t="str">
+      <c r="AC44" t="str">
         <v>cellular-shade</v>
       </c>
-      <c r="AA44" t="str">
-        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
-      </c>
-      <c r="AB44" t="str">
-        <v>PUBLISHED</v>
-      </c>
-      <c r="AC44" t="str">
+      <c r="AD44" t="str">
+        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
+      </c>
+      <c r="AE44" t="str">
+        <v>PUBLISHED</v>
+      </c>
+      <c r="AF44" t="str">
         <v>SUPER_ADMIN</v>
       </c>
     </row>
@@ -5028,84 +5428,93 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C45" t="str">
-        <v>f09e670d-a0f2-405e-99c2-e99692b87bf9</v>
+        <v>c6917c55-31eb-45b1-87f3-32ed37a79cd1</v>
       </c>
       <c r="D45" t="str">
-        <v>b8c0b3f2-0c0b-4dde-b3ce-eee48d05ef73</v>
+        <v>acbd0063-c7ea-4b6e-a190-b42a8a6e196f</v>
       </c>
       <c r="E45" t="str">
-        <v>Straight Valance</v>
+        <v>PROD-00044</v>
       </c>
       <c r="F45" t="str">
         <v>Straight Valance</v>
       </c>
       <c r="G45" t="str">
+        <v>Straight Valance</v>
+      </c>
+      <c r="H45" t="str">
         <v>Motorized roller blind</v>
       </c>
-      <c r="H45" t="str">
+      <c r="I45" t="str">
         <v>Motor roller</v>
       </c>
-      <c r="I45" t="str">
+      <c r="J45" t="str">
         <v>motorized-rollyer-blind</v>
       </c>
-      <c r="J45" t="str">
+      <c r="K45" t="str">
         <v>https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785360/slide1_uggynp.webp</v>
       </c>
-      <c r="K45" t="str">
+      <c r="L45" t="str">
         <v>{"https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785536/Dorian_Luna_Dimout_Roller_Blinds-min_ebhnvd.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785536/Dorian_Luna_Dimout_Roller_Blinds_1-min_a6jw1j.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785536/Dorian_Luna_Dimout_Roller_Blinds_2-min_bxkqus.jpg"}</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>100</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>80</v>
       </c>
-      <c r="N45" t="b">
+      <c r="O45" t="b">
         <v>1</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <v>58</v>
       </c>
-      <c r="P45">
+      <c r="Q45">
         <v>70</v>
       </c>
-      <c r="Q45">
-        <v>130</v>
-      </c>
       <c r="R45">
+        <v>120</v>
+      </c>
+      <c r="S45">
         <v>195</v>
       </c>
-      <c r="S45" t="str">
+      <c r="T45">
+        <v>120</v>
+      </c>
+      <c r="U45">
+        <v>195</v>
+      </c>
+      <c r="V45" t="str">
         <v>Solid</v>
       </c>
-      <c r="T45" t="str">
+      <c r="W45" t="str">
         <v>Polyester</v>
       </c>
-      <c r="U45" t="str">
+      <c r="X45" t="str">
         <v>Red</v>
       </c>
-      <c r="V45" t="str">
+      <c r="Y45" t="str">
         <v>Remote included</v>
       </c>
-      <c r="W45" t="str">
+      <c r="Z45" t="str">
         <v>Guide 10</v>
       </c>
-      <c r="X45" t="str">
+      <c r="AA45" t="str">
         <v>Motorized Roller Blind</v>
       </c>
-      <c r="Y45" t="str">
+      <c r="AB45" t="str">
         <v>Smart motor blinds</v>
       </c>
-      <c r="Z45" t="str">
+      <c r="AC45" t="str">
         <v>motorized-roller</v>
       </c>
-      <c r="AA45" t="str">
-        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
-      </c>
-      <c r="AB45" t="str">
-        <v>PUBLISHED</v>
-      </c>
-      <c r="AC45" t="str">
+      <c r="AD45" t="str">
+        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
+      </c>
+      <c r="AE45" t="str">
+        <v>PUBLISHED</v>
+      </c>
+      <c r="AF45" t="str">
         <v>SUPER_ADMIN</v>
       </c>
     </row>
@@ -5117,84 +5526,93 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C46" t="str">
-        <v>f09e670d-a0f2-405e-99c2-e99692b87bf9</v>
+        <v>c6917c55-31eb-45b1-87f3-32ed37a79cd1</v>
       </c>
       <c r="D46" t="str">
-        <v>b8c0b3f2-0c0b-4dde-b3ce-eee48d05ef73</v>
+        <v>acbd0063-c7ea-4b6e-a190-b42a8a6e196f</v>
       </c>
       <c r="E46" t="str">
-        <v>Box Pleat Valance</v>
+        <v>PROD-00045</v>
       </c>
       <c r="F46" t="str">
         <v>Box Pleat Valance</v>
       </c>
       <c r="G46" t="str">
+        <v>Box Pleat Valance</v>
+      </c>
+      <c r="H46" t="str">
         <v>Energy saving shade</v>
       </c>
-      <c r="H46" t="str">
+      <c r="I46" t="str">
         <v>Cellular shade</v>
       </c>
-      <c r="I46" t="str">
+      <c r="J46" t="str">
         <v>cellulllar-shadel</v>
       </c>
-      <c r="J46" t="str">
+      <c r="K46" t="str">
         <v>https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785556/slide6_mrq5gu.png</v>
       </c>
-      <c r="K46" t="str">
+      <c r="L46" t="str">
         <v>{"https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785394/Aurora_Wheat_Dimout_Roman_Blinds-min_rcjk6x.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785393/Aurora_Wheat_Dimout_Roman_Blinds_1-min_njwb1u.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785394/Aurora_Wheat_Dimout_Roman_Blinds_2-min_p3jmxg.jpg"}</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>150</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>140</v>
       </c>
-      <c r="N46" t="b">
+      <c r="O46" t="b">
         <v>0</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>0</v>
       </c>
-      <c r="P46">
+      <c r="Q46">
         <v>150</v>
       </c>
-      <c r="Q46">
-        <v>95</v>
-      </c>
       <c r="R46">
+        <v>150</v>
+      </c>
+      <c r="S46">
         <v>180</v>
       </c>
-      <c r="S46" t="str">
+      <c r="T46">
+        <v>150</v>
+      </c>
+      <c r="U46">
+        <v>180</v>
+      </c>
+      <c r="V46" t="str">
         <v>Honeycomb</v>
       </c>
-      <c r="T46" t="str">
+      <c r="W46" t="str">
         <v>Fabric</v>
       </c>
-      <c r="U46" t="str">
+      <c r="X46" t="str">
         <v>Black</v>
       </c>
-      <c r="V46" t="str">
+      <c r="Y46" t="str">
         <v>Thermal</v>
       </c>
-      <c r="W46" t="str">
+      <c r="Z46" t="str">
         <v>Guide 9</v>
       </c>
-      <c r="X46" t="str">
+      <c r="AA46" t="str">
         <v>Cellular Shade</v>
       </c>
-      <c r="Y46" t="str">
+      <c r="AB46" t="str">
         <v>Energy efficient shades</v>
       </c>
-      <c r="Z46" t="str">
+      <c r="AC46" t="str">
         <v>cellular-shade</v>
       </c>
-      <c r="AA46" t="str">
-        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
-      </c>
-      <c r="AB46" t="str">
-        <v>PUBLISHED</v>
-      </c>
-      <c r="AC46" t="str">
+      <c r="AD46" t="str">
+        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
+      </c>
+      <c r="AE46" t="str">
+        <v>PUBLISHED</v>
+      </c>
+      <c r="AF46" t="str">
         <v>SUPER_ADMIN</v>
       </c>
     </row>
@@ -5206,84 +5624,93 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C47" t="str">
-        <v>f09e670d-a0f2-405e-99c2-e99692b87bf9</v>
+        <v>c6917c55-31eb-45b1-87f3-32ed37a79cd1</v>
       </c>
       <c r="D47" t="str">
-        <v>b8c0b3f2-0c0b-4dde-b3ce-eee48d05ef73</v>
+        <v>acbd0063-c7ea-4b6e-a190-b42a8a6e196f</v>
       </c>
       <c r="E47" t="str">
-        <v>Decor Trim Valance</v>
+        <v>PROD-00046</v>
       </c>
       <c r="F47" t="str">
         <v>Decor Trim Valance</v>
       </c>
       <c r="G47" t="str">
+        <v>Decor Trim Valance</v>
+      </c>
+      <c r="H47" t="str">
         <v>Blind mounting brackets</v>
       </c>
-      <c r="H47" t="str">
+      <c r="I47" t="str">
         <v>Mount brackets</v>
       </c>
-      <c r="I47" t="str">
+      <c r="J47" t="str">
         <v>mountingc-brackets</v>
       </c>
-      <c r="J47" t="str">
+      <c r="K47" t="str">
         <v>https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785143/slide5_dldteb.png</v>
       </c>
-      <c r="K47" t="str">
+      <c r="L47" t="str">
         <v>{"https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785586/Bric_Aquamarine_Dimout_Roman_Blinds-min_k7x3a0.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765957491/Bric_Aquamarine_Dimout_Roman_Blinds_2-min_zfjne2.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785586/Bric_Aquamarine_Dimout_Roman_Blinds_1-min_qgaijd.jpg"}</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>130</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>120</v>
       </c>
-      <c r="N47" t="b">
+      <c r="O47" t="b">
         <v>0</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>0</v>
       </c>
-      <c r="P47">
+      <c r="Q47">
         <v>500</v>
       </c>
-      <c r="Q47">
+      <c r="R47">
+        <v>140</v>
+      </c>
+      <c r="S47">
         <v>5</v>
       </c>
-      <c r="R47">
+      <c r="T47">
+        <v>140</v>
+      </c>
+      <c r="U47">
         <v>5</v>
       </c>
-      <c r="S47" t="str">
+      <c r="V47" t="str">
         <v>Solid</v>
       </c>
-      <c r="T47" t="str">
+      <c r="W47" t="str">
         <v>Metal</v>
       </c>
-      <c r="U47" t="str">
+      <c r="X47" t="str">
         <v>White</v>
       </c>
-      <c r="V47" t="str">
+      <c r="Y47" t="str">
         <v>Bolts included</v>
       </c>
-      <c r="W47" t="str">
+      <c r="Z47" t="str">
         <v>Guide 7</v>
       </c>
-      <c r="X47" t="str">
+      <c r="AA47" t="str">
         <v>Mounting Brackets</v>
       </c>
-      <c r="Y47" t="str">
+      <c r="AB47" t="str">
         <v>Strong blind mounts</v>
       </c>
-      <c r="Z47" t="str">
+      <c r="AC47" t="str">
         <v>mounting-brackets</v>
       </c>
-      <c r="AA47" t="str">
-        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
-      </c>
-      <c r="AB47" t="str">
-        <v>PUBLISHED</v>
-      </c>
-      <c r="AC47" t="str">
+      <c r="AD47" t="str">
+        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
+      </c>
+      <c r="AE47" t="str">
+        <v>PUBLISHED</v>
+      </c>
+      <c r="AF47" t="str">
         <v>SUPER_ADMIN</v>
       </c>
     </row>
@@ -5295,84 +5722,93 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C48" t="str">
-        <v>f09e670d-a0f2-405e-99c2-e99692b87bf9</v>
+        <v>c6917c55-31eb-45b1-87f3-32ed37a79cd1</v>
       </c>
       <c r="D48" t="str">
-        <v>b8c0b3f2-0c0b-4dde-b3ce-eee48d05ef73</v>
+        <v>acbd0063-c7ea-4b6e-a190-b42a8a6e196f</v>
       </c>
       <c r="E48" t="str">
-        <v>Blind Mounting Kit</v>
+        <v>PROD-00047</v>
       </c>
       <c r="F48" t="str">
         <v>Blind Mounting Kit</v>
       </c>
       <c r="G48" t="str">
+        <v>Blind Mounting Kit</v>
+      </c>
+      <c r="H48" t="str">
         <v>Modern panel blind</v>
       </c>
-      <c r="H48" t="str">
+      <c r="I48" t="str">
         <v>Panel blind</v>
       </c>
-      <c r="I48" t="str">
+      <c r="J48" t="str">
         <v>pafnel-blinfd</v>
       </c>
-      <c r="J48" t="str">
+      <c r="K48" t="str">
         <v>https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785189/slide3_fcagso.png</v>
       </c>
-      <c r="K48" t="str">
+      <c r="L48" t="str">
         <v>{"https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785536/Dorian_Luna_Dimout_Roller_Blinds-min_ebhnvd.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785536/Dorian_Luna_Dimout_Roller_Blinds_1-min_a6jw1j.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785536/Dorian_Luna_Dimout_Roller_Blinds_2-min_bxkqus.jpg"}</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>90</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>60</v>
       </c>
-      <c r="N48" t="b">
+      <c r="O48" t="b">
         <v>0</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>0</v>
       </c>
-      <c r="P48">
+      <c r="Q48">
         <v>90</v>
       </c>
-      <c r="Q48">
-        <v>180</v>
-      </c>
       <c r="R48">
+        <v>140</v>
+      </c>
+      <c r="S48">
         <v>200</v>
       </c>
-      <c r="S48" t="str">
+      <c r="T48">
+        <v>140</v>
+      </c>
+      <c r="U48">
+        <v>200</v>
+      </c>
+      <c r="V48" t="str">
         <v>Geometric</v>
       </c>
-      <c r="T48" t="str">
+      <c r="W48" t="str">
         <v>Polyester</v>
       </c>
-      <c r="U48" t="str">
+      <c r="X48" t="str">
         <v>Grey</v>
       </c>
-      <c r="V48" t="str">
+      <c r="Y48" t="str">
         <v>Rail kit</v>
       </c>
-      <c r="W48" t="str">
+      <c r="Z48" t="str">
         <v>Guide 8</v>
       </c>
-      <c r="X48" t="str">
+      <c r="AA48" t="str">
         <v>Panel Blind</v>
       </c>
-      <c r="Y48" t="str">
+      <c r="AB48" t="str">
         <v>Modern panel blinds</v>
       </c>
-      <c r="Z48" t="str">
+      <c r="AC48" t="str">
         <v>panel-blind</v>
       </c>
-      <c r="AA48" t="str">
-        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
-      </c>
-      <c r="AB48" t="str">
-        <v>PUBLISHED</v>
-      </c>
-      <c r="AC48" t="str">
+      <c r="AD48" t="str">
+        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
+      </c>
+      <c r="AE48" t="str">
+        <v>PUBLISHED</v>
+      </c>
+      <c r="AF48" t="str">
         <v>SUPER_ADMIN</v>
       </c>
     </row>
@@ -5384,84 +5820,93 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C49" t="str">
-        <v>f09e670d-a0f2-405e-99c2-e99692b87bf9</v>
+        <v>c6917c55-31eb-45b1-87f3-32ed37a79cd1</v>
       </c>
       <c r="D49" t="str">
-        <v>b8c0b3f2-0c0b-4dde-b3ce-eee48d05ef73</v>
+        <v>acbd0063-c7ea-4b6e-a190-b42a8a6e196f</v>
       </c>
       <c r="E49" t="str">
-        <v>Ceiling Mount Bracket</v>
+        <v>PROD-00048</v>
       </c>
       <c r="F49" t="str">
         <v>Ceiling Mount Bracket</v>
       </c>
       <c r="G49" t="str">
+        <v>Ceiling Mount Bracket</v>
+      </c>
+      <c r="H49" t="str">
         <v>Energy saving shade</v>
       </c>
-      <c r="H49" t="str">
+      <c r="I49" t="str">
         <v>Cellular shade</v>
       </c>
-      <c r="I49" t="str">
+      <c r="J49" t="str">
         <v>cellmular-shadme</v>
       </c>
-      <c r="J49" t="str">
+      <c r="K49" t="str">
         <v>https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785360/slide1_uggynp.webp</v>
       </c>
-      <c r="K49" t="str">
+      <c r="L49" t="str">
         <v>{"https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785394/Aurora_Wheat_Dimout_Roman_Blinds-min_rcjk6x.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785393/Aurora_Wheat_Dimout_Roman_Blinds_1-min_njwb1u.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785394/Aurora_Wheat_Dimout_Roman_Blinds_2-min_p3jmxg.jpg"}</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>250</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>230</v>
       </c>
-      <c r="N49" t="b">
+      <c r="O49" t="b">
         <v>0</v>
       </c>
-      <c r="O49">
+      <c r="P49">
         <v>0</v>
       </c>
-      <c r="P49">
+      <c r="Q49">
         <v>150</v>
       </c>
-      <c r="Q49">
-        <v>95</v>
-      </c>
       <c r="R49">
+        <v>100</v>
+      </c>
+      <c r="S49">
         <v>180</v>
       </c>
-      <c r="S49" t="str">
+      <c r="T49">
+        <v>100</v>
+      </c>
+      <c r="U49">
+        <v>180</v>
+      </c>
+      <c r="V49" t="str">
         <v>Honeycomb</v>
       </c>
-      <c r="T49" t="str">
+      <c r="W49" t="str">
         <v>Fabric</v>
       </c>
-      <c r="U49" t="str">
+      <c r="X49" t="str">
         <v>Black</v>
       </c>
-      <c r="V49" t="str">
+      <c r="Y49" t="str">
         <v>Thermal</v>
       </c>
-      <c r="W49" t="str">
+      <c r="Z49" t="str">
         <v>Guide 9</v>
       </c>
-      <c r="X49" t="str">
+      <c r="AA49" t="str">
         <v>Cellular Shade</v>
       </c>
-      <c r="Y49" t="str">
+      <c r="AB49" t="str">
         <v>Energy efficient shades</v>
       </c>
-      <c r="Z49" t="str">
+      <c r="AC49" t="str">
         <v>cellular-shade</v>
       </c>
-      <c r="AA49" t="str">
-        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
-      </c>
-      <c r="AB49" t="str">
-        <v>PUBLISHED</v>
-      </c>
-      <c r="AC49" t="str">
+      <c r="AD49" t="str">
+        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
+      </c>
+      <c r="AE49" t="str">
+        <v>PUBLISHED</v>
+      </c>
+      <c r="AF49" t="str">
         <v>SUPER_ADMIN</v>
       </c>
     </row>
@@ -5473,84 +5918,93 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C50" t="str">
-        <v>f09e670d-a0f2-405e-99c2-e99692b87bf9</v>
+        <v>c6917c55-31eb-45b1-87f3-32ed37a79cd1</v>
       </c>
       <c r="D50" t="str">
-        <v>b8c0b3f2-0c0b-4dde-b3ce-eee48d05ef73</v>
+        <v>acbd0063-c7ea-4b6e-a190-b42a8a6e196f</v>
       </c>
       <c r="E50" t="str">
-        <v>Wall Mount Bracket</v>
+        <v>PROD-00049</v>
       </c>
       <c r="F50" t="str">
         <v>Wall Mount Bracket</v>
       </c>
       <c r="G50" t="str">
+        <v>Wall Mount Bracket</v>
+      </c>
+      <c r="H50" t="str">
         <v>Motorized roller blind</v>
       </c>
-      <c r="H50" t="str">
+      <c r="I50" t="str">
         <v>Motor roller</v>
       </c>
-      <c r="I50" t="str">
+      <c r="J50" t="str">
         <v>motourized-roller-blind</v>
       </c>
-      <c r="J50" t="str">
+      <c r="K50" t="str">
         <v>https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785556/slide6_mrq5gu.png</v>
       </c>
-      <c r="K50" t="str">
+      <c r="L50" t="str">
         <v>{"https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785586/Bric_Aquamarine_Dimout_Roman_Blinds-min_k7x3a0.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765957491/Bric_Aquamarine_Dimout_Roman_Blinds_2-min_zfjne2.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785586/Bric_Aquamarine_Dimout_Roman_Blinds_1-min_qgaijd.jpg"}</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>200</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <v>165</v>
       </c>
-      <c r="N50" t="b">
+      <c r="O50" t="b">
         <v>1</v>
       </c>
-      <c r="O50">
+      <c r="P50">
         <v>58</v>
       </c>
-      <c r="P50">
+      <c r="Q50">
         <v>70</v>
       </c>
-      <c r="Q50">
-        <v>130</v>
-      </c>
       <c r="R50">
+        <v>200</v>
+      </c>
+      <c r="S50">
         <v>195</v>
       </c>
-      <c r="S50" t="str">
+      <c r="T50">
+        <v>200</v>
+      </c>
+      <c r="U50">
+        <v>195</v>
+      </c>
+      <c r="V50" t="str">
         <v>Solid</v>
       </c>
-      <c r="T50" t="str">
+      <c r="W50" t="str">
         <v>Polyester</v>
       </c>
-      <c r="U50" t="str">
+      <c r="X50" t="str">
         <v>Red</v>
       </c>
-      <c r="V50" t="str">
+      <c r="Y50" t="str">
         <v>Remote included</v>
       </c>
-      <c r="W50" t="str">
+      <c r="Z50" t="str">
         <v>Guide 10</v>
       </c>
-      <c r="X50" t="str">
+      <c r="AA50" t="str">
         <v>Motorized Roller Blind</v>
       </c>
-      <c r="Y50" t="str">
+      <c r="AB50" t="str">
         <v>Smart motor blinds</v>
       </c>
-      <c r="Z50" t="str">
+      <c r="AC50" t="str">
         <v>motorized-roller</v>
       </c>
-      <c r="AA50" t="str">
-        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
-      </c>
-      <c r="AB50" t="str">
-        <v>PUBLISHED</v>
-      </c>
-      <c r="AC50" t="str">
+      <c r="AD50" t="str">
+        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
+      </c>
+      <c r="AE50" t="str">
+        <v>PUBLISHED</v>
+      </c>
+      <c r="AF50" t="str">
         <v>SUPER_ADMIN</v>
       </c>
     </row>
@@ -5562,84 +6016,93 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C51" t="str">
-        <v>f09e670d-a0f2-405e-99c2-e99692b87bf9</v>
+        <v>c6917c55-31eb-45b1-87f3-32ed37a79cd1</v>
       </c>
       <c r="D51" t="str">
-        <v>b8c0b3f2-0c0b-4dde-b3ce-eee48d05ef73</v>
+        <v>acbd0063-c7ea-4b6e-a190-b42a8a6e196f</v>
       </c>
       <c r="E51" t="str">
-        <v>Heavy Duty Bracket</v>
+        <v>PROD-00050</v>
       </c>
       <c r="F51" t="str">
         <v>Heavy Duty Bracket</v>
       </c>
       <c r="G51" t="str">
+        <v>Heavy Duty Bracket</v>
+      </c>
+      <c r="H51" t="str">
         <v>Energy saving shade</v>
       </c>
-      <c r="H51" t="str">
+      <c r="I51" t="str">
         <v>Cellular shade</v>
       </c>
-      <c r="I51" t="str">
+      <c r="J51" t="str">
         <v>cellnular-shande</v>
       </c>
-      <c r="J51" t="str">
+      <c r="K51" t="str">
         <v>https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785143/slide5_dldteb.png</v>
       </c>
-      <c r="K51" t="str">
+      <c r="L51" t="str">
         <v>{"https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785536/Dorian_Luna_Dimout_Roller_Blinds-min_ebhnvd.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785536/Dorian_Luna_Dimout_Roller_Blinds_1-min_a6jw1j.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785536/Dorian_Luna_Dimout_Roller_Blinds_2-min_bxkqus.jpg"}</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>170</v>
       </c>
-      <c r="M51">
+      <c r="N51">
         <v>150</v>
       </c>
-      <c r="N51" t="b">
+      <c r="O51" t="b">
         <v>1</v>
       </c>
-      <c r="O51">
+      <c r="P51">
         <v>58</v>
       </c>
-      <c r="P51">
+      <c r="Q51">
         <v>150</v>
       </c>
-      <c r="Q51">
-        <v>95</v>
-      </c>
       <c r="R51">
+        <v>120</v>
+      </c>
+      <c r="S51">
         <v>180</v>
       </c>
-      <c r="S51" t="str">
+      <c r="T51">
+        <v>120</v>
+      </c>
+      <c r="U51">
+        <v>180</v>
+      </c>
+      <c r="V51" t="str">
         <v>Honeycomb</v>
       </c>
-      <c r="T51" t="str">
+      <c r="W51" t="str">
         <v>Fabric</v>
       </c>
-      <c r="U51" t="str">
+      <c r="X51" t="str">
         <v>Black</v>
       </c>
-      <c r="V51" t="str">
+      <c r="Y51" t="str">
         <v>Thermal</v>
       </c>
-      <c r="W51" t="str">
+      <c r="Z51" t="str">
         <v>Guide 9</v>
       </c>
-      <c r="X51" t="str">
+      <c r="AA51" t="str">
         <v>Cellular Shade</v>
       </c>
-      <c r="Y51" t="str">
+      <c r="AB51" t="str">
         <v>Energy efficient shades</v>
       </c>
-      <c r="Z51" t="str">
+      <c r="AC51" t="str">
         <v>cellular-shade</v>
       </c>
-      <c r="AA51" t="str">
-        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
-      </c>
-      <c r="AB51" t="str">
-        <v>PUBLISHED</v>
-      </c>
-      <c r="AC51" t="str">
+      <c r="AD51" t="str">
+        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
+      </c>
+      <c r="AE51" t="str">
+        <v>PUBLISHED</v>
+      </c>
+      <c r="AF51" t="str">
         <v>SUPER_ADMIN</v>
       </c>
     </row>
@@ -5651,84 +6114,93 @@
         <v>Blackout Vertical Blinds</v>
       </c>
       <c r="C52" t="str">
-        <v>f09e670d-a0f2-405e-99c2-e99692b87bf9</v>
+        <v>c6917c55-31eb-45b1-87f3-32ed37a79cd1</v>
       </c>
       <c r="D52" t="str">
-        <v>b8c0b3f2-0c0b-4dde-b3ce-eee48d05ef73</v>
+        <v>acbd0063-c7ea-4b6e-a190-b42a8a6e196f</v>
       </c>
       <c r="E52" t="str">
-        <v>Slim Panel Blind</v>
+        <v>PROD-00051</v>
       </c>
       <c r="F52" t="str">
         <v>Slim Panel Blind</v>
       </c>
       <c r="G52" t="str">
+        <v>Slim Panel Blind</v>
+      </c>
+      <c r="H52" t="str">
         <v>Decorative valance</v>
       </c>
-      <c r="H52" t="str">
+      <c r="I52" t="str">
         <v>Valance decor</v>
       </c>
-      <c r="I52" t="str">
+      <c r="J52" t="str">
         <v>deccorative-valance</v>
       </c>
-      <c r="J52" t="str">
+      <c r="K52" t="str">
         <v>https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785189/slide3_fcagso.png</v>
       </c>
-      <c r="K52" t="str">
+      <c r="L52" t="str">
         <v>{"https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785394/Aurora_Wheat_Dimout_Roman_Blinds-min_rcjk6x.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785393/Aurora_Wheat_Dimout_Roman_Blinds_1-min_njwb1u.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785394/Aurora_Wheat_Dimout_Roman_Blinds_2-min_p3jmxg.jpg"}</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>120</v>
       </c>
-      <c r="M52">
+      <c r="N52">
         <v>100</v>
       </c>
-      <c r="N52" t="b">
+      <c r="O52" t="b">
         <v>1</v>
       </c>
-      <c r="O52">
+      <c r="P52">
         <v>58</v>
       </c>
-      <c r="P52">
+      <c r="Q52">
         <v>300</v>
       </c>
-      <c r="Q52">
-        <v>30</v>
-      </c>
       <c r="R52">
-        <v>15</v>
-      </c>
-      <c r="S52" t="str">
+        <v>150</v>
+      </c>
+      <c r="S52">
+        <v>150</v>
+      </c>
+      <c r="T52">
+        <v>150</v>
+      </c>
+      <c r="U52">
+        <v>150</v>
+      </c>
+      <c r="V52" t="str">
         <v>Striped</v>
       </c>
-      <c r="T52" t="str">
+      <c r="W52" t="str">
         <v>Cotton</v>
       </c>
-      <c r="U52" t="str">
+      <c r="X52" t="str">
         <v>Blue</v>
       </c>
-      <c r="V52" t="str">
+      <c r="Y52" t="str">
         <v>Matching set</v>
       </c>
-      <c r="W52" t="str">
+      <c r="Z52" t="str">
         <v>Guide 6</v>
       </c>
-      <c r="X52" t="str">
+      <c r="AA52" t="str">
         <v>Decorative Valance</v>
       </c>
-      <c r="Y52" t="str">
+      <c r="AB52" t="str">
         <v>Stylish valance</v>
       </c>
-      <c r="Z52" t="str">
+      <c r="AC52" t="str">
         <v>decorative-valance</v>
       </c>
-      <c r="AA52" t="str">
-        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
-      </c>
-      <c r="AB52" t="str">
-        <v>PUBLISHED</v>
-      </c>
-      <c r="AC52" t="str">
+      <c r="AD52" t="str">
+        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
+      </c>
+      <c r="AE52" t="str">
+        <v>PUBLISHED</v>
+      </c>
+      <c r="AF52" t="str">
         <v>SUPER_ADMIN</v>
       </c>
     </row>
@@ -5740,84 +6212,93 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C53" t="str">
-        <v>f09e670d-a0f2-405e-99c2-e99692b87bf9</v>
+        <v>c6917c55-31eb-45b1-87f3-32ed37a79cd1</v>
       </c>
       <c r="D53" t="str">
-        <v>1b346010-dbde-452a-b16a-eeef09d45b58</v>
+        <v>d7a45676-7a9c-41b7-9884-bfdc4356d8cb</v>
       </c>
       <c r="E53" t="str">
-        <v>Wide Panel Blind</v>
+        <v>PROD-00052</v>
       </c>
       <c r="F53" t="str">
         <v>Wide Panel Blind</v>
       </c>
       <c r="G53" t="str">
+        <v>Wide Panel Blind</v>
+      </c>
+      <c r="H53" t="str">
         <v>Blind mounting brackets</v>
       </c>
-      <c r="H53" t="str">
+      <c r="I53" t="str">
         <v>Mount brackets</v>
       </c>
-      <c r="I53" t="str">
+      <c r="J53" t="str">
         <v>msounting-brackets</v>
       </c>
-      <c r="J53" t="str">
+      <c r="K53" t="str">
         <v>https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785360/slide1_uggynp.webp</v>
       </c>
-      <c r="K53" t="str">
+      <c r="L53" t="str">
         <v>{"https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785586/Bric_Aquamarine_Dimout_Roman_Blinds-min_k7x3a0.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765957491/Bric_Aquamarine_Dimout_Roman_Blinds_2-min_zfjne2.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785586/Bric_Aquamarine_Dimout_Roman_Blinds_1-min_qgaijd.jpg"}</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>140</v>
       </c>
-      <c r="M53">
+      <c r="N53">
         <v>120</v>
       </c>
-      <c r="N53" t="b">
+      <c r="O53" t="b">
         <v>0</v>
       </c>
-      <c r="O53">
+      <c r="P53">
         <v>0</v>
       </c>
-      <c r="P53">
+      <c r="Q53">
         <v>500</v>
       </c>
-      <c r="Q53">
-        <v>5</v>
-      </c>
       <c r="R53">
-        <v>5</v>
-      </c>
-      <c r="S53" t="str">
+        <v>140</v>
+      </c>
+      <c r="S53">
+        <v>100</v>
+      </c>
+      <c r="T53">
+        <v>140</v>
+      </c>
+      <c r="U53">
+        <v>100</v>
+      </c>
+      <c r="V53" t="str">
         <v>Solid</v>
       </c>
-      <c r="T53" t="str">
+      <c r="W53" t="str">
         <v>Metal</v>
       </c>
-      <c r="U53" t="str">
+      <c r="X53" t="str">
         <v>White</v>
       </c>
-      <c r="V53" t="str">
+      <c r="Y53" t="str">
         <v>Bolts included</v>
       </c>
-      <c r="W53" t="str">
+      <c r="Z53" t="str">
         <v>Guide 7</v>
       </c>
-      <c r="X53" t="str">
+      <c r="AA53" t="str">
         <v>Mounting Brackets</v>
       </c>
-      <c r="Y53" t="str">
+      <c r="AB53" t="str">
         <v>Strong blind mounts</v>
       </c>
-      <c r="Z53" t="str">
+      <c r="AC53" t="str">
         <v>mounting-brackets</v>
       </c>
-      <c r="AA53" t="str">
-        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
-      </c>
-      <c r="AB53" t="str">
-        <v>PUBLISHED</v>
-      </c>
-      <c r="AC53" t="str">
+      <c r="AD53" t="str">
+        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
+      </c>
+      <c r="AE53" t="str">
+        <v>PUBLISHED</v>
+      </c>
+      <c r="AF53" t="str">
         <v>SUPER_ADMIN</v>
       </c>
     </row>
@@ -5829,84 +6310,93 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C54" t="str">
-        <v>f09e670d-a0f2-405e-99c2-e99692b87bf9</v>
+        <v>c6917c55-31eb-45b1-87f3-32ed37a79cd1</v>
       </c>
       <c r="D54" t="str">
-        <v>1b346010-dbde-452a-b16a-eeef09d45b58</v>
+        <v>d7a45676-7a9c-41b7-9884-bfdc4356d8cb</v>
       </c>
       <c r="E54" t="str">
-        <v>Honeycomb Cellular Shade</v>
+        <v>PROD-00053</v>
       </c>
       <c r="F54" t="str">
         <v>Honeycomb Cellular Shade</v>
       </c>
       <c r="G54" t="str">
+        <v>Honeycomb Cellular Shade</v>
+      </c>
+      <c r="H54" t="str">
         <v>Modern panel blind</v>
       </c>
-      <c r="H54" t="str">
+      <c r="I54" t="str">
         <v>Panel blind</v>
       </c>
-      <c r="I54" t="str">
+      <c r="J54" t="str">
         <v>pagnel-blignd</v>
       </c>
-      <c r="J54" t="str">
+      <c r="K54" t="str">
         <v>https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785556/slide6_mrq5gu.png</v>
       </c>
-      <c r="K54" t="str">
+      <c r="L54" t="str">
         <v>{"https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785536/Dorian_Luna_Dimout_Roller_Blinds-min_ebhnvd.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785536/Dorian_Luna_Dimout_Roller_Blinds_1-min_a6jw1j.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785536/Dorian_Luna_Dimout_Roller_Blinds_2-min_bxkqus.jpg"}</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <v>110</v>
       </c>
-      <c r="M54">
+      <c r="N54">
         <v>100</v>
       </c>
-      <c r="N54" t="b">
+      <c r="O54" t="b">
         <v>0</v>
       </c>
-      <c r="O54">
+      <c r="P54">
         <v>0</v>
       </c>
-      <c r="P54">
+      <c r="Q54">
         <v>90</v>
       </c>
-      <c r="Q54">
-        <v>180</v>
-      </c>
       <c r="R54">
+        <v>140</v>
+      </c>
+      <c r="S54">
         <v>200</v>
       </c>
-      <c r="S54" t="str">
+      <c r="T54">
+        <v>140</v>
+      </c>
+      <c r="U54">
+        <v>200</v>
+      </c>
+      <c r="V54" t="str">
         <v>Geometric</v>
       </c>
-      <c r="T54" t="str">
+      <c r="W54" t="str">
         <v>Polyester</v>
       </c>
-      <c r="U54" t="str">
+      <c r="X54" t="str">
         <v>Grey</v>
       </c>
-      <c r="V54" t="str">
+      <c r="Y54" t="str">
         <v>Rail kit</v>
       </c>
-      <c r="W54" t="str">
+      <c r="Z54" t="str">
         <v>Guide 8</v>
       </c>
-      <c r="X54" t="str">
+      <c r="AA54" t="str">
         <v>Panel Blind</v>
       </c>
-      <c r="Y54" t="str">
+      <c r="AB54" t="str">
         <v>Modern panel blinds</v>
       </c>
-      <c r="Z54" t="str">
+      <c r="AC54" t="str">
         <v>panel-blind</v>
       </c>
-      <c r="AA54" t="str">
-        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
-      </c>
-      <c r="AB54" t="str">
-        <v>PUBLISHED</v>
-      </c>
-      <c r="AC54" t="str">
+      <c r="AD54" t="str">
+        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
+      </c>
+      <c r="AE54" t="str">
+        <v>PUBLISHED</v>
+      </c>
+      <c r="AF54" t="str">
         <v>SUPER_ADMIN</v>
       </c>
     </row>
@@ -5918,84 +6408,93 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C55" t="str">
-        <v>f09e670d-a0f2-405e-99c2-e99692b87bf9</v>
+        <v>c6917c55-31eb-45b1-87f3-32ed37a79cd1</v>
       </c>
       <c r="D55" t="str">
-        <v>1b346010-dbde-452a-b16a-eeef09d45b58</v>
+        <v>d7a45676-7a9c-41b7-9884-bfdc4356d8cb</v>
       </c>
       <c r="E55" t="str">
-        <v>Top Down Bottom Up Shade</v>
+        <v>PROD-00054</v>
       </c>
       <c r="F55" t="str">
         <v>Top Down Bottom Up Shade</v>
       </c>
       <c r="G55" t="str">
+        <v>Top Down Bottom Up Shade</v>
+      </c>
+      <c r="H55" t="str">
         <v>Energy saving shade</v>
       </c>
-      <c r="H55" t="str">
+      <c r="I55" t="str">
         <v>Cellular shade</v>
       </c>
-      <c r="I55" t="str">
+      <c r="J55" t="str">
         <v>cellbular-shabde</v>
       </c>
-      <c r="J55" t="str">
+      <c r="K55" t="str">
         <v>https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785143/slide5_dldteb.png</v>
       </c>
-      <c r="K55" t="str">
+      <c r="L55" t="str">
         <v>{"https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785394/Aurora_Wheat_Dimout_Roman_Blinds-min_rcjk6x.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785393/Aurora_Wheat_Dimout_Roman_Blinds_1-min_njwb1u.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785394/Aurora_Wheat_Dimout_Roman_Blinds_2-min_p3jmxg.jpg"}</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <v>100</v>
       </c>
-      <c r="M55">
+      <c r="N55">
         <v>70</v>
       </c>
-      <c r="N55" t="b">
+      <c r="O55" t="b">
         <v>0</v>
       </c>
-      <c r="O55">
+      <c r="P55">
         <v>0</v>
       </c>
-      <c r="P55">
+      <c r="Q55">
         <v>150</v>
       </c>
-      <c r="Q55">
-        <v>95</v>
-      </c>
       <c r="R55">
+        <v>100</v>
+      </c>
+      <c r="S55">
         <v>180</v>
       </c>
-      <c r="S55" t="str">
+      <c r="T55">
+        <v>100</v>
+      </c>
+      <c r="U55">
+        <v>180</v>
+      </c>
+      <c r="V55" t="str">
         <v>Honeycomb</v>
       </c>
-      <c r="T55" t="str">
+      <c r="W55" t="str">
         <v>Fabric</v>
       </c>
-      <c r="U55" t="str">
+      <c r="X55" t="str">
         <v>Black</v>
       </c>
-      <c r="V55" t="str">
+      <c r="Y55" t="str">
         <v>Thermal</v>
       </c>
-      <c r="W55" t="str">
+      <c r="Z55" t="str">
         <v>Guide 9</v>
       </c>
-      <c r="X55" t="str">
+      <c r="AA55" t="str">
         <v>Cellular Shade</v>
       </c>
-      <c r="Y55" t="str">
+      <c r="AB55" t="str">
         <v>Energy efficient shades</v>
       </c>
-      <c r="Z55" t="str">
+      <c r="AC55" t="str">
         <v>cellular-shade</v>
       </c>
-      <c r="AA55" t="str">
-        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
-      </c>
-      <c r="AB55" t="str">
-        <v>PUBLISHED</v>
-      </c>
-      <c r="AC55" t="str">
+      <c r="AD55" t="str">
+        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
+      </c>
+      <c r="AE55" t="str">
+        <v>PUBLISHED</v>
+      </c>
+      <c r="AF55" t="str">
         <v>SUPER_ADMIN</v>
       </c>
     </row>
@@ -6007,84 +6506,93 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C56" t="str">
-        <v>f09e670d-a0f2-405e-99c2-e99692b87bf9</v>
+        <v>c6917c55-31eb-45b1-87f3-32ed37a79cd1</v>
       </c>
       <c r="D56" t="str">
-        <v>1b346010-dbde-452a-b16a-eeef09d45b58</v>
+        <v>d7a45676-7a9c-41b7-9884-bfdc4356d8cb</v>
       </c>
       <c r="E56" t="str">
-        <v>Energy Saving Shade</v>
+        <v>PROD-00055</v>
       </c>
       <c r="F56" t="str">
         <v>Energy Saving Shade</v>
       </c>
       <c r="G56" t="str">
+        <v>Energy Saving Shade</v>
+      </c>
+      <c r="H56" t="str">
         <v>Motorized roller blind</v>
       </c>
-      <c r="H56" t="str">
+      <c r="I56" t="str">
         <v>Motor roller</v>
       </c>
-      <c r="I56" t="str">
+      <c r="J56" t="str">
         <v>motorized-roller-bliind</v>
       </c>
-      <c r="J56" t="str">
+      <c r="K56" t="str">
         <v>https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785189/slide3_fcagso.png</v>
       </c>
-      <c r="K56" t="str">
+      <c r="L56" t="str">
         <v>{"https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785586/Bric_Aquamarine_Dimout_Roman_Blinds-min_k7x3a0.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765957491/Bric_Aquamarine_Dimout_Roman_Blinds_2-min_zfjne2.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785586/Bric_Aquamarine_Dimout_Roman_Blinds_1-min_qgaijd.jpg"}</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <v>150</v>
       </c>
-      <c r="M56">
+      <c r="N56">
         <v>90</v>
       </c>
-      <c r="N56" t="b">
+      <c r="O56" t="b">
         <v>1</v>
       </c>
-      <c r="O56">
+      <c r="P56">
         <v>58</v>
       </c>
-      <c r="P56">
+      <c r="Q56">
         <v>70</v>
       </c>
-      <c r="Q56">
-        <v>130</v>
-      </c>
       <c r="R56">
+        <v>200</v>
+      </c>
+      <c r="S56">
         <v>195</v>
       </c>
-      <c r="S56" t="str">
+      <c r="T56">
+        <v>200</v>
+      </c>
+      <c r="U56">
+        <v>195</v>
+      </c>
+      <c r="V56" t="str">
         <v>Solid</v>
       </c>
-      <c r="T56" t="str">
+      <c r="W56" t="str">
         <v>Polyester</v>
       </c>
-      <c r="U56" t="str">
+      <c r="X56" t="str">
         <v>Red</v>
       </c>
-      <c r="V56" t="str">
+      <c r="Y56" t="str">
         <v>Remote included</v>
       </c>
-      <c r="W56" t="str">
+      <c r="Z56" t="str">
         <v>Guide 10</v>
       </c>
-      <c r="X56" t="str">
+      <c r="AA56" t="str">
         <v>Motorized Roller Blind</v>
       </c>
-      <c r="Y56" t="str">
+      <c r="AB56" t="str">
         <v>Smart motor blinds</v>
       </c>
-      <c r="Z56" t="str">
+      <c r="AC56" t="str">
         <v>motorized-roller</v>
       </c>
-      <c r="AA56" t="str">
-        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
-      </c>
-      <c r="AB56" t="str">
-        <v>PUBLISHED</v>
-      </c>
-      <c r="AC56" t="str">
+      <c r="AD56" t="str">
+        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
+      </c>
+      <c r="AE56" t="str">
+        <v>PUBLISHED</v>
+      </c>
+      <c r="AF56" t="str">
         <v>SUPER_ADMIN</v>
       </c>
     </row>
@@ -6096,90 +6604,99 @@
         <v>Dimout Vertical Blinds</v>
       </c>
       <c r="C57" t="str">
-        <v>f09e670d-a0f2-405e-99c2-e99692b87bf9</v>
+        <v>c6917c55-31eb-45b1-87f3-32ed37a79cd1</v>
       </c>
       <c r="D57" t="str">
-        <v>1b346010-dbde-452a-b16a-eeef09d45b58</v>
+        <v>d7a45676-7a9c-41b7-9884-bfdc4356d8cb</v>
       </c>
       <c r="E57" t="str">
-        <v>Custom Size Window Blind</v>
+        <v>PROD-00056</v>
       </c>
       <c r="F57" t="str">
         <v>Custom Size Window Blind</v>
       </c>
       <c r="G57" t="str">
+        <v>Custom Size Window Blind</v>
+      </c>
+      <c r="H57" t="str">
         <v>Energy saving shade</v>
       </c>
-      <c r="H57" t="str">
+      <c r="I57" t="str">
         <v>Cellular shade</v>
       </c>
-      <c r="I57" t="str">
+      <c r="J57" t="str">
         <v>cebllular-shabde</v>
       </c>
-      <c r="J57" t="str">
+      <c r="K57" t="str">
         <v>https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785360/slide1_uggynp.webp</v>
       </c>
-      <c r="K57" t="str">
+      <c r="L57" t="str">
         <v>{"https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785536/Dorian_Luna_Dimout_Roller_Blinds-min_ebhnvd.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785536/Dorian_Luna_Dimout_Roller_Blinds_1-min_a6jw1j.jpg","https://res.cloudinary.com/dtj9lcue0/image/upload/v1765785536/Dorian_Luna_Dimout_Roller_Blinds_2-min_bxkqus.jpg"}</v>
       </c>
-      <c r="L57">
+      <c r="M57">
         <v>130</v>
       </c>
-      <c r="M57">
+      <c r="N57">
         <v>90</v>
       </c>
-      <c r="N57" t="b">
+      <c r="O57" t="b">
         <v>0</v>
       </c>
-      <c r="O57">
+      <c r="P57">
         <v>0</v>
       </c>
-      <c r="P57">
+      <c r="Q57">
         <v>150</v>
       </c>
-      <c r="Q57">
-        <v>95</v>
-      </c>
       <c r="R57">
+        <v>150</v>
+      </c>
+      <c r="S57">
         <v>180</v>
       </c>
-      <c r="S57" t="str">
+      <c r="T57">
+        <v>150</v>
+      </c>
+      <c r="U57">
+        <v>180</v>
+      </c>
+      <c r="V57" t="str">
         <v>Honeycomb</v>
       </c>
-      <c r="T57" t="str">
+      <c r="W57" t="str">
         <v>Fabric</v>
       </c>
-      <c r="U57" t="str">
+      <c r="X57" t="str">
         <v>Black</v>
       </c>
-      <c r="V57" t="str">
+      <c r="Y57" t="str">
         <v>Thermal</v>
       </c>
-      <c r="W57" t="str">
+      <c r="Z57" t="str">
         <v>Guide 9</v>
       </c>
-      <c r="X57" t="str">
+      <c r="AA57" t="str">
         <v>Cellular Shade</v>
       </c>
-      <c r="Y57" t="str">
+      <c r="AB57" t="str">
         <v>Energy efficient shades</v>
       </c>
-      <c r="Z57" t="str">
+      <c r="AC57" t="str">
         <v>cellular-shade</v>
       </c>
-      <c r="AA57" t="str">
-        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
-      </c>
-      <c r="AB57" t="str">
-        <v>PUBLISHED</v>
-      </c>
-      <c r="AC57" t="str">
+      <c r="AD57" t="str">
+        <v>&lt;script type="applicationld+json"&gt;{"@context": "https:schema.org","@type": "ItemList","name": "Electronics","itemListElement": [{"@type": "Product","name": "Wireless Headphones","url": "https:example.comelectronicswireless-headphones"},]}&lt;script&gt;</v>
+      </c>
+      <c r="AE57" t="str">
+        <v>PUBLISHED</v>
+      </c>
+      <c r="AF57" t="str">
         <v>SUPER_ADMIN</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AC57"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AF57"/>
   </ignoredErrors>
 </worksheet>
 </file>